--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\김소윤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D74F1E-18C3-4A46-A860-AE9142BD10CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A70FF1-FC66-4F73-8171-3BF5C0A8BEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -980,9 +980,33 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1002,30 +1026,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1354,7 +1354,7 @@
     <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="16" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="56" customWidth="1"/>
     <col min="7" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="61" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1388,47 +1388,47 @@
       <c r="C2" s="17">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="38"/>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="55" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18">
         <v>0.19652777777777777</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="39"/>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="55" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="19">
         <v>0.26250000000000001</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="40">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="55" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1442,10 +1442,12 @@
         <f>C5</f>
         <v>1.0083333333333333</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="55" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
@@ -1459,39 +1461,39 @@
         <f>C6</f>
         <v>0.98055555555555562</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="17">
         <v>0.69861111111111107</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="57" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="38"/>
-      <c r="F7" s="63"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="19">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="40">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
-      <c r="F8" s="63"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1505,265 +1507,265 @@
         <f>C9</f>
         <v>1.0145833333333334</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="17">
         <v>0.56666666666666665</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="57" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="63"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="18">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="63"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="19">
         <v>0.32847222222222222</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="40">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="17">
         <v>0.26805555555555555</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="57" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="63"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="22">
         <v>1.1375</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="40">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
-      <c r="F14" s="63"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="17">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="57" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="39"/>
-      <c r="F15" s="63"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="18">
         <v>0.3972222222222222</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="63"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="18">
         <v>0.4284722222222222</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="63"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="19">
         <v>0.48541666666666666</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="40">
         <f>SUM(C15:C18)</f>
         <v>1.4138888888888888</v>
       </c>
-      <c r="F18" s="63"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="17">
         <v>0.43263888888888885</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="67" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="38"/>
-      <c r="F19" s="63"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="18">
         <v>0.59305555555555556</v>
       </c>
-      <c r="D20" s="59"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="63"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="19">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="40">
         <f>SUM(C19:C21)</f>
         <v>1.6902777777777778</v>
       </c>
-      <c r="F21" s="63"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="17">
         <v>0.32708333333333334</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="68" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="63"/>
+      <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="18">
         <v>0.22430555555555556</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="63"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="18">
         <v>0.33888888888888885</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="63"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="19">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="40">
         <f>SUM(C22:C25)</f>
         <v>1.5951388888888889</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="17">
         <v>0.79375000000000007</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="57" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="F26" s="63"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="18">
         <v>0.57708333333333328</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="63"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="19">
         <v>0.47361111111111115</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="40">
         <f>SUM(C26:C28)</f>
         <v>1.8444444444444446</v>
       </c>
-      <c r="F28" s="63"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
@@ -1782,10 +1784,10 @@
         <f>C29</f>
         <v>2.1118055555555553</v>
       </c>
-      <c r="F29" s="63"/>
+      <c r="F29" s="55"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="69" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1794,29 +1796,29 @@
       <c r="C30" s="24">
         <v>0.65347222222222223</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="57" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="39"/>
-      <c r="F30" s="63"/>
+      <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="25">
         <v>0.73888888888888893</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="40">
         <f>SUM(C30:C31)</f>
         <v>1.3923611111111112</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="55"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
@@ -1830,10 +1832,10 @@
         <f>C32</f>
         <v>1.1659722222222222</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="55"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
@@ -1847,10 +1849,10 @@
         <f>C33</f>
         <v>0.84375</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="55"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
@@ -1864,10 +1866,10 @@
         <f>C34</f>
         <v>1.0430555555555556</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="55"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
@@ -1881,10 +1883,10 @@
         <f>C35</f>
         <v>1.0673611111111112</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="55"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="10" t="s">
         <v>35</v>
       </c>
@@ -1898,10 +1900,10 @@
         <f t="shared" ref="E36:E41" si="0">C36</f>
         <v>0.96111111111111114</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
@@ -1915,10 +1917,10 @@
         <f t="shared" si="0"/>
         <v>1.3388888888888888</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="55"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
@@ -1932,10 +1934,10 @@
         <f t="shared" si="0"/>
         <v>1.5513888888888889</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="55"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
       </c>
@@ -1949,10 +1951,10 @@
         <f t="shared" si="0"/>
         <v>0.94236111111111109</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
@@ -1966,10 +1968,10 @@
         <f t="shared" si="0"/>
         <v>0.88611111111111107</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="55"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
@@ -1983,39 +1985,39 @@
         <f t="shared" si="0"/>
         <v>1.1736111111111112</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="55"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="24">
         <v>0.73125000000000007</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="57" t="s">
         <v>78</v>
       </c>
       <c r="E42" s="38"/>
-      <c r="F42" s="63"/>
+      <c r="F42" s="55"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="25">
         <v>0.72083333333333333</v>
       </c>
-      <c r="D43" s="55"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="40">
         <f>SUM(C42:C43)</f>
         <v>1.4520833333333334</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="55"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
       </c>
@@ -2029,10 +2031,10 @@
         <f>C44</f>
         <v>0.78611111111111109</v>
       </c>
-      <c r="F44" s="63"/>
+      <c r="F44" s="55"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
       </c>
@@ -2046,80 +2048,80 @@
         <f>C45</f>
         <v>0.9145833333333333</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="24">
         <v>0.29722222222222222</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="57" t="s">
         <v>81</v>
       </c>
       <c r="E46" s="38"/>
-      <c r="F46" s="63"/>
+      <c r="F46" s="55"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
+      <c r="A47" s="69"/>
       <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="25">
         <v>0.67152777777777783</v>
       </c>
-      <c r="D47" s="55"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="40">
         <f>SUM(C46:C47)</f>
         <v>0.96875</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="55"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="24">
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="57" t="s">
         <v>82</v>
       </c>
       <c r="E48" s="38"/>
-      <c r="F48" s="63"/>
+      <c r="F48" s="55"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="28">
         <v>0.63680555555555551</v>
       </c>
-      <c r="D49" s="55"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="39"/>
-      <c r="F49" s="63"/>
+      <c r="F49" s="55"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="25">
         <v>0.46388888888888885</v>
       </c>
-      <c r="D50" s="55"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="40">
         <f>SUM(C48:C50)</f>
         <v>1.1951388888888888</v>
       </c>
-      <c r="F50" s="63"/>
+      <c r="F50" s="55"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="10" t="s">
         <v>25</v>
       </c>
@@ -2133,10 +2135,10 @@
         <f>C51</f>
         <v>0.79375000000000007</v>
       </c>
-      <c r="F51" s="63"/>
+      <c r="F51" s="55"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="70" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -2145,41 +2147,41 @@
       <c r="C52" s="29">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="57" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="39"/>
-      <c r="F52" s="63"/>
+      <c r="F52" s="55"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="62"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="30">
         <v>0.20486111111111113</v>
       </c>
-      <c r="D53" s="55"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="39"/>
-      <c r="F53" s="63"/>
+      <c r="F53" s="55"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="62"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="31">
         <v>0.43263888888888885</v>
       </c>
-      <c r="D54" s="55"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="40">
         <f>SUM(C52:C54)</f>
         <v>0.74027777777777781</v>
       </c>
-      <c r="F54" s="63"/>
+      <c r="F54" s="55"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="64" t="s">
         <v>131</v>
       </c>
       <c r="B55" s="48" t="s">
@@ -2190,10 +2192,10 @@
       </c>
       <c r="D55" s="46"/>
       <c r="E55" s="43"/>
-      <c r="F55" s="63"/>
+      <c r="F55" s="55"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="50" t="s">
         <v>93</v>
       </c>
@@ -2202,10 +2204,10 @@
       </c>
       <c r="D56" s="47"/>
       <c r="E56" s="39"/>
-      <c r="F56" s="63"/>
+      <c r="F56" s="55"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="57"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="50" t="s">
         <v>94</v>
       </c>
@@ -2214,10 +2216,10 @@
       </c>
       <c r="D57" s="47"/>
       <c r="E57" s="39"/>
-      <c r="F57" s="63"/>
+      <c r="F57" s="55"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="57"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="50" t="s">
         <v>91</v>
       </c>
@@ -2226,10 +2228,10 @@
       </c>
       <c r="D58" s="47"/>
       <c r="E58" s="39"/>
-      <c r="F58" s="63"/>
+      <c r="F58" s="55"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="57"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="50" t="s">
         <v>95</v>
       </c>
@@ -2238,10 +2240,10 @@
       </c>
       <c r="D59" s="47"/>
       <c r="E59" s="39"/>
-      <c r="F59" s="63"/>
+      <c r="F59" s="55"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="57"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="50" t="s">
         <v>96</v>
       </c>
@@ -2250,10 +2252,10 @@
       </c>
       <c r="D60" s="47"/>
       <c r="E60" s="39"/>
-      <c r="F60" s="63"/>
+      <c r="F60" s="55"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="52" t="s">
         <v>97</v>
       </c>
@@ -2265,10 +2267,10 @@
         <f>SUM(C55:C61)</f>
         <v>1.4777777777777781</v>
       </c>
-      <c r="F61" s="63"/>
+      <c r="F61" s="55"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="48" t="s">
         <v>98</v>
       </c>
@@ -2277,10 +2279,10 @@
       </c>
       <c r="D62" s="46"/>
       <c r="E62" s="38"/>
-      <c r="F62" s="63"/>
+      <c r="F62" s="55"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="57"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="50" t="s">
         <v>99</v>
       </c>
@@ -2289,10 +2291,10 @@
       </c>
       <c r="D63" s="47"/>
       <c r="E63" s="39"/>
-      <c r="F63" s="63"/>
+      <c r="F63" s="55"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="57"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="50" t="s">
         <v>102</v>
       </c>
@@ -2301,10 +2303,10 @@
       </c>
       <c r="D64" s="47"/>
       <c r="E64" s="39"/>
-      <c r="F64" s="63"/>
+      <c r="F64" s="55"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="57"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="50" t="s">
         <v>103</v>
       </c>
@@ -2313,10 +2315,10 @@
       </c>
       <c r="D65" s="47"/>
       <c r="E65" s="39"/>
-      <c r="F65" s="63"/>
+      <c r="F65" s="55"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="57"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="52" t="s">
         <v>104</v>
       </c>
@@ -2328,10 +2330,10 @@
         <f>SUM(C62:C66)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F66" s="63"/>
+      <c r="F66" s="55"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="57"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="48" t="s">
         <v>105</v>
       </c>
@@ -2340,10 +2342,10 @@
       </c>
       <c r="D67" s="46"/>
       <c r="E67" s="38"/>
-      <c r="F67" s="63"/>
+      <c r="F67" s="55"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="57"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="50" t="s">
         <v>106</v>
       </c>
@@ -2352,10 +2354,10 @@
       </c>
       <c r="D68" s="47"/>
       <c r="E68" s="39"/>
-      <c r="F68" s="63"/>
+      <c r="F68" s="55"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="57"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="50" t="s">
         <v>107</v>
       </c>
@@ -2364,10 +2366,10 @@
       </c>
       <c r="D69" s="47"/>
       <c r="E69" s="39"/>
-      <c r="F69" s="63"/>
+      <c r="F69" s="55"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="57"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="50" t="s">
         <v>108</v>
       </c>
@@ -2376,10 +2378,10 @@
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="39"/>
-      <c r="F70" s="63"/>
+      <c r="F70" s="55"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="57"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="52" t="s">
         <v>109</v>
       </c>
@@ -2391,10 +2393,10 @@
         <f>SUM(C67:C71)</f>
         <v>1.3506944444444442</v>
       </c>
-      <c r="F71" s="63"/>
+      <c r="F71" s="55"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="57"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="48" t="s">
         <v>110</v>
       </c>
@@ -2403,10 +2405,10 @@
       </c>
       <c r="D72" s="46"/>
       <c r="E72" s="38"/>
-      <c r="F72" s="63"/>
+      <c r="F72" s="55"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="57"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="50" t="s">
         <v>111</v>
       </c>
@@ -2415,10 +2417,10 @@
       </c>
       <c r="D73" s="47"/>
       <c r="E73" s="39"/>
-      <c r="F73" s="63"/>
+      <c r="F73" s="55"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="57"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="50" t="s">
         <v>112</v>
       </c>
@@ -2427,10 +2429,10 @@
       </c>
       <c r="D74" s="47"/>
       <c r="E74" s="39"/>
-      <c r="F74" s="63"/>
+      <c r="F74" s="55"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="57"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="52" t="s">
         <v>113</v>
       </c>
@@ -2442,10 +2444,10 @@
         <f>SUM(C72:C75)</f>
         <v>1.2201388888888889</v>
       </c>
-      <c r="F75" s="63"/>
+      <c r="F75" s="55"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="57"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="48" t="s">
         <v>114</v>
       </c>
@@ -2454,10 +2456,10 @@
       </c>
       <c r="D76" s="46"/>
       <c r="E76" s="38"/>
-      <c r="F76" s="63"/>
+      <c r="F76" s="55"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="57"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="50" t="s">
         <v>115</v>
       </c>
@@ -2466,10 +2468,10 @@
       </c>
       <c r="D77" s="47"/>
       <c r="E77" s="39"/>
-      <c r="F77" s="63"/>
+      <c r="F77" s="55"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="57"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="50" t="s">
         <v>116</v>
       </c>
@@ -2478,10 +2480,10 @@
       </c>
       <c r="D78" s="47"/>
       <c r="E78" s="39"/>
-      <c r="F78" s="63"/>
+      <c r="F78" s="55"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="57"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="50" t="s">
         <v>117</v>
       </c>
@@ -2490,10 +2492,10 @@
       </c>
       <c r="D79" s="47"/>
       <c r="E79" s="39"/>
-      <c r="F79" s="63"/>
+      <c r="F79" s="55"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="57"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="52" t="s">
         <v>118</v>
       </c>
@@ -2505,10 +2507,10 @@
         <f>SUM(C76:C80)</f>
         <v>1.442361111111111</v>
       </c>
-      <c r="F80" s="63"/>
+      <c r="F80" s="55"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="57"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="48" t="s">
         <v>119</v>
       </c>
@@ -2517,10 +2519,10 @@
       </c>
       <c r="D81" s="46"/>
       <c r="E81" s="38"/>
-      <c r="F81" s="63"/>
+      <c r="F81" s="55"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="57"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="50" t="s">
         <v>120</v>
       </c>
@@ -2529,10 +2531,10 @@
       </c>
       <c r="D82" s="47"/>
       <c r="E82" s="39"/>
-      <c r="F82" s="63"/>
+      <c r="F82" s="55"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="57"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="50" t="s">
         <v>122</v>
       </c>
@@ -2541,10 +2543,10 @@
       </c>
       <c r="D83" s="47"/>
       <c r="E83" s="39"/>
-      <c r="F83" s="63"/>
+      <c r="F83" s="55"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="57"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="52" t="s">
         <v>121</v>
       </c>
@@ -2556,10 +2558,10 @@
         <f>SUM(C81:C84)</f>
         <v>1.2465277777777779</v>
       </c>
-      <c r="F84" s="63"/>
+      <c r="F84" s="55"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="57"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="48" t="s">
         <v>123</v>
       </c>
@@ -2568,10 +2570,10 @@
       </c>
       <c r="D85" s="46"/>
       <c r="E85" s="38"/>
-      <c r="F85" s="63"/>
+      <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="57"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="50" t="s">
         <v>124</v>
       </c>
@@ -2580,10 +2582,10 @@
       </c>
       <c r="D86" s="47"/>
       <c r="E86" s="39"/>
-      <c r="F86" s="63"/>
+      <c r="F86" s="55"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="57"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="50" t="s">
         <v>125</v>
       </c>
@@ -2592,10 +2594,10 @@
       </c>
       <c r="D87" s="47"/>
       <c r="E87" s="39"/>
-      <c r="F87" s="63"/>
+      <c r="F87" s="55"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="57"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="52" t="s">
         <v>126</v>
       </c>
@@ -2607,10 +2609,10 @@
         <f>SUM(C85:C88)</f>
         <v>1.4923611111111112</v>
       </c>
-      <c r="F88" s="63"/>
+      <c r="F88" s="55"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="57"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="48" t="s">
         <v>127</v>
       </c>
@@ -2619,10 +2621,10 @@
       </c>
       <c r="D89" s="46"/>
       <c r="E89" s="38"/>
-      <c r="F89" s="63"/>
+      <c r="F89" s="55"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="57"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="50" t="s">
         <v>128</v>
       </c>
@@ -2631,10 +2633,10 @@
       </c>
       <c r="D90" s="47"/>
       <c r="E90" s="39"/>
-      <c r="F90" s="63"/>
+      <c r="F90" s="55"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="57"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="52" t="s">
         <v>129</v>
       </c>
@@ -2646,10 +2648,10 @@
         <f>SUM(C89:C91)</f>
         <v>1.1187499999999999</v>
       </c>
-      <c r="F91" s="63"/>
+      <c r="F91" s="55"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="57"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="50" t="s">
         <v>130</v>
       </c>
@@ -2658,10 +2660,10 @@
       </c>
       <c r="D92" s="47"/>
       <c r="E92" s="39"/>
-      <c r="F92" s="63"/>
+      <c r="F92" s="55"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="57"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="50" t="s">
         <v>100</v>
       </c>
@@ -2670,10 +2672,10 @@
       </c>
       <c r="D93" s="47"/>
       <c r="E93" s="39"/>
-      <c r="F93" s="63"/>
+      <c r="F93" s="55"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="58"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="52" t="s">
         <v>101</v>
       </c>
@@ -2685,7 +2687,7 @@
         <f>SUM(C92:C94)</f>
         <v>1.0909722222222222</v>
       </c>
-      <c r="F94" s="63"/>
+      <c r="F94" s="55"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B95" s="45" t="s">
@@ -2694,11 +2696,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D52:D54"/>
     <mergeCell ref="A55:A94"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
@@ -2708,6 +2705,11 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="A30:A51"/>
     <mergeCell ref="A52:A54"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D52:D54"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="D13:D14"/>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A70FF1-FC66-4F73-8171-3BF5C0A8BEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24720C76-152D-4555-8FD1-9FA7B0A03A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
+    <workbookView xWindow="0" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="143">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -578,6 +578,42 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,9 +1022,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,27 +1062,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1344,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1379,7 +1415,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="68" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1388,7 +1424,7 @@
       <c r="C2" s="17">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="65" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="38"/>
@@ -1397,28 +1433,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18">
         <v>0.19652777777777777</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="39"/>
       <c r="F3" s="55" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="19">
         <v>0.26250000000000001</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="40">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
@@ -1428,7 +1464,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1483,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
@@ -1464,28 +1500,28 @@
       <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="17">
         <v>0.69861111111111107</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="62" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="19">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="40">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
@@ -1493,7 +1529,7 @@
       <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1510,40 +1546,40 @@
       <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="17">
         <v>0.56666666666666665</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="62" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="18">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="39"/>
       <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="19">
         <v>0.32847222222222222</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="40">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
@@ -1551,28 +1587,28 @@
       <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="17">
         <v>0.26805555555555555</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="22">
         <v>1.1375</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="40">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
@@ -1580,52 +1616,52 @@
       <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="17">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="62" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="18">
         <v>0.3972222222222222</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="39"/>
       <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="18">
         <v>0.4284722222222222</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="39"/>
       <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="19">
         <v>0.48541666666666666</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="40">
         <f>SUM(C15:C18)</f>
         <v>1.4138888888888888</v>
@@ -1633,40 +1669,40 @@
       <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="17">
         <v>0.43263888888888885</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="60" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="18">
         <v>0.59305555555555556</v>
       </c>
-      <c r="D20" s="67"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="39"/>
       <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="19">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D21" s="67"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="40">
         <f>SUM(C19:C21)</f>
         <v>1.6902777777777778</v>
@@ -1674,52 +1710,52 @@
       <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="17">
         <v>0.32708333333333334</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="61" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="18">
         <v>0.22430555555555556</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="39"/>
       <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="18">
         <v>0.33888888888888885</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="39"/>
       <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="19">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D25" s="57"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="40">
         <f>SUM(C22:C25)</f>
         <v>1.5951388888888889</v>
@@ -1727,40 +1763,40 @@
       <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="17">
         <v>0.79375000000000007</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="18">
         <v>0.57708333333333328</v>
       </c>
-      <c r="D27" s="57"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="39"/>
       <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="19">
         <v>0.47361111111111115</v>
       </c>
-      <c r="D28" s="57"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="40">
         <f>SUM(C26:C28)</f>
         <v>1.8444444444444446</v>
@@ -1787,7 +1823,7 @@
       <c r="F29" s="55"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="63" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1796,21 +1832,21 @@
       <c r="C30" s="24">
         <v>0.65347222222222223</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="62" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="25">
         <v>0.73888888888888893</v>
       </c>
-      <c r="D31" s="57"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="40">
         <f>SUM(C30:C31)</f>
         <v>1.3923611111111112</v>
@@ -1818,7 +1854,7 @@
       <c r="F31" s="55"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
@@ -1835,7 +1871,7 @@
       <c r="F32" s="55"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
@@ -1852,7 +1888,7 @@
       <c r="F33" s="55"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
@@ -1869,7 +1905,7 @@
       <c r="F34" s="55"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
@@ -1886,7 +1922,7 @@
       <c r="F35" s="55"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="10" t="s">
         <v>35</v>
       </c>
@@ -1903,7 +1939,7 @@
       <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
@@ -1920,7 +1956,7 @@
       <c r="F37" s="55"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
@@ -1937,7 +1973,7 @@
       <c r="F38" s="55"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
       </c>
@@ -1954,7 +1990,7 @@
       <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
@@ -1971,7 +2007,7 @@
       <c r="F40" s="55"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
@@ -1988,28 +2024,28 @@
       <c r="F41" s="55"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="24">
         <v>0.73125000000000007</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="62" t="s">
         <v>78</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="55"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="25">
         <v>0.72083333333333333</v>
       </c>
-      <c r="D43" s="57"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="40">
         <f>SUM(C42:C43)</f>
         <v>1.4520833333333334</v>
@@ -2017,7 +2053,7 @@
       <c r="F43" s="55"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
       </c>
@@ -2034,7 +2070,7 @@
       <c r="F44" s="55"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="69"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
       </c>
@@ -2051,28 +2087,28 @@
       <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="69"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="24">
         <v>0.29722222222222222</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="62" t="s">
         <v>81</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="55"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="25">
         <v>0.67152777777777783</v>
       </c>
-      <c r="D47" s="57"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="40">
         <f>SUM(C46:C47)</f>
         <v>0.96875</v>
@@ -2080,40 +2116,40 @@
       <c r="F47" s="55"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="24">
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="62" t="s">
         <v>82</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="55"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="28">
         <v>0.63680555555555551</v>
       </c>
-      <c r="D49" s="57"/>
+      <c r="D49" s="62"/>
       <c r="E49" s="39"/>
       <c r="F49" s="55"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="25">
         <v>0.46388888888888885</v>
       </c>
-      <c r="D50" s="57"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="40">
         <f>SUM(C48:C50)</f>
         <v>1.1951388888888888</v>
@@ -2121,7 +2157,7 @@
       <c r="F50" s="55"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="10" t="s">
         <v>25</v>
       </c>
@@ -2138,7 +2174,7 @@
       <c r="F51" s="55"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="64" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -2147,33 +2183,33 @@
       <c r="C52" s="29">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="62" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="55"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="70"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="30">
         <v>0.20486111111111113</v>
       </c>
-      <c r="D53" s="57"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="39"/>
       <c r="F53" s="55"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="70"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="31">
         <v>0.43263888888888885</v>
       </c>
-      <c r="D54" s="57"/>
+      <c r="D54" s="62"/>
       <c r="E54" s="40">
         <f>SUM(C52:C54)</f>
         <v>0.74027777777777781</v>
@@ -2181,7 +2217,7 @@
       <c r="F54" s="55"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="57" t="s">
         <v>131</v>
       </c>
       <c r="B55" s="48" t="s">
@@ -2190,12 +2226,14 @@
       <c r="C55" s="49">
         <v>0.40486111111111112</v>
       </c>
-      <c r="D55" s="46"/>
+      <c r="D55" s="46" t="s">
+        <v>134</v>
+      </c>
       <c r="E55" s="43"/>
       <c r="F55" s="55"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="65"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="50" t="s">
         <v>93</v>
       </c>
@@ -2207,7 +2245,7 @@
       <c r="F56" s="55"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="50" t="s">
         <v>94</v>
       </c>
@@ -2219,7 +2257,7 @@
       <c r="F57" s="55"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="65"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="50" t="s">
         <v>91</v>
       </c>
@@ -2231,7 +2269,7 @@
       <c r="F58" s="55"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="65"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="50" t="s">
         <v>95</v>
       </c>
@@ -2243,7 +2281,7 @@
       <c r="F59" s="55"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="65"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="50" t="s">
         <v>96</v>
       </c>
@@ -2255,7 +2293,7 @@
       <c r="F60" s="55"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="52" t="s">
         <v>97</v>
       </c>
@@ -2270,19 +2308,21 @@
       <c r="F61" s="55"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="65"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="48" t="s">
         <v>98</v>
       </c>
       <c r="C62" s="49">
         <v>0.12291666666666667</v>
       </c>
-      <c r="D62" s="46"/>
+      <c r="D62" s="46" t="s">
+        <v>135</v>
+      </c>
       <c r="E62" s="38"/>
       <c r="F62" s="55"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="50" t="s">
         <v>99</v>
       </c>
@@ -2294,7 +2334,7 @@
       <c r="F63" s="55"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="50" t="s">
         <v>102</v>
       </c>
@@ -2306,7 +2346,7 @@
       <c r="F64" s="55"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="50" t="s">
         <v>103</v>
       </c>
@@ -2318,7 +2358,7 @@
       <c r="F65" s="55"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="52" t="s">
         <v>104</v>
       </c>
@@ -2333,19 +2373,21 @@
       <c r="F66" s="55"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="48" t="s">
         <v>105</v>
       </c>
       <c r="C67" s="49">
         <v>0.34513888888888888</v>
       </c>
-      <c r="D67" s="46"/>
+      <c r="D67" s="46" t="s">
+        <v>136</v>
+      </c>
       <c r="E67" s="38"/>
       <c r="F67" s="55"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="50" t="s">
         <v>106</v>
       </c>
@@ -2357,7 +2399,7 @@
       <c r="F68" s="55"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="50" t="s">
         <v>107</v>
       </c>
@@ -2369,7 +2411,7 @@
       <c r="F69" s="55"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="65"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="50" t="s">
         <v>108</v>
       </c>
@@ -2381,7 +2423,7 @@
       <c r="F70" s="55"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="52" t="s">
         <v>109</v>
       </c>
@@ -2396,19 +2438,21 @@
       <c r="F71" s="55"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="65"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="48" t="s">
         <v>110</v>
       </c>
       <c r="C72" s="49">
         <v>0.3215277777777778</v>
       </c>
-      <c r="D72" s="46"/>
+      <c r="D72" s="46" t="s">
+        <v>137</v>
+      </c>
       <c r="E72" s="38"/>
       <c r="F72" s="55"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="65"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="50" t="s">
         <v>111</v>
       </c>
@@ -2420,7 +2464,7 @@
       <c r="F73" s="55"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="65"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="50" t="s">
         <v>112</v>
       </c>
@@ -2432,7 +2476,7 @@
       <c r="F74" s="55"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="65"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="52" t="s">
         <v>113</v>
       </c>
@@ -2447,19 +2491,21 @@
       <c r="F75" s="55"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="65"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="48" t="s">
         <v>114</v>
       </c>
       <c r="C76" s="49">
         <v>0.24861111111111112</v>
       </c>
-      <c r="D76" s="46"/>
+      <c r="D76" s="46" t="s">
+        <v>138</v>
+      </c>
       <c r="E76" s="38"/>
       <c r="F76" s="55"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="65"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="50" t="s">
         <v>115</v>
       </c>
@@ -2471,7 +2517,7 @@
       <c r="F77" s="55"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="65"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="50" t="s">
         <v>116</v>
       </c>
@@ -2483,7 +2529,7 @@
       <c r="F78" s="55"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="65"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="50" t="s">
         <v>117</v>
       </c>
@@ -2495,7 +2541,7 @@
       <c r="F79" s="55"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="65"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="52" t="s">
         <v>118</v>
       </c>
@@ -2510,19 +2556,21 @@
       <c r="F80" s="55"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="65"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="48" t="s">
         <v>119</v>
       </c>
       <c r="C81" s="49">
         <v>0.3833333333333333</v>
       </c>
-      <c r="D81" s="46"/>
+      <c r="D81" s="46" t="s">
+        <v>139</v>
+      </c>
       <c r="E81" s="38"/>
       <c r="F81" s="55"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="65"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="50" t="s">
         <v>120</v>
       </c>
@@ -2534,7 +2582,7 @@
       <c r="F82" s="55"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="65"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="50" t="s">
         <v>122</v>
       </c>
@@ -2546,7 +2594,7 @@
       <c r="F83" s="55"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="65"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="52" t="s">
         <v>121</v>
       </c>
@@ -2561,19 +2609,21 @@
       <c r="F84" s="55"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="65"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="48" t="s">
         <v>123</v>
       </c>
       <c r="C85" s="49">
         <v>0.21458333333333335</v>
       </c>
-      <c r="D85" s="46"/>
+      <c r="D85" s="46" t="s">
+        <v>140</v>
+      </c>
       <c r="E85" s="38"/>
       <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="65"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="50" t="s">
         <v>124</v>
       </c>
@@ -2585,7 +2635,7 @@
       <c r="F86" s="55"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="65"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="50" t="s">
         <v>125</v>
       </c>
@@ -2597,7 +2647,7 @@
       <c r="F87" s="55"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="65"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="52" t="s">
         <v>126</v>
       </c>
@@ -2612,19 +2662,21 @@
       <c r="F88" s="55"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="65"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="48" t="s">
         <v>127</v>
       </c>
       <c r="C89" s="49">
         <v>0.375</v>
       </c>
-      <c r="D89" s="46"/>
+      <c r="D89" s="46" t="s">
+        <v>141</v>
+      </c>
       <c r="E89" s="38"/>
       <c r="F89" s="55"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="65"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="50" t="s">
         <v>128</v>
       </c>
@@ -2636,7 +2688,7 @@
       <c r="F90" s="55"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="65"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="52" t="s">
         <v>129</v>
       </c>
@@ -2651,19 +2703,21 @@
       <c r="F91" s="55"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="65"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C92" s="51">
         <v>0.4694444444444445</v>
       </c>
-      <c r="D92" s="47"/>
+      <c r="D92" s="47" t="s">
+        <v>142</v>
+      </c>
       <c r="E92" s="39"/>
       <c r="F92" s="55"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="65"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="50" t="s">
         <v>100</v>
       </c>
@@ -2675,7 +2729,7 @@
       <c r="F93" s="55"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="66"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="52" t="s">
         <v>101</v>
       </c>
@@ -2696,6 +2750,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A55:A94"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
@@ -2705,14 +2767,6 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="A30:A51"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24720C76-152D-4555-8FD1-9FA7B0A03A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135E97CF-8FC5-4480-83C0-C2F9B6F07BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1022,6 +1022,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1037,31 +1058,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1415,7 +1415,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="61" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1424,7 +1424,7 @@
       <c r="C2" s="17">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="58" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="38"/>
@@ -1433,28 +1433,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18">
         <v>0.19652777777777777</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="39"/>
       <c r="F3" s="55" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="19">
         <v>0.26250000000000001</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="40">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
@@ -1464,7 +1464,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
@@ -1497,31 +1497,33 @@
         <f>C6</f>
         <v>0.98055555555555562</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="55" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="17">
         <v>0.69861111111111107</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="57" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="19">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="40">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
@@ -1529,7 +1531,7 @@
       <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1546,40 +1548,40 @@
       <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="17">
         <v>0.56666666666666665</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="57" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="18">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D11" s="62"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="39"/>
       <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="19">
         <v>0.32847222222222222</v>
       </c>
-      <c r="D12" s="62"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="40">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
@@ -1587,28 +1589,28 @@
       <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="17">
         <v>0.26805555555555555</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="57" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="22">
         <v>1.1375</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="40">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
@@ -1616,52 +1618,52 @@
       <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="17">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="57" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="18">
         <v>0.3972222222222222</v>
       </c>
-      <c r="D16" s="62"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="39"/>
       <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="18">
         <v>0.4284722222222222</v>
       </c>
-      <c r="D17" s="62"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="39"/>
       <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="19">
         <v>0.48541666666666666</v>
       </c>
-      <c r="D18" s="62"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="40">
         <f>SUM(C15:C18)</f>
         <v>1.4138888888888888</v>
@@ -1669,40 +1671,40 @@
       <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="17">
         <v>0.43263888888888885</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="67" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="18">
         <v>0.59305555555555556</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="39"/>
       <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="19">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="40">
         <f>SUM(C19:C21)</f>
         <v>1.6902777777777778</v>
@@ -1710,52 +1712,52 @@
       <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="17">
         <v>0.32708333333333334</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="68" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="18">
         <v>0.22430555555555556</v>
       </c>
-      <c r="D23" s="62"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="39"/>
       <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="18">
         <v>0.33888888888888885</v>
       </c>
-      <c r="D24" s="62"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="39"/>
       <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="19">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D25" s="62"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="40">
         <f>SUM(C22:C25)</f>
         <v>1.5951388888888889</v>
@@ -1763,40 +1765,40 @@
       <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="17">
         <v>0.79375000000000007</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="57" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="18">
         <v>0.57708333333333328</v>
       </c>
-      <c r="D27" s="62"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="39"/>
       <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="19">
         <v>0.47361111111111115</v>
       </c>
-      <c r="D28" s="62"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="40">
         <f>SUM(C26:C28)</f>
         <v>1.8444444444444446</v>
@@ -1823,7 +1825,7 @@
       <c r="F29" s="55"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="69" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1832,21 +1834,21 @@
       <c r="C30" s="24">
         <v>0.65347222222222223</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="57" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="63"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="25">
         <v>0.73888888888888893</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="40">
         <f>SUM(C30:C31)</f>
         <v>1.3923611111111112</v>
@@ -1854,7 +1856,7 @@
       <c r="F31" s="55"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="63"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
@@ -1871,7 +1873,7 @@
       <c r="F32" s="55"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="63"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
@@ -1888,7 +1890,7 @@
       <c r="F33" s="55"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="63"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
@@ -1905,7 +1907,7 @@
       <c r="F34" s="55"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="63"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
@@ -1922,7 +1924,7 @@
       <c r="F35" s="55"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="10" t="s">
         <v>35</v>
       </c>
@@ -1939,7 +1941,7 @@
       <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="63"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +1958,7 @@
       <c r="F37" s="55"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="63"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
@@ -1973,7 +1975,7 @@
       <c r="F38" s="55"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="63"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
       </c>
@@ -1990,7 +1992,7 @@
       <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="63"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
@@ -2007,7 +2009,7 @@
       <c r="F40" s="55"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="63"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
@@ -2024,28 +2026,28 @@
       <c r="F41" s="55"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="63"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="24">
         <v>0.73125000000000007</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="57" t="s">
         <v>78</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="55"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="63"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="25">
         <v>0.72083333333333333</v>
       </c>
-      <c r="D43" s="62"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="40">
         <f>SUM(C42:C43)</f>
         <v>1.4520833333333334</v>
@@ -2053,7 +2055,7 @@
       <c r="F43" s="55"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="63"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
       </c>
@@ -2070,7 +2072,7 @@
       <c r="F44" s="55"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="63"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
       </c>
@@ -2087,28 +2089,28 @@
       <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="63"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="24">
         <v>0.29722222222222222</v>
       </c>
-      <c r="D46" s="62" t="s">
+      <c r="D46" s="57" t="s">
         <v>81</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="55"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
+      <c r="A47" s="69"/>
       <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="25">
         <v>0.67152777777777783</v>
       </c>
-      <c r="D47" s="62"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="40">
         <f>SUM(C46:C47)</f>
         <v>0.96875</v>
@@ -2116,40 +2118,40 @@
       <c r="F47" s="55"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="63"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="24">
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="57" t="s">
         <v>82</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="55"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="28">
         <v>0.63680555555555551</v>
       </c>
-      <c r="D49" s="62"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="39"/>
       <c r="F49" s="55"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="63"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="25">
         <v>0.46388888888888885</v>
       </c>
-      <c r="D50" s="62"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="40">
         <f>SUM(C48:C50)</f>
         <v>1.1951388888888888</v>
@@ -2157,7 +2159,7 @@
       <c r="F50" s="55"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="10" t="s">
         <v>25</v>
       </c>
@@ -2174,7 +2176,7 @@
       <c r="F51" s="55"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="70" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -2183,33 +2185,33 @@
       <c r="C52" s="29">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D52" s="62" t="s">
+      <c r="D52" s="57" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="55"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="64"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="30">
         <v>0.20486111111111113</v>
       </c>
-      <c r="D53" s="62"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="39"/>
       <c r="F53" s="55"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="64"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="31">
         <v>0.43263888888888885</v>
       </c>
-      <c r="D54" s="62"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="40">
         <f>SUM(C52:C54)</f>
         <v>0.74027777777777781</v>
@@ -2217,7 +2219,7 @@
       <c r="F54" s="55"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="64" t="s">
         <v>131</v>
       </c>
       <c r="B55" s="48" t="s">
@@ -2233,7 +2235,7 @@
       <c r="F55" s="55"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="58"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="50" t="s">
         <v>93</v>
       </c>
@@ -2245,7 +2247,7 @@
       <c r="F56" s="55"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="58"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="50" t="s">
         <v>94</v>
       </c>
@@ -2257,7 +2259,7 @@
       <c r="F57" s="55"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="58"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="50" t="s">
         <v>91</v>
       </c>
@@ -2269,7 +2271,7 @@
       <c r="F58" s="55"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="58"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="50" t="s">
         <v>95</v>
       </c>
@@ -2281,7 +2283,7 @@
       <c r="F59" s="55"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="58"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="50" t="s">
         <v>96</v>
       </c>
@@ -2293,7 +2295,7 @@
       <c r="F60" s="55"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="52" t="s">
         <v>97</v>
       </c>
@@ -2308,7 +2310,7 @@
       <c r="F61" s="55"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="48" t="s">
         <v>98</v>
       </c>
@@ -2322,7 +2324,7 @@
       <c r="F62" s="55"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="58"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="50" t="s">
         <v>99</v>
       </c>
@@ -2334,7 +2336,7 @@
       <c r="F63" s="55"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="58"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="50" t="s">
         <v>102</v>
       </c>
@@ -2346,7 +2348,7 @@
       <c r="F64" s="55"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="58"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="50" t="s">
         <v>103</v>
       </c>
@@ -2358,7 +2360,7 @@
       <c r="F65" s="55"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="58"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="52" t="s">
         <v>104</v>
       </c>
@@ -2373,7 +2375,7 @@
       <c r="F66" s="55"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="58"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="48" t="s">
         <v>105</v>
       </c>
@@ -2387,7 +2389,7 @@
       <c r="F67" s="55"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="58"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="50" t="s">
         <v>106</v>
       </c>
@@ -2399,7 +2401,7 @@
       <c r="F68" s="55"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="58"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="50" t="s">
         <v>107</v>
       </c>
@@ -2411,7 +2413,7 @@
       <c r="F69" s="55"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="58"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="50" t="s">
         <v>108</v>
       </c>
@@ -2423,7 +2425,7 @@
       <c r="F70" s="55"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="58"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="52" t="s">
         <v>109</v>
       </c>
@@ -2438,7 +2440,7 @@
       <c r="F71" s="55"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="58"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="48" t="s">
         <v>110</v>
       </c>
@@ -2452,7 +2454,7 @@
       <c r="F72" s="55"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="58"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="50" t="s">
         <v>111</v>
       </c>
@@ -2464,7 +2466,7 @@
       <c r="F73" s="55"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="58"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="50" t="s">
         <v>112</v>
       </c>
@@ -2476,7 +2478,7 @@
       <c r="F74" s="55"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="58"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="52" t="s">
         <v>113</v>
       </c>
@@ -2491,7 +2493,7 @@
       <c r="F75" s="55"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="58"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="48" t="s">
         <v>114</v>
       </c>
@@ -2505,7 +2507,7 @@
       <c r="F76" s="55"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="58"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="50" t="s">
         <v>115</v>
       </c>
@@ -2517,7 +2519,7 @@
       <c r="F77" s="55"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="58"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="50" t="s">
         <v>116</v>
       </c>
@@ -2529,7 +2531,7 @@
       <c r="F78" s="55"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="58"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="50" t="s">
         <v>117</v>
       </c>
@@ -2541,7 +2543,7 @@
       <c r="F79" s="55"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="58"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="52" t="s">
         <v>118</v>
       </c>
@@ -2556,7 +2558,7 @@
       <c r="F80" s="55"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="58"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="48" t="s">
         <v>119</v>
       </c>
@@ -2570,7 +2572,7 @@
       <c r="F81" s="55"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="58"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="50" t="s">
         <v>120</v>
       </c>
@@ -2582,7 +2584,7 @@
       <c r="F82" s="55"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="58"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="50" t="s">
         <v>122</v>
       </c>
@@ -2594,7 +2596,7 @@
       <c r="F83" s="55"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="58"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="52" t="s">
         <v>121</v>
       </c>
@@ -2609,7 +2611,7 @@
       <c r="F84" s="55"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="58"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="48" t="s">
         <v>123</v>
       </c>
@@ -2623,7 +2625,7 @@
       <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="58"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="50" t="s">
         <v>124</v>
       </c>
@@ -2635,7 +2637,7 @@
       <c r="F86" s="55"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="58"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="50" t="s">
         <v>125</v>
       </c>
@@ -2647,7 +2649,7 @@
       <c r="F87" s="55"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="58"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="52" t="s">
         <v>126</v>
       </c>
@@ -2662,7 +2664,7 @@
       <c r="F88" s="55"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="58"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="48" t="s">
         <v>127</v>
       </c>
@@ -2676,7 +2678,7 @@
       <c r="F89" s="55"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="58"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="50" t="s">
         <v>128</v>
       </c>
@@ -2688,7 +2690,7 @@
       <c r="F90" s="55"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="58"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="52" t="s">
         <v>129</v>
       </c>
@@ -2703,7 +2705,7 @@
       <c r="F91" s="55"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="58"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="50" t="s">
         <v>130</v>
       </c>
@@ -2717,7 +2719,7 @@
       <c r="F92" s="55"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="58"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="50" t="s">
         <v>100</v>
       </c>
@@ -2729,7 +2731,7 @@
       <c r="F93" s="55"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="59"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="52" t="s">
         <v>101</v>
       </c>
@@ -2750,14 +2752,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A55:A94"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
@@ -2767,6 +2761,14 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="A30:A51"/>
     <mergeCell ref="A52:A54"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135E97CF-8FC5-4480-83C0-C2F9B6F07BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE565F73-FA42-465D-812E-A526AC9E5384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="기초" sheetId="1" r:id="rId1"/>
+    <sheet name="심화" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="143">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -947,90 +948,90 @@
     <xf numFmtId="21" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,6 +1044,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1050,18 +1063,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,40 +1379,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="95.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="56" customWidth="1"/>
-    <col min="7" max="8" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="36" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1424,13 +1425,13 @@
       <c r="C2" s="17">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="55" t="s">
-        <v>133</v>
-      </c>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
@@ -1440,11 +1441,11 @@
       <c r="C3" s="18">
         <v>0.19652777777777777</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="55" t="s">
+      <c r="D3" s="52" t="s">
         <v>133</v>
       </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
@@ -1454,13 +1455,13 @@
       <c r="C4" s="19">
         <v>0.26250000000000001</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="40">
+      <c r="D4" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="39">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1471,15 +1472,15 @@
       <c r="C5" s="20">
         <v>1.0083333333333333</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="41">
+      <c r="F5" s="40">
         <f>C5</f>
         <v>1.0083333333333333</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1490,15 +1491,15 @@
       <c r="C6" s="21">
         <v>0.98055555555555562</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="42">
+      <c r="F6" s="41">
         <f>C6</f>
         <v>0.98055555555555562</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1509,11 +1510,13 @@
       <c r="C7" s="17">
         <v>0.69861111111111107</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="55"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
@@ -1523,12 +1526,14 @@
       <c r="C8" s="19">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="40">
+      <c r="D8" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="39">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
-      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="62"/>
@@ -1538,14 +1543,14 @@
       <c r="C9" s="20">
         <v>1.0145833333333334</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="41">
+      <c r="F9" s="40">
         <f>C9</f>
         <v>1.0145833333333334</v>
       </c>
-      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="62"/>
@@ -1555,11 +1560,11 @@
       <c r="C10" s="17">
         <v>0.56666666666666665</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="62"/>
@@ -1569,9 +1574,9 @@
       <c r="C11" s="18">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="62"/>
@@ -1581,12 +1586,12 @@
       <c r="C12" s="19">
         <v>0.32847222222222222</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="40">
+      <c r="D12" s="52"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="39">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
-      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="62"/>
@@ -1596,11 +1601,11 @@
       <c r="C13" s="17">
         <v>0.26805555555555555</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="52"/>
+      <c r="E13" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="62"/>
@@ -1610,12 +1615,12 @@
       <c r="C14" s="22">
         <v>1.1375</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="40">
+      <c r="D14" s="52"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="39">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
-      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="62"/>
@@ -1625,11 +1630,11 @@
       <c r="C15" s="17">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="62"/>
@@ -1639,9 +1644,9 @@
       <c r="C16" s="18">
         <v>0.3972222222222222</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="62"/>
@@ -1651,9 +1656,9 @@
       <c r="C17" s="18">
         <v>0.4284722222222222</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="55"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="62"/>
@@ -1663,12 +1668,12 @@
       <c r="C18" s="19">
         <v>0.48541666666666666</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="40">
+      <c r="D18" s="52"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="39">
         <f>SUM(C15:C18)</f>
         <v>1.4138888888888888</v>
       </c>
-      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="62"/>
@@ -1678,11 +1683,11 @@
       <c r="C19" s="17">
         <v>0.43263888888888885</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="52"/>
+      <c r="E19" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="55"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="62"/>
@@ -1692,9 +1697,9 @@
       <c r="C20" s="18">
         <v>0.59305555555555556</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="55"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="62"/>
@@ -1704,12 +1709,12 @@
       <c r="C21" s="19">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="40">
+      <c r="D21" s="52"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="39">
         <f>SUM(C19:C21)</f>
         <v>1.6902777777777778</v>
       </c>
-      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="62"/>
@@ -1719,11 +1724,11 @@
       <c r="C22" s="17">
         <v>0.32708333333333334</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="55"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="62"/>
@@ -1733,9 +1738,9 @@
       <c r="C23" s="18">
         <v>0.22430555555555556</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="55"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="62"/>
@@ -1745,9 +1750,9 @@
       <c r="C24" s="18">
         <v>0.33888888888888885</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="55"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
@@ -1757,12 +1762,12 @@
       <c r="C25" s="19">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="40">
+      <c r="D25" s="52"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="39">
         <f>SUM(C22:C25)</f>
         <v>1.5951388888888889</v>
       </c>
-      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="62"/>
@@ -1772,11 +1777,11 @@
       <c r="C26" s="17">
         <v>0.79375000000000007</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="55"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="62"/>
@@ -1786,9 +1791,9 @@
       <c r="C27" s="18">
         <v>0.57708333333333328</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="55"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="63"/>
@@ -1798,12 +1803,12 @@
       <c r="C28" s="19">
         <v>0.47361111111111115</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="40">
+      <c r="D28" s="52"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="39">
         <f>SUM(C26:C28)</f>
         <v>1.8444444444444446</v>
       </c>
-      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
@@ -1815,17 +1820,17 @@
       <c r="C29" s="23">
         <v>2.1118055555555553</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="52"/>
+      <c r="E29" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="41">
+      <c r="F29" s="40">
         <f>C29</f>
         <v>2.1118055555555553</v>
       </c>
-      <c r="F29" s="55"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="66" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1834,349 +1839,349 @@
       <c r="C30" s="24">
         <v>0.65347222222222223</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="55"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="25">
         <v>0.73888888888888893</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="40">
+      <c r="D31" s="52"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="39">
         <f>SUM(C30:C31)</f>
         <v>1.3923611111111112</v>
       </c>
-      <c r="F31" s="55"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="26">
         <v>1.1659722222222222</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="52"/>
+      <c r="E32" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="41">
-        <f>C32</f>
+      <c r="F32" s="40">
+        <f t="shared" ref="F32:F41" si="0">C32</f>
         <v>1.1659722222222222</v>
       </c>
-      <c r="F32" s="55"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="27">
         <v>0.84375</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="52"/>
+      <c r="E33" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="42">
-        <f>C33</f>
+      <c r="F33" s="41">
+        <f t="shared" si="0"/>
         <v>0.84375</v>
       </c>
-      <c r="F33" s="55"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="26">
         <v>1.0430555555555556</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="52"/>
+      <c r="E34" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="41">
-        <f>C34</f>
+      <c r="F34" s="40">
+        <f t="shared" si="0"/>
         <v>1.0430555555555556</v>
       </c>
-      <c r="F34" s="55"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="26">
         <v>1.0673611111111112</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="52"/>
+      <c r="E35" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="41">
-        <f>C35</f>
+      <c r="F35" s="40">
+        <f t="shared" si="0"/>
         <v>1.0673611111111112</v>
       </c>
-      <c r="F35" s="55"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="27">
         <v>0.96111111111111114</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="52"/>
+      <c r="E36" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="41">
-        <f t="shared" ref="E36:E41" si="0">C36</f>
+      <c r="F36" s="40">
+        <f t="shared" si="0"/>
         <v>0.96111111111111114</v>
       </c>
-      <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="26">
         <v>1.3388888888888888</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="52"/>
+      <c r="E37" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="41">
+      <c r="F37" s="40">
         <f t="shared" si="0"/>
         <v>1.3388888888888888</v>
       </c>
-      <c r="F37" s="55"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="26">
         <v>1.5513888888888889</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="52"/>
+      <c r="E38" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="41">
+      <c r="F38" s="40">
         <f t="shared" si="0"/>
         <v>1.5513888888888889</v>
       </c>
-      <c r="F38" s="55"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="27">
         <v>0.94236111111111109</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="52"/>
+      <c r="E39" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="41">
+      <c r="F39" s="40">
         <f t="shared" si="0"/>
         <v>0.94236111111111109</v>
       </c>
-      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="27">
         <v>0.88611111111111107</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="52"/>
+      <c r="E40" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="41">
+      <c r="F40" s="40">
         <f t="shared" si="0"/>
         <v>0.88611111111111107</v>
       </c>
-      <c r="F40" s="55"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="26">
         <v>1.1736111111111112</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="52"/>
+      <c r="E41" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="41">
+      <c r="F41" s="40">
         <f t="shared" si="0"/>
         <v>1.1736111111111112</v>
       </c>
-      <c r="F41" s="55"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="24">
         <v>0.73125000000000007</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="52"/>
+      <c r="E42" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="55"/>
+      <c r="F42" s="37"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="25">
         <v>0.72083333333333333</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="40">
+      <c r="D43" s="52"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="39">
         <f>SUM(C42:C43)</f>
         <v>1.4520833333333334</v>
       </c>
-      <c r="F43" s="55"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="27">
         <v>0.78611111111111109</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="52"/>
+      <c r="E44" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="42">
+      <c r="F44" s="41">
         <f>C44</f>
         <v>0.78611111111111109</v>
       </c>
-      <c r="F44" s="55"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="69"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="27">
         <v>0.9145833333333333</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="52"/>
+      <c r="E45" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="44">
+      <c r="F45" s="43">
         <f>C45</f>
         <v>0.9145833333333333</v>
       </c>
-      <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="69"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="24">
         <v>0.29722222222222222</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="52"/>
+      <c r="E46" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="55"/>
+      <c r="F46" s="37"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="25">
         <v>0.67152777777777783</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="40">
+      <c r="D47" s="52"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="39">
         <f>SUM(C46:C47)</f>
         <v>0.96875</v>
       </c>
-      <c r="F47" s="55"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="24">
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="52"/>
+      <c r="E48" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="55"/>
+      <c r="F48" s="37"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="28">
         <v>0.63680555555555551</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="55"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="38"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="25">
         <v>0.46388888888888885</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="40">
+      <c r="D50" s="52"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="39">
         <f>SUM(C48:C50)</f>
         <v>1.1951388888888888</v>
       </c>
-      <c r="F50" s="55"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="27">
         <v>0.79375000000000007</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="52"/>
+      <c r="E51" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="42">
+      <c r="F51" s="41">
         <f>C51</f>
         <v>0.79375000000000007</v>
       </c>
-      <c r="F51" s="55"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="67" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -2185,593 +2190,625 @@
       <c r="C52" s="29">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="52"/>
+      <c r="E52" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="55"/>
+      <c r="F52" s="38"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="70"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="30">
         <v>0.20486111111111113</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="55"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="38"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="70"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="31">
         <v>0.43263888888888885</v>
       </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="40">
+      <c r="D54" s="52"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="39">
         <f>SUM(C52:C54)</f>
         <v>0.74027777777777781</v>
       </c>
-      <c r="F54" s="55"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="49">
-        <v>0.40486111111111112</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="65"/>
-      <c r="B56" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="51">
-        <v>8.1250000000000003E-2</v>
-      </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="55"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
-      <c r="B57" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="51">
-        <v>0.19305555555555554</v>
-      </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="55"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="65"/>
-      <c r="B58" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="51">
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="55"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="65"/>
-      <c r="B59" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="51">
-        <v>0.13402777777777777</v>
-      </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="55"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="65"/>
-      <c r="B60" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="51">
-        <v>0.12291666666666667</v>
-      </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="55"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="53">
-        <v>0.28888888888888892</v>
-      </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="40">
-        <f>SUM(C55:C61)</f>
-        <v>1.4777777777777781</v>
-      </c>
-      <c r="F61" s="55"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="65"/>
-      <c r="B62" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="49">
-        <v>0.12291666666666667</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="55"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
-      <c r="B63" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="51">
-        <v>0.26111111111111113</v>
-      </c>
-      <c r="D63" s="47"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="55"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
-      <c r="B64" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="51">
-        <v>0.23750000000000002</v>
-      </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="55"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="51">
-        <v>0.29583333333333334</v>
-      </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="55"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="53">
-        <v>0.18263888888888891</v>
-      </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="40">
-        <f>SUM(C62:C66)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F66" s="55"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="B67" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" s="49">
-        <v>0.34513888888888888</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="55"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="51">
-        <v>0.26944444444444443</v>
-      </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="55"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="51">
-        <v>0.29652777777777778</v>
-      </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="55"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="65"/>
-      <c r="B70" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="51">
-        <v>0.17291666666666669</v>
-      </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="55"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
-      <c r="B71" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="53">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="D71" s="32"/>
-      <c r="E71" s="40">
-        <f>SUM(C67:C71)</f>
-        <v>1.3506944444444442</v>
-      </c>
-      <c r="F71" s="55"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="65"/>
-      <c r="B72" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="49">
-        <v>0.3215277777777778</v>
-      </c>
-      <c r="D72" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="E72" s="38"/>
-      <c r="F72" s="55"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="65"/>
-      <c r="B73" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" s="51">
-        <v>0.41875000000000001</v>
-      </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="55"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="65"/>
-      <c r="B74" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="51">
-        <v>0.30624999999999997</v>
-      </c>
-      <c r="D74" s="47"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="55"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="65"/>
-      <c r="B75" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="53">
-        <v>0.17361111111111113</v>
-      </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="40">
-        <f>SUM(C72:C75)</f>
-        <v>1.2201388888888889</v>
-      </c>
-      <c r="F75" s="55"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="65"/>
-      <c r="B76" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" s="49">
-        <v>0.24861111111111112</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="38"/>
-      <c r="F76" s="55"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="65"/>
-      <c r="B77" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="51">
-        <v>0.14791666666666667</v>
-      </c>
-      <c r="D77" s="47"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="55"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="65"/>
-      <c r="B78" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C78" s="51">
-        <v>0.2951388888888889</v>
-      </c>
-      <c r="D78" s="47"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="55"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="65"/>
-      <c r="B79" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" s="51">
-        <v>0.18888888888888888</v>
-      </c>
-      <c r="D79" s="47"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="55"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="65"/>
-      <c r="B80" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="53">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="40">
-        <f>SUM(C76:C80)</f>
-        <v>1.442361111111111</v>
-      </c>
-      <c r="F80" s="55"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="65"/>
-      <c r="B81" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="49">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E81" s="38"/>
-      <c r="F81" s="55"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="65"/>
-      <c r="B82" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="51">
-        <v>0.29305555555555557</v>
-      </c>
-      <c r="D82" s="47"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="55"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="65"/>
-      <c r="B83" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C83" s="51">
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="55"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="65"/>
-      <c r="B84" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="53">
-        <v>0.27291666666666664</v>
-      </c>
-      <c r="D84" s="32"/>
-      <c r="E84" s="40">
-        <f>SUM(C81:C84)</f>
-        <v>1.2465277777777779</v>
-      </c>
-      <c r="F84" s="55"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="65"/>
-      <c r="B85" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="49">
-        <v>0.21458333333333335</v>
-      </c>
-      <c r="D85" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" s="38"/>
-      <c r="F85" s="55"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="65"/>
-      <c r="B86" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="51">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="D86" s="47"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="55"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="65"/>
-      <c r="B87" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" s="51">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="D87" s="47"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="55"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="65"/>
-      <c r="B88" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" s="53">
-        <v>0.63611111111111118</v>
-      </c>
-      <c r="D88" s="32"/>
-      <c r="E88" s="40">
-        <f>SUM(C85:C88)</f>
-        <v>1.4923611111111112</v>
-      </c>
-      <c r="F88" s="55"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="65"/>
-      <c r="B89" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="49">
-        <v>0.375</v>
-      </c>
-      <c r="D89" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E89" s="38"/>
-      <c r="F89" s="55"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="65"/>
-      <c r="B90" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="51">
-        <v>0.30624999999999997</v>
-      </c>
-      <c r="D90" s="47"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="55"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="65"/>
-      <c r="B91" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="53">
-        <v>0.4375</v>
-      </c>
-      <c r="D91" s="32"/>
-      <c r="E91" s="40">
-        <f>SUM(C89:C91)</f>
-        <v>1.1187499999999999</v>
-      </c>
-      <c r="F91" s="55"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="65"/>
-      <c r="B92" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="51">
-        <v>0.4694444444444445</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" s="39"/>
-      <c r="F92" s="55"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="65"/>
-      <c r="B93" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" s="51">
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="D93" s="47"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="55"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="66"/>
-      <c r="B94" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" s="53">
-        <v>0.30486111111111108</v>
-      </c>
-      <c r="D94" s="32"/>
-      <c r="E94" s="40">
-        <f>SUM(C92:C94)</f>
-        <v>1.0909722222222222</v>
-      </c>
-      <c r="F94" s="55"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="45" t="s">
+      <c r="B55" s="44" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A55:A94"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D46:D47"/>
+  <mergeCells count="16">
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E46:E47"/>
     <mergeCell ref="A30:A51"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FB9E29-911A-406C-A6F8-367534279137}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="46">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="69"/>
+      <c r="B3" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="48">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="69"/>
+      <c r="B4" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="48">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="69"/>
+      <c r="B5" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="48">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="69"/>
+      <c r="B6" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="48">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="69"/>
+      <c r="B7" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="48">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="38"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="50">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="39">
+        <v>1.4777777777777781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="69"/>
+      <c r="B9" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="69"/>
+      <c r="B10" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="48">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="69"/>
+      <c r="B11" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="48">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
+      <c r="B12" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="48">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="69"/>
+      <c r="B13" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="50">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="69"/>
+      <c r="B14" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="69"/>
+      <c r="B15" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="48">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="69"/>
+      <c r="B16" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="48">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="69"/>
+      <c r="B17" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="48">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="69"/>
+      <c r="B18" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="50">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="39">
+        <v>1.3506944444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="69"/>
+      <c r="B19" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="69"/>
+      <c r="B20" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="48">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="69"/>
+      <c r="B21" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="48">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="69"/>
+      <c r="B22" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="39">
+        <v>1.2201388888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="69"/>
+      <c r="B23" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="46">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="69"/>
+      <c r="B24" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="48">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="69"/>
+      <c r="B25" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="48">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="69"/>
+      <c r="B26" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="48">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="69"/>
+      <c r="B27" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="50">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="39">
+        <v>1.442361111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="69"/>
+      <c r="B28" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="46">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="69"/>
+      <c r="B29" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="48">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="69"/>
+      <c r="B30" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="48">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="69"/>
+      <c r="B31" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="50">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="39">
+        <v>1.2465277777777779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="69"/>
+      <c r="B32" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="46">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="E32" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="37"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="69"/>
+      <c r="B33" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="48">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="38"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="69"/>
+      <c r="B34" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="48">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="38"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="69"/>
+      <c r="B35" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="50">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="39">
+        <v>1.4923611111111112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="69"/>
+      <c r="B36" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="46">
+        <v>0.375</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="37"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="69"/>
+      <c r="B37" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="48">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="69"/>
+      <c r="B38" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="50">
+        <v>0.4375</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="39">
+        <v>1.1187499999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="69"/>
+      <c r="B39" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="48">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="69"/>
+      <c r="B40" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="48">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="D40" s="52"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="70"/>
+      <c r="B41" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="50">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="D41" s="52"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="39">
+        <v>1.0909722222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE565F73-FA42-465D-812E-A526AC9E5384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8850C882-69F3-4CB1-A934-4F84C029A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1543,7 +1543,9 @@
       <c r="C9" s="20">
         <v>1.0145833333333334</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="52" t="s">
+        <v>133</v>
+      </c>
       <c r="E9" s="32" t="s">
         <v>59</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8850C882-69F3-4CB1-A934-4F84C029A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9445AD94-86B5-4440-8F06-DE2FEECFA508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -162,21 +162,6 @@
     <t>자바스크립트 2. 콘솔에 출력, script async 와 defer의 차이점 및 앞으로 자바스크립트 공부 방향 | 프론트엔드 개발자 입문편 (JavaScript ES5+)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">프론트엔드 개발자라면 필수로 알아야 하는 브라우저 101 필수 개념과 게임 프로젝트 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🕹</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자바스크립트 3. 데이터타입, data types, let vs var, hoisting | 프론트엔드 개발자 입문편 (JavaScript ES5+)</t>
   </si>
   <si>
@@ -278,126 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1주차 월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주차 화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주차 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주차 목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주차 금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2주차 월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2주차 화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2주차 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2주차 목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2주차 금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주차 월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주차 화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주차 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주차 목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주차 금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4주차 월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4주차 화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4주차 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4주차 목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4주차 금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주차 월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주차 화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주차 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주차 목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주차 금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클립명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,6 +480,126 @@
   </si>
   <si>
     <t>8주차 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 월(11/08)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 화(11/09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 수(11/10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 목(11/11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 금(11/12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 월(11/15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 화(11/16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 수(11/17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 목(11/18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 금(11/19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 월(11/22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 화(11/23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 수(11/24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 목(11/25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 금(11/26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 월(11/29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 화(11/30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 수(12/1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 목(12/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 금(12/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차 월(12/6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차 화(12/7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차 수(12/8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차 목(12/9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차 금(12/10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 월(12/13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 화(12/14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 수(12/15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 목(12/16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 금(12/17)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,9 +885,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -947,9 +929,6 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1023,17 +1002,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1044,11 +1020,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1379,875 +1364,857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="95.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="51" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="34" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>89</v>
+      <c r="A1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>51</v>
+      <c r="A2" s="58" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="37"/>
+      <c r="D2" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>0.19652777777777777</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="38"/>
+      <c r="D3" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>0.26250000000000001</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="39">
+      <c r="D4" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>1.0083333333333333</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="40">
+      <c r="D5" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="38">
         <f>C5</f>
         <v>1.0083333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
       <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="21">
+        <v>53</v>
+      </c>
+      <c r="C6" s="20">
         <v>0.98055555555555562</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="41">
+      <c r="D6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="39">
         <f>C6</f>
         <v>0.98055555555555562</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>0.69861111111111107</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="37"/>
+      <c r="D7" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="39">
+      <c r="D8" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>1.0145833333333334</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="40">
+      <c r="D9" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="38">
         <f>C9</f>
         <v>1.0145833333333334</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>0.56666666666666665</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="38"/>
+      <c r="D10" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="38"/>
+      <c r="D11" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>0.32847222222222222</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="39">
+      <c r="D12" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>0.26805555555555555</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="38"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>1.1375</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="39">
+      <c r="D14" s="50"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="59"/>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="59"/>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="37">
+        <f>SUM(C15:C17)</f>
+        <v>1.3111111111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="37">
+        <f>SUM(C18:C19)</f>
+        <v>1.2576388888888888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="59"/>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="59"/>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="37">
+        <f>SUM(C20:C23)</f>
+        <v>1.5951388888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="60"/>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="37">
+        <f>SUM(C24:C26)</f>
+        <v>1.8444444444444446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="22">
+        <v>2.1118055555555553</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="38">
+        <f>C27</f>
+        <v>2.1118055555555553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="66"/>
+      <c r="B29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="37">
+        <f>SUM(C28:C29)</f>
+        <v>1.3923611111111112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="66"/>
+      <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="17">
-        <v>0.10277777777777779</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.3972222222222222</v>
-      </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.4284722222222222</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="19">
-        <v>0.48541666666666666</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="39">
-        <f>SUM(C15:C18)</f>
-        <v>1.4138888888888888</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="17">
-        <v>0.43263888888888885</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="37"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0.59305555555555556</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="38"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="19">
-        <v>0.6645833333333333</v>
-      </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="39">
-        <f>SUM(C19:C21)</f>
-        <v>1.6902777777777778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0.32708333333333334</v>
-      </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="18">
-        <v>0.22430555555555556</v>
-      </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="18">
-        <v>0.33888888888888885</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="19">
-        <v>0.70486111111111116</v>
-      </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="39">
-        <f>SUM(C22:C25)</f>
-        <v>1.5951388888888889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0.79375000000000007</v>
-      </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="18">
-        <v>0.57708333333333328</v>
-      </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="B28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="19">
-        <v>0.47361111111111115</v>
-      </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="39">
-        <f>SUM(C26:C28)</f>
-        <v>1.8444444444444446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="23">
-        <v>2.1118055555555553</v>
-      </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="40">
-        <f>C29</f>
-        <v>2.1118055555555553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="24">
-        <v>0.65347222222222223</v>
-      </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="38"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="25">
+        <v>1.1659722222222222</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="38">
+        <f t="shared" ref="F30:F39" si="0">C30</f>
+        <v>1.1659722222222222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
-      <c r="B31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="25">
-        <v>0.73888888888888893</v>
-      </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="57"/>
+      <c r="B31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.84375</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="56" t="s">
+        <v>126</v>
+      </c>
       <c r="F31" s="39">
-        <f>SUM(C30:C31)</f>
-        <v>1.3923611111111112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="66"/>
       <c r="B32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="26">
-        <v>1.1659722222222222</v>
-      </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="40">
-        <f t="shared" ref="F32:F41" si="0">C32</f>
-        <v>1.1659722222222222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1.0430555555555556</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="38">
+        <f t="shared" si="0"/>
+        <v>1.0430555555555556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="66"/>
       <c r="B33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="27">
-        <v>0.84375</v>
-      </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="41">
+        <v>33</v>
+      </c>
+      <c r="C33" s="25">
+        <v>1.0673611111111112</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="38">
         <f t="shared" si="0"/>
-        <v>0.84375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.0673611111111112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="66"/>
       <c r="B34" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="26">
-        <v>1.0430555555555556</v>
-      </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="40">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="38">
         <f t="shared" si="0"/>
-        <v>1.0430555555555556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.96111111111111114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="66"/>
       <c r="B35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="26">
-        <v>1.0673611111111112</v>
-      </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="40">
+        <v>35</v>
+      </c>
+      <c r="C35" s="25">
+        <v>1.3388888888888888</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="38">
         <f t="shared" si="0"/>
-        <v>1.0673611111111112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.3388888888888888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="66"/>
       <c r="B36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="27">
-        <v>0.96111111111111114</v>
-      </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="40">
+        <v>36</v>
+      </c>
+      <c r="C36" s="25">
+        <v>1.5513888888888889</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="38">
         <f t="shared" si="0"/>
-        <v>0.96111111111111114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.5513888888888889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="66"/>
       <c r="B37" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="26">
-        <v>1.3388888888888888</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="40">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="38">
         <f t="shared" si="0"/>
-        <v>1.3388888888888888</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.94236111111111109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="66"/>
       <c r="B38" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="26">
-        <v>1.5513888888888889</v>
-      </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="40">
+        <v>0.88611111111111107</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="38">
         <f t="shared" si="0"/>
-        <v>1.5513888888888889</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.88611111111111107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="66"/>
       <c r="B39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="27">
-        <v>0.94236111111111109</v>
-      </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="40">
+        <v>39</v>
+      </c>
+      <c r="C39" s="25">
+        <v>1.1736111111111112</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="38">
         <f t="shared" si="0"/>
-        <v>0.94236111111111109</v>
+        <v>1.1736111111111112</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="66"/>
-      <c r="B40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="27">
-        <v>0.88611111111111107</v>
-      </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="40">
-        <f t="shared" si="0"/>
-        <v>0.88611111111111107</v>
-      </c>
+      <c r="B40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D40" s="50"/>
+      <c r="E40" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="35"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="66"/>
-      <c r="B41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="26">
-        <v>1.1736111111111112</v>
-      </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="40">
-        <f t="shared" si="0"/>
-        <v>1.1736111111111112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="37">
+        <f>SUM(C40:C41)</f>
+        <v>1.4520833333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="66"/>
-      <c r="B42" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="24">
-        <v>0.73125000000000007</v>
-      </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="37"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="26">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="D42" s="50"/>
+      <c r="E42" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="39">
+        <f>C42</f>
+        <v>0.78611111111111109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="66"/>
-      <c r="B43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="25">
-        <v>0.72083333333333333</v>
-      </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="39">
-        <f>SUM(C42:C43)</f>
-        <v>1.4520833333333334</v>
+      <c r="B43" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="26">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="D43" s="50"/>
+      <c r="E43" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="41">
+        <f>C43</f>
+        <v>0.9145833333333333</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="66"/>
-      <c r="B44" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="27">
-        <v>0.78611111111111109</v>
-      </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" s="41">
-        <f>C44</f>
-        <v>0.78611111111111109</v>
-      </c>
+      <c r="B44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D44" s="50"/>
+      <c r="E44" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="35"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="66"/>
-      <c r="B45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="27">
-        <v>0.9145833333333333</v>
-      </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="43">
-        <f>C45</f>
-        <v>0.9145833333333333</v>
+      <c r="B45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="37">
+        <f>SUM(C44:C45)</f>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="66"/>
       <c r="B46" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="24">
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="23">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="D46" s="50"/>
+      <c r="E46" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="35"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="66"/>
-      <c r="B47" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="25">
-        <v>0.67152777777777783</v>
-      </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="39">
-        <f>SUM(C46:C47)</f>
-        <v>0.96875</v>
-      </c>
+      <c r="B47" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="27">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="66"/>
-      <c r="B48" s="8" t="s">
-        <v>1</v>
+      <c r="B48" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C48" s="24">
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="37"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="D48" s="50"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="37">
+        <f>SUM(C46:C48)</f>
+        <v>1.1951388888888888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="66"/>
-      <c r="B49" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="28">
-        <v>0.63680555555555551</v>
-      </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="38"/>
+      <c r="B49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="26">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="D49" s="50"/>
+      <c r="E49" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="39">
+        <f>C49</f>
+        <v>0.79375000000000007</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
-      <c r="B50" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="25">
-        <v>0.46388888888888885</v>
-      </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="39">
-        <f>SUM(C48:C50)</f>
-        <v>1.1951388888888888</v>
-      </c>
+      <c r="A50" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="28">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="D50" s="50"/>
+      <c r="E50" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="66"/>
-      <c r="B51" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="27">
-        <v>0.79375000000000007</v>
-      </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="41">
-        <f>C51</f>
-        <v>0.79375000000000007</v>
-      </c>
+      <c r="A51" s="67"/>
+      <c r="B51" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="29">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="D51" s="50"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="36"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="29">
-        <v>0.10277777777777779</v>
-      </c>
-      <c r="D52" s="52"/>
-      <c r="E52" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52" s="38"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="30">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="D52" s="50"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="37">
+        <f>SUM(C50:C52)</f>
+        <v>0.74027777777777781</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="67"/>
-      <c r="B53" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="30">
-        <v>0.20486111111111113</v>
-      </c>
-      <c r="D53" s="52"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="38"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="67"/>
-      <c r="B54" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="31">
-        <v>0.43263888888888885</v>
-      </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="39">
-        <f>SUM(C52:C54)</f>
-        <v>0.74027777777777781</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="44" t="s">
-        <v>90</v>
+      <c r="B53" s="42" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="E50:E52"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A30:A51"/>
-    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="A28:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2259,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FB9E29-911A-406C-A6F8-367534279137}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2269,540 +2236,540 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>89</v>
+      <c r="A1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="46">
+        <v>100</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="44">
         <v>0.40486111111111112</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="42"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="69"/>
-      <c r="B3" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="48">
+      <c r="B3" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="46">
         <v>8.1250000000000003E-2</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="38"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="69"/>
-      <c r="B4" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="48">
+      <c r="B4" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="46">
         <v>0.19305555555555554</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="38"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="69"/>
-      <c r="B5" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="48">
+      <c r="B5" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="46">
         <v>0.25277777777777777</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="38"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="69"/>
-      <c r="B6" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="48">
+      <c r="B6" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="46">
         <v>0.13402777777777777</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="38"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="69"/>
-      <c r="B7" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="48">
+      <c r="B7" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="46">
         <v>0.12291666666666667</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="38"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="69"/>
-      <c r="B8" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="50">
+      <c r="B8" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="48">
         <v>0.28888888888888892</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="39">
+      <c r="D8" s="50"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="37">
         <v>1.4777777777777781</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="69"/>
-      <c r="B9" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="46">
+      <c r="B9" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="44">
         <v>0.12291666666666667</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="37"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="69"/>
-      <c r="B10" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="48">
+      <c r="B10" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="46">
         <v>0.26111111111111113</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="38"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="69"/>
-      <c r="B11" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="48">
+      <c r="B11" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="46">
         <v>0.23750000000000002</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="38"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="69"/>
-      <c r="B12" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="48">
+      <c r="B12" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="46">
         <v>0.29583333333333334</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="38"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="69"/>
-      <c r="B13" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="50">
+      <c r="B13" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="48">
         <v>0.18263888888888891</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="39">
+      <c r="D13" s="50"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="37">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="69"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="44">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="46">
-        <v>0.34513888888888888</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="69"/>
-      <c r="B15" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="48">
+      <c r="B15" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="46">
         <v>0.26944444444444443</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="38"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="69"/>
-      <c r="B16" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="48">
+      <c r="B16" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="46">
         <v>0.29652777777777778</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="69"/>
-      <c r="B17" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="48">
+      <c r="B17" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="46">
         <v>0.17291666666666669</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="69"/>
-      <c r="B18" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="50">
+      <c r="B18" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="48">
         <v>0.26666666666666666</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="39">
+      <c r="D18" s="50"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="37">
         <v>1.3506944444444442</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="69"/>
-      <c r="B19" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="46">
+      <c r="B19" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="44">
         <v>0.3215277777777778</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="37"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="69"/>
-      <c r="B20" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="48">
+      <c r="B20" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="46">
         <v>0.41875000000000001</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="38"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="69"/>
-      <c r="B21" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="48">
+      <c r="B21" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="46">
         <v>0.30624999999999997</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="69"/>
-      <c r="B22" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="50">
+      <c r="B22" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="48">
         <v>0.17361111111111113</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="39">
+      <c r="D22" s="50"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="37">
         <v>1.2201388888888889</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="69"/>
-      <c r="B23" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="46">
+      <c r="B23" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="44">
         <v>0.24861111111111112</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="37"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="69"/>
-      <c r="B24" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="48">
+      <c r="B24" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="46">
         <v>0.14791666666666667</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="38"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="69"/>
-      <c r="B25" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="48">
+      <c r="B25" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="46">
         <v>0.2951388888888889</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="38"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="69"/>
-      <c r="B26" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="48">
+      <c r="B26" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="46">
         <v>0.18888888888888888</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="38"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="69"/>
-      <c r="B27" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="50">
+      <c r="B27" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="48">
         <v>0.56180555555555556</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="39">
+      <c r="D27" s="50"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="37">
         <v>1.442361111111111</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="69"/>
-      <c r="B28" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="46">
+      <c r="B28" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="44">
         <v>0.3833333333333333</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="37"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="69"/>
-      <c r="B29" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="48">
+      <c r="B29" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="46">
         <v>0.29305555555555557</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="38"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="69"/>
-      <c r="B30" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="48">
+      <c r="B30" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="46">
         <v>0.29722222222222222</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="38"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="69"/>
-      <c r="B31" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="50">
+      <c r="B31" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="48">
         <v>0.27291666666666664</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="39">
+      <c r="D31" s="50"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="37">
         <v>1.2465277777777779</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="69"/>
-      <c r="B32" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="46">
+      <c r="B32" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="44">
         <v>0.21458333333333335</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="37"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="69"/>
-      <c r="B33" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="48">
+      <c r="B33" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="46">
         <v>0.2638888888888889</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="38"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="69"/>
-      <c r="B34" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="48">
+      <c r="B34" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="46">
         <v>0.37777777777777777</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="38"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="69"/>
-      <c r="B35" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="50">
+      <c r="B35" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="48">
         <v>0.63611111111111118</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="39">
+      <c r="D35" s="50"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="37">
         <v>1.4923611111111112</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="69"/>
-      <c r="B36" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="46">
+      <c r="B36" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="44">
         <v>0.375</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="37"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="69"/>
-      <c r="B37" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="48">
+      <c r="B37" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="46">
         <v>0.30624999999999997</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="38"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="69"/>
-      <c r="B38" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="50">
+      <c r="B38" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="48">
         <v>0.4375</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="39">
+      <c r="D38" s="50"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="37">
         <v>1.1187499999999999</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="69"/>
-      <c r="B39" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="48">
+      <c r="B39" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="46">
         <v>0.4694444444444445</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="38"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="69"/>
-      <c r="B40" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="48">
+      <c r="B40" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="46">
         <v>0.31666666666666665</v>
       </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="38"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="70"/>
-      <c r="B41" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="50">
+      <c r="B41" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="48">
         <v>0.30486111111111108</v>
       </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="39">
+      <c r="D41" s="50"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="37">
         <v>1.0909722222222222</v>
       </c>
     </row>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9445AD94-86B5-4440-8F06-DE2FEECFA508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E56818-39FC-44E0-94DE-CC32C0A94AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="142">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1011,6 +1011,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1029,16 +1038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1401,7 +1401,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1413,13 +1413,13 @@
       <c r="D2" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="64" t="s">
         <v>112</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1429,11 +1429,11 @@
       <c r="D3" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1443,14 +1443,14 @@
       <c r="D4" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="6" t="s">
         <v>53</v>
       </c>
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1498,13 +1498,13 @@
       <c r="D7" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="59" t="s">
         <v>115</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1514,14 +1514,14 @@
       <c r="D8" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="64"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1540,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1550,13 +1550,13 @@
       <c r="D10" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="59" t="s">
         <v>117</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1566,11 +1566,11 @@
       <c r="D11" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="64"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1580,43 +1580,47 @@
       <c r="D12" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="64"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="16">
         <v>0.26805555555555555</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="64" t="s">
+      <c r="D13" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="59" t="s">
         <v>118</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="21">
         <v>1.1375</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="59"/>
       <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1624,13 +1628,13 @@
         <v>0.3972222222222222</v>
       </c>
       <c r="D15" s="50"/>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="64" t="s">
         <v>119</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1638,11 +1642,11 @@
         <v>0.4284722222222222</v>
       </c>
       <c r="D16" s="50"/>
-      <c r="E16" s="62"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1650,14 +1654,14 @@
         <v>0.48541666666666666</v>
       </c>
       <c r="D17" s="50"/>
-      <c r="E17" s="63"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1665,13 +1669,13 @@
         <v>0.59305555555555556</v>
       </c>
       <c r="D18" s="50"/>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="64" t="s">
         <v>120</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1679,14 +1683,14 @@
         <v>0.6645833333333333</v>
       </c>
       <c r="D19" s="50"/>
-      <c r="E19" s="63"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1694,13 +1698,13 @@
         <v>0.32708333333333334</v>
       </c>
       <c r="D20" s="50"/>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="60" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1708,11 +1712,11 @@
         <v>0.22430555555555556</v>
       </c>
       <c r="D21" s="50"/>
-      <c r="E21" s="64"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1720,11 +1724,11 @@
         <v>0.33888888888888885</v>
       </c>
       <c r="D22" s="50"/>
-      <c r="E22" s="64"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="36"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1732,14 +1736,14 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="D23" s="50"/>
-      <c r="E23" s="64"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="37">
         <f>SUM(C20:C23)</f>
         <v>1.5951388888888889</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1747,13 +1751,13 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D24" s="50"/>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="59" t="s">
         <v>122</v>
       </c>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
@@ -1761,11 +1765,11 @@
         <v>0.57708333333333328</v>
       </c>
       <c r="D25" s="50"/>
-      <c r="E25" s="64"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>0.47361111111111115</v>
       </c>
       <c r="D26" s="50"/>
-      <c r="E26" s="64"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="37">
         <f>SUM(C24:C26)</f>
         <v>1.8444444444444446</v>
@@ -1799,7 +1803,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="67" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1809,13 +1813,13 @@
         <v>0.65347222222222223</v>
       </c>
       <c r="D28" s="50"/>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="59" t="s">
         <v>124</v>
       </c>
       <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1823,14 +1827,14 @@
         <v>0.73888888888888893</v>
       </c>
       <c r="D29" s="50"/>
-      <c r="E29" s="64"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="37">
         <f>SUM(C28:C29)</f>
         <v>1.3923611111111112</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
@@ -1847,7 +1851,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
@@ -1864,7 +1868,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
@@ -1881,7 +1885,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
@@ -1898,7 +1902,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
@@ -1915,7 +1919,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
@@ -1932,7 +1936,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
@@ -1949,7 +1953,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
@@ -1966,7 +1970,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
@@ -1983,7 +1987,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="10" t="s">
         <v>39</v>
       </c>
@@ -2000,7 +2004,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
@@ -2008,13 +2012,13 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="59" t="s">
         <v>135</v>
       </c>
       <c r="F40" s="35"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
@@ -2022,14 +2026,14 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D41" s="50"/>
-      <c r="E41" s="64"/>
+      <c r="E41" s="59"/>
       <c r="F41" s="37">
         <f>SUM(C40:C41)</f>
         <v>1.4520833333333334</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="10" t="s">
         <v>42</v>
       </c>
@@ -2046,7 +2050,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="10" t="s">
         <v>43</v>
       </c>
@@ -2063,7 +2067,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
@@ -2071,13 +2075,13 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="59" t="s">
         <v>138</v>
       </c>
       <c r="F44" s="35"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="9" t="s">
         <v>45</v>
       </c>
@@ -2085,14 +2089,14 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="64"/>
+      <c r="E45" s="59"/>
       <c r="F45" s="37">
         <f>SUM(C44:C45)</f>
         <v>0.96875</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="8" t="s">
         <v>1</v>
       </c>
@@ -2100,13 +2104,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="64" t="s">
+      <c r="E46" s="59" t="s">
         <v>139</v>
       </c>
       <c r="F46" s="35"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="66"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="11" t="s">
         <v>47</v>
       </c>
@@ -2114,11 +2118,11 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="64"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
@@ -2126,14 +2130,14 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="64"/>
+      <c r="E48" s="59"/>
       <c r="F48" s="37">
         <f>SUM(C46:C48)</f>
         <v>1.1951388888888888</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="10" t="s">
         <v>25</v>
       </c>
@@ -2150,7 +2154,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="58" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -2160,13 +2164,13 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="64" t="s">
+      <c r="E50" s="59" t="s">
         <v>141</v>
       </c>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="13" t="s">
         <v>46</v>
       </c>
@@ -2174,11 +2178,11 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="64"/>
+      <c r="E51" s="59"/>
       <c r="F51" s="36"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="67"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="14" t="s">
         <v>18</v>
       </c>
@@ -2186,7 +2190,7 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D52" s="50"/>
-      <c r="E52" s="64"/>
+      <c r="E52" s="59"/>
       <c r="F52" s="37">
         <f>SUM(C50:C52)</f>
         <v>0.74027777777777781</v>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E56818-39FC-44E0-94DE-CC32C0A94AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455B2A4D-DFC3-4FEE-8D33-8A96A063575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
+    <workbookView xWindow="1920" yWindow="7005" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="142">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D14"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1627,9 @@
       <c r="C15" s="17">
         <v>0.3972222222222222</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="50" t="s">
+        <v>102</v>
+      </c>
       <c r="E15" s="64" t="s">
         <v>119</v>
       </c>
@@ -1641,7 +1643,9 @@
       <c r="C16" s="17">
         <v>0.4284722222222222</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="50" t="s">
+        <v>102</v>
+      </c>
       <c r="E16" s="65"/>
       <c r="F16" s="36"/>
     </row>
@@ -1653,7 +1657,9 @@
       <c r="C17" s="18">
         <v>0.48541666666666666</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="50" t="s">
+        <v>102</v>
+      </c>
       <c r="E17" s="66"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455B2A4D-DFC3-4FEE-8D33-8A96A063575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CEA36F-2B26-400D-AC06-D2B726D8510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="7005" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
+    <workbookView xWindow="1920" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="142">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1674,7 +1674,9 @@
       <c r="C18" s="17">
         <v>0.59305555555555556</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="50" t="s">
+        <v>102</v>
+      </c>
       <c r="E18" s="64" t="s">
         <v>120</v>
       </c>
@@ -1688,7 +1690,9 @@
       <c r="C19" s="18">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="50" t="s">
+        <v>102</v>
+      </c>
       <c r="E19" s="66"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CEA36F-2B26-400D-AC06-D2B726D8510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40359075-86D6-447D-9B40-E05CB9CBBCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>비쥬얼 스튜디오 코드 필수 단축키 정리 (Visual Studio Code 꿀템🍯🐝 )</t>
-  </si>
-  <si>
-    <t>타입스크립트 + 객체지향 프로그래밍 강의 (두마리 토끼를 잡아요 🐰🐰)</t>
   </si>
   <si>
     <t>API란? 개념 정리와 포트폴리오에 유용한 대박 사이트 공유 🙌</t>
@@ -836,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,9 +1012,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1382,27 +1376,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>50</v>
+      <c r="A2" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1411,15 +1405,15 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>112</v>
+        <v>101</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>111</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1427,13 +1421,13 @@
         <v>0.19652777777777777</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="65"/>
+        <v>101</v>
+      </c>
+      <c r="E3" s="64"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1441,16 +1435,16 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="66"/>
+        <v>101</v>
+      </c>
+      <c r="E4" s="65"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1458,10 +1452,10 @@
         <v>1.0083333333333333</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="38">
         <f>C5</f>
@@ -1469,18 +1463,18 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="20">
         <v>0.98055555555555562</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="39">
         <f>C6</f>
@@ -1488,7 +1482,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1496,15 +1490,15 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>0.52361111111111114</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="59"/>
       <c r="F8" s="37">
@@ -1521,7 +1515,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1529,10 +1523,10 @@
         <v>1.0145833333333334</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="38">
         <f>C9</f>
@@ -1540,7 +1534,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1548,15 +1542,15 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1564,13 +1558,13 @@
         <v>0.4770833333333333</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1572,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="59"/>
       <c r="F12" s="37">
@@ -1587,7 +1581,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1595,15 +1589,15 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1611,7 +1605,7 @@
         <v>1.1375</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="59"/>
       <c r="F14" s="37">
@@ -1620,7 +1614,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1628,15 +1622,15 @@
         <v>0.3972222222222222</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>119</v>
+        <v>101</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>118</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1644,13 +1638,13 @@
         <v>0.4284722222222222</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="65"/>
+        <v>101</v>
+      </c>
+      <c r="E16" s="64"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1658,16 +1652,16 @@
         <v>0.48541666666666666</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="66"/>
+        <v>101</v>
+      </c>
+      <c r="E17" s="65"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1675,15 +1669,15 @@
         <v>0.59305555555555556</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>119</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1691,199 +1685,210 @@
         <v>0.6645833333333333</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="66"/>
+        <v>101</v>
+      </c>
+      <c r="E19" s="65"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="16">
         <v>0.32708333333333334</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="60" t="s">
-        <v>121</v>
+      <c r="D20" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>120</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="17">
-        <v>0.22430555555555556</v>
-      </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="59"/>
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="64"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="17">
-        <v>0.33888888888888885</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="36"/>
+      <c r="C22" s="18">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="F22" s="37">
+        <f>SUM(C20:C22)</f>
+        <v>1.3708333333333333</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="18">
-        <v>0.70486111111111116</v>
+      <c r="C23" s="16">
+        <v>0.79375000000000007</v>
       </c>
       <c r="D23" s="50"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="37">
-        <f>SUM(C20:C23)</f>
-        <v>1.5951388888888889</v>
-      </c>
+      <c r="E23" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="16">
-        <v>0.79375000000000007</v>
+      <c r="C24" s="17">
+        <v>0.57708333333333328</v>
       </c>
       <c r="D24" s="50"/>
-      <c r="E24" s="59" t="s">
-        <v>122</v>
-      </c>
+      <c r="E24" s="59"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17">
-        <v>0.57708333333333328</v>
+      <c r="C25" s="18">
+        <v>0.47361111111111115</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="59"/>
-      <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="5" t="s">
+      <c r="F25" s="37">
+        <f>SUM(C23:C25)</f>
+        <v>1.8444444444444446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="22">
+        <v>2.1118055555555553</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="38">
+        <f>C26</f>
+        <v>2.1118055555555553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="18">
-        <v>0.47361111111111115</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="37">
-        <f>SUM(C24:C26)</f>
-        <v>1.8444444444444446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="22">
-        <v>2.1118055555555553</v>
+      <c r="C27" s="23">
+        <v>0.65347222222222223</v>
       </c>
       <c r="D27" s="50"/>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="38">
-        <f>C27</f>
-        <v>2.1118055555555553</v>
-      </c>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="23">
-        <v>0.65347222222222223</v>
+      <c r="C28" s="24">
+        <v>0.73888888888888893</v>
       </c>
       <c r="D28" s="50"/>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="59"/>
+      <c r="F28" s="37">
+        <f>SUM(C27:C28)</f>
+        <v>1.3923611111111112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="66"/>
+      <c r="B29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="25">
+        <v>1.1659722222222222</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="36"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
-      <c r="B29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="24">
-        <v>0.73888888888888893</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="37">
-        <f>SUM(C28:C29)</f>
-        <v>1.3923611111111112</v>
+      <c r="F29" s="38">
+        <f t="shared" ref="F29:F38" si="0">C29</f>
+        <v>1.1659722222222222</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="25">
-        <v>1.1659722222222222</v>
+      <c r="C30" s="26">
+        <v>0.84375</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="38">
-        <f t="shared" ref="F30:F39" si="0">C30</f>
-        <v>1.1659722222222222</v>
+      <c r="F30" s="39">
+        <f t="shared" si="0"/>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="26">
-        <v>0.84375</v>
+      <c r="C31" s="25">
+        <v>1.0430555555555556</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <f t="shared" si="0"/>
-        <v>0.84375</v>
+        <v>1.0430555555555556</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="25">
-        <v>1.0430555555555556</v>
+        <v>1.0673611111111112</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="56" t="s">
@@ -1891,16 +1896,16 @@
       </c>
       <c r="F32" s="38">
         <f t="shared" si="0"/>
-        <v>1.0430555555555556</v>
+        <v>1.0673611111111112</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="25">
-        <v>1.0673611111111112</v>
+      <c r="C33" s="26">
+        <v>0.96111111111111114</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="56" t="s">
@@ -1908,16 +1913,16 @@
       </c>
       <c r="F33" s="38">
         <f t="shared" si="0"/>
-        <v>1.0673611111111112</v>
+        <v>0.96111111111111114</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="26">
-        <v>0.96111111111111114</v>
+      <c r="C34" s="25">
+        <v>1.3388888888888888</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="56" t="s">
@@ -1925,16 +1930,16 @@
       </c>
       <c r="F34" s="38">
         <f t="shared" si="0"/>
-        <v>0.96111111111111114</v>
+        <v>1.3388888888888888</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="25">
-        <v>1.3388888888888888</v>
+        <v>1.5513888888888889</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="56" t="s">
@@ -1942,16 +1947,16 @@
       </c>
       <c r="F35" s="38">
         <f t="shared" si="0"/>
-        <v>1.3388888888888888</v>
+        <v>1.5513888888888889</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="25">
-        <v>1.5513888888888889</v>
+      <c r="C36" s="26">
+        <v>0.94236111111111109</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="56" t="s">
@@ -1959,16 +1964,16 @@
       </c>
       <c r="F36" s="38">
         <f t="shared" si="0"/>
-        <v>1.5513888888888889</v>
+        <v>0.94236111111111109</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="26">
-        <v>0.94236111111111109</v>
+        <v>0.88611111111111107</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="56" t="s">
@@ -1976,16 +1981,16 @@
       </c>
       <c r="F37" s="38">
         <f t="shared" si="0"/>
-        <v>0.94236111111111109</v>
+        <v>0.88611111111111107</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="26">
-        <v>0.88611111111111107</v>
+      <c r="C38" s="25">
+        <v>1.1736111111111112</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="56" t="s">
@@ -1993,242 +1998,225 @@
       </c>
       <c r="F38" s="38">
         <f t="shared" si="0"/>
-        <v>0.88611111111111107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
-      <c r="B39" s="10" t="s">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="66"/>
+      <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="25">
-        <v>1.1736111111111112</v>
+      <c r="C39" s="23">
+        <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="56" t="s">
+      <c r="E39" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="38">
-        <f t="shared" si="0"/>
-        <v>1.1736111111111112</v>
-      </c>
+      <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="66"/>
+      <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="23">
-        <v>0.73125000000000007</v>
+      <c r="C40" s="24">
+        <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="59"/>
+      <c r="F40" s="37">
+        <f>SUM(C39:C40)</f>
+        <v>1.4520833333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="66"/>
+      <c r="B41" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="26">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="67"/>
-      <c r="B41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="24">
-        <v>0.72083333333333333</v>
-      </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="37">
-        <f>SUM(C40:C41)</f>
-        <v>1.4520833333333334</v>
+      <c r="F41" s="39">
+        <f>C41</f>
+        <v>0.78611111111111109</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="26">
-        <v>0.78611111111111109</v>
+        <v>0.9145833333333333</v>
       </c>
       <c r="D42" s="50"/>
       <c r="E42" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="41">
         <f>C42</f>
-        <v>0.78611111111111109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
-      <c r="B43" s="10" t="s">
+        <v>0.9145833333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="66"/>
+      <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="26">
-        <v>0.9145833333333333</v>
+      <c r="C43" s="23">
+        <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="41">
-        <f>C43</f>
-        <v>0.9145833333333333</v>
-      </c>
+      <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="67"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="66"/>
+      <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="23">
-        <v>0.29722222222222222</v>
+      <c r="C44" s="24">
+        <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="59"/>
+      <c r="F44" s="37">
+        <f>SUM(C43:C44)</f>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="66"/>
+      <c r="B45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="23">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="35"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
-      <c r="B45" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="24">
-        <v>0.67152777777777783</v>
-      </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="37">
-        <f>SUM(C44:C45)</f>
-        <v>0.96875</v>
-      </c>
+      <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="67"/>
-      <c r="B46" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="23">
-        <v>9.4444444444444442E-2</v>
+      <c r="A46" s="66"/>
+      <c r="B46" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="27">
+        <v>0.63680555555555551</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="35"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="66"/>
+      <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="27">
-        <v>0.63680555555555551</v>
+      <c r="C47" s="24">
+        <v>0.46388888888888885</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="59"/>
-      <c r="F47" s="36"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="67"/>
-      <c r="B48" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="24">
-        <v>0.46388888888888885</v>
+      <c r="F47" s="37">
+        <f>SUM(C45:C47)</f>
+        <v>1.1951388888888888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="66"/>
+      <c r="B48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="26">
+        <v>0.79375000000000007</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="37">
-        <f>SUM(C46:C48)</f>
-        <v>1.1951388888888888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="67"/>
-      <c r="B49" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="26">
+      <c r="E48" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="39">
+        <f>C48</f>
         <v>0.79375000000000007</v>
       </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="28">
+        <v>0.10277777777777779</v>
+      </c>
       <c r="D49" s="50"/>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="39">
-        <f>C49</f>
-        <v>0.79375000000000007</v>
-      </c>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="28">
-        <v>0.10277777777777779</v>
+      <c r="A50" s="58"/>
+      <c r="B50" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="29">
+        <v>0.20486111111111113</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="59" t="s">
-        <v>141</v>
-      </c>
+      <c r="E50" s="59"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="58"/>
-      <c r="B51" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="29">
-        <v>0.20486111111111113</v>
+      <c r="B51" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="30">
+        <v>0.43263888888888885</v>
       </c>
       <c r="D51" s="50"/>
       <c r="E51" s="59"/>
-      <c r="F51" s="36"/>
+      <c r="F51" s="37">
+        <f>SUM(C49:C51)</f>
+        <v>0.74027777777777781</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="B52" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="30">
-        <v>0.43263888888888885</v>
-      </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="37">
-        <f>SUM(C50:C52)</f>
-        <v>0.74027777777777781</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="42" t="s">
-        <v>59</v>
+      <c r="B52" s="42" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="E49:E51"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="A28:A49"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A27:A48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2251,44 +2239,44 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
-        <v>100</v>
+      <c r="A2" s="67" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="44">
         <v>0.40486111111111112</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="46">
         <v>8.1250000000000003E-2</v>
@@ -2298,9 +2286,9 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="46">
         <v>0.19305555555555554</v>
@@ -2310,9 +2298,9 @@
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="46">
         <v>0.25277777777777777</v>
@@ -2322,9 +2310,9 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="46">
         <v>0.13402777777777777</v>
@@ -2334,9 +2322,9 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="46">
         <v>0.12291666666666667</v>
@@ -2346,9 +2334,9 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="48">
         <v>0.28888888888888892</v>
@@ -2360,23 +2348,23 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="44">
         <v>0.12291666666666667</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="46">
         <v>0.26111111111111113</v>
@@ -2386,9 +2374,9 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="46">
         <v>0.23750000000000002</v>
@@ -2398,9 +2386,9 @@
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="46">
         <v>0.29583333333333334</v>
@@ -2410,9 +2398,9 @@
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="48">
         <v>0.18263888888888891</v>
@@ -2424,23 +2412,23 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="44">
         <v>0.34513888888888888</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="46">
         <v>0.26944444444444443</v>
@@ -2450,9 +2438,9 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="46">
         <v>0.29652777777777778</v>
@@ -2462,9 +2450,9 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="46">
         <v>0.17291666666666669</v>
@@ -2474,9 +2462,9 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="48">
         <v>0.26666666666666666</v>
@@ -2488,23 +2476,23 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="44">
         <v>0.3215277777777778</v>
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="46">
         <v>0.41875000000000001</v>
@@ -2514,9 +2502,9 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="46">
         <v>0.30624999999999997</v>
@@ -2526,9 +2514,9 @@
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="48">
         <v>0.17361111111111113</v>
@@ -2540,23 +2528,23 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="44">
         <v>0.24861111111111112</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="46">
         <v>0.14791666666666667</v>
@@ -2566,9 +2554,9 @@
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="46">
         <v>0.2951388888888889</v>
@@ -2578,9 +2566,9 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="46">
         <v>0.18888888888888888</v>
@@ -2590,9 +2578,9 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="48">
         <v>0.56180555555555556</v>
@@ -2604,23 +2592,23 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="44">
         <v>0.3833333333333333</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="46">
         <v>0.29305555555555557</v>
@@ -2630,9 +2618,9 @@
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="46">
         <v>0.29722222222222222</v>
@@ -2642,9 +2630,9 @@
       <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="48">
         <v>0.27291666666666664</v>
@@ -2656,23 +2644,23 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="44">
         <v>0.21458333333333335</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="46">
         <v>0.2638888888888889</v>
@@ -2682,9 +2670,9 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="46">
         <v>0.37777777777777777</v>
@@ -2694,9 +2682,9 @@
       <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="48">
         <v>0.63611111111111118</v>
@@ -2708,23 +2696,23 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="44">
         <v>0.375</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="46">
         <v>0.30624999999999997</v>
@@ -2734,9 +2722,9 @@
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="48">
         <v>0.4375</v>
@@ -2748,23 +2736,23 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="46">
         <v>0.4694444444444445</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="46">
         <v>0.31666666666666665</v>
@@ -2774,9 +2762,9 @@
       <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="70"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="48">
         <v>0.30486111111111108</v>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그래밍\식초님 로드맵대로\커리큘럼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40359075-86D6-447D-9B40-E05CB9CBBCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A63AFFB-69E2-45BF-8633-82E1EF082D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -444,42 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7주차 월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7주차 화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7주차 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7주차 목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7주차 금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8주차 월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8주차 화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8주차 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8주차 목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1주차 월(11/08)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,79 +488,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3주차 화(11/23)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주차 수(11/24)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주차 목(11/25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주차 금(11/26)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4주차 월(11/29)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4주차 화(11/30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4주차 수(12/1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5주차 금(12/10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 월(12/13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 화(12/14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 목(12/16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4주차 목(12/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4주차 금(12/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5주차 월(12/6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5주차 화(12/7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5주차 수(12/8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5주차 목(12/9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주차 금(12/10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 월(12/13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 화(12/14)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6주차 수(12/15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 목(12/16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6주차 금(12/17)</t>
+  </si>
+  <si>
+    <t>7주차 월 (12/20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 화(12/21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 수(12/22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 목(12/23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 금(12/24)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -827,13 +779,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,31 +971,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,7 +1345,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1379,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="69" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1407,13 +1391,13 @@
       <c r="D2" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>111</v>
+      <c r="E2" s="68" t="s">
+        <v>102</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1423,11 +1407,11 @@
       <c r="D3" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="64"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1437,14 +1421,14 @@
       <c r="D4" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1439,7 @@
         <v>101</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F5" s="38">
         <f>C5</f>
@@ -1463,7 +1447,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
@@ -1474,7 +1458,7 @@
         <v>101</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F6" s="39">
         <f>C6</f>
@@ -1482,7 +1466,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1492,13 +1476,13 @@
       <c r="D7" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="59" t="s">
-        <v>114</v>
+      <c r="E7" s="73" t="s">
+        <v>105</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1508,14 +1492,14 @@
       <c r="D8" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1510,7 @@
         <v>101</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F9" s="38">
         <f>C9</f>
@@ -1534,7 +1518,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1544,13 +1528,13 @@
       <c r="D10" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="59" t="s">
-        <v>116</v>
+      <c r="E10" s="73" t="s">
+        <v>107</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1560,11 +1544,11 @@
       <c r="D11" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1574,14 +1558,14 @@
       <c r="D12" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="59"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1591,13 +1575,13 @@
       <c r="D13" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="59" t="s">
-        <v>117</v>
+      <c r="E13" s="73" t="s">
+        <v>108</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1607,14 +1591,14 @@
       <c r="D14" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="59"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1624,13 +1608,13 @@
       <c r="D15" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="63" t="s">
-        <v>118</v>
+      <c r="E15" s="68" t="s">
+        <v>109</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1640,11 +1624,11 @@
       <c r="D16" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="64"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1654,14 +1638,14 @@
       <c r="D17" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="65"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1671,13 +1655,13 @@
       <c r="D18" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="63" t="s">
-        <v>119</v>
+      <c r="E18" s="68" t="s">
+        <v>110</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1687,14 +1671,14 @@
       <c r="D19" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="65"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1704,13 +1688,13 @@
       <c r="D20" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="63" t="s">
-        <v>120</v>
+      <c r="E20" s="68" t="s">
+        <v>111</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1720,11 +1704,11 @@
       <c r="D21" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="64"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1734,48 +1718,54 @@
       <c r="D22" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="37">
         <f>SUM(C20:C22)</f>
         <v>1.3708333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="16">
         <v>0.79375000000000007</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="59" t="s">
-        <v>121</v>
+      <c r="D23" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>112</v>
       </c>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="17">
         <v>0.57708333333333328</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="59"/>
+      <c r="D24" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="73"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="18">
         <v>0.47361111111111115</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="59"/>
+      <c r="D25" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="73"/>
       <c r="F25" s="37">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
@@ -1791,17 +1781,19 @@
       <c r="C26" s="22">
         <v>2.1118055555555553</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="56" t="s">
-        <v>122</v>
+      <c r="D26" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>113</v>
       </c>
       <c r="F26" s="38">
         <f>C26</f>
         <v>2.1118055555555553</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="60" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1811,13 +1803,13 @@
         <v>0.65347222222222223</v>
       </c>
       <c r="D27" s="50"/>
-      <c r="E27" s="59" t="s">
-        <v>123</v>
+      <c r="E27" s="68" t="s">
+        <v>118</v>
       </c>
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
@@ -1825,14 +1817,14 @@
         <v>0.73888888888888893</v>
       </c>
       <c r="D28" s="50"/>
-      <c r="E28" s="59"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="37">
         <f>SUM(C27:C28)</f>
         <v>1.3923611111111112</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1840,8 +1832,8 @@
         <v>1.1659722222222222</v>
       </c>
       <c r="D29" s="50"/>
-      <c r="E29" s="56" t="s">
-        <v>124</v>
+      <c r="E29" s="58" t="s">
+        <v>119</v>
       </c>
       <c r="F29" s="38">
         <f t="shared" ref="F29:F38" si="0">C29</f>
@@ -1849,7 +1841,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
@@ -1857,8 +1849,8 @@
         <v>0.84375</v>
       </c>
       <c r="D30" s="50"/>
-      <c r="E30" s="56" t="s">
-        <v>125</v>
+      <c r="E30" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="F30" s="39">
         <f t="shared" si="0"/>
@@ -1866,7 +1858,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
@@ -1874,8 +1866,8 @@
         <v>1.0430555555555556</v>
       </c>
       <c r="D31" s="50"/>
-      <c r="E31" s="56" t="s">
-        <v>126</v>
+      <c r="E31" s="58" t="s">
+        <v>121</v>
       </c>
       <c r="F31" s="38">
         <f t="shared" si="0"/>
@@ -1883,7 +1875,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
@@ -1891,8 +1883,8 @@
         <v>1.0673611111111112</v>
       </c>
       <c r="D32" s="50"/>
-      <c r="E32" s="56" t="s">
-        <v>127</v>
+      <c r="E32" s="58" t="s">
+        <v>122</v>
       </c>
       <c r="F32" s="38">
         <f t="shared" si="0"/>
@@ -1900,7 +1892,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
@@ -1908,8 +1900,8 @@
         <v>0.96111111111111114</v>
       </c>
       <c r="D33" s="50"/>
-      <c r="E33" s="56" t="s">
-        <v>128</v>
+      <c r="E33" s="58" t="s">
+        <v>123</v>
       </c>
       <c r="F33" s="38">
         <f t="shared" si="0"/>
@@ -1917,7 +1909,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
@@ -1925,8 +1917,8 @@
         <v>1.3388888888888888</v>
       </c>
       <c r="D34" s="50"/>
-      <c r="E34" s="56" t="s">
-        <v>129</v>
+      <c r="E34" s="58" t="s">
+        <v>114</v>
       </c>
       <c r="F34" s="38">
         <f t="shared" si="0"/>
@@ -1934,7 +1926,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
@@ -1943,7 +1935,7 @@
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="56" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F35" s="38">
         <f t="shared" si="0"/>
@@ -1951,7 +1943,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
@@ -1959,8 +1951,8 @@
         <v>0.94236111111111109</v>
       </c>
       <c r="D36" s="50"/>
-      <c r="E36" s="56" t="s">
-        <v>131</v>
+      <c r="E36" s="59" t="s">
+        <v>116</v>
       </c>
       <c r="F36" s="38">
         <f t="shared" si="0"/>
@@ -1968,7 +1960,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
@@ -1976,8 +1968,8 @@
         <v>0.88611111111111107</v>
       </c>
       <c r="D37" s="50"/>
-      <c r="E37" s="56" t="s">
-        <v>132</v>
+      <c r="E37" s="58" t="s">
+        <v>124</v>
       </c>
       <c r="F37" s="38">
         <f t="shared" si="0"/>
@@ -1985,7 +1977,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
@@ -1993,16 +1985,16 @@
         <v>1.1736111111111112</v>
       </c>
       <c r="D38" s="50"/>
-      <c r="E38" s="56" t="s">
-        <v>133</v>
+      <c r="E38" s="61" t="s">
+        <v>117</v>
       </c>
       <c r="F38" s="38">
         <f t="shared" si="0"/>
         <v>1.1736111111111112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="60"/>
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2010,13 +2002,13 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="59" t="s">
-        <v>134</v>
+      <c r="E39" s="68" t="s">
+        <v>125</v>
       </c>
       <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
@@ -2024,14 +2016,14 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="59"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="37">
         <f>SUM(C39:C40)</f>
         <v>1.4520833333333334</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="10" t="s">
         <v>41</v>
       </c>
@@ -2040,7 +2032,7 @@
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="56" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F41" s="39">
         <f>C41</f>
@@ -2048,7 +2040,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="10" t="s">
         <v>42</v>
       </c>
@@ -2056,8 +2048,8 @@
         <v>0.9145833333333333</v>
       </c>
       <c r="D42" s="50"/>
-      <c r="E42" s="56" t="s">
-        <v>136</v>
+      <c r="E42" s="62" t="s">
+        <v>127</v>
       </c>
       <c r="F42" s="41">
         <f>C42</f>
@@ -2065,7 +2057,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
@@ -2073,13 +2065,13 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="59" t="s">
-        <v>137</v>
+      <c r="E43" s="68" t="s">
+        <v>128</v>
       </c>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
@@ -2087,14 +2079,14 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="59"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="37">
         <f>SUM(C43:C44)</f>
         <v>0.96875</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="8" t="s">
         <v>1</v>
       </c>
@@ -2102,13 +2094,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="59" t="s">
-        <v>138</v>
+      <c r="E45" s="73" t="s">
+        <v>129</v>
       </c>
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="11" t="s">
         <v>46</v>
       </c>
@@ -2116,11 +2108,11 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="59"/>
+      <c r="E46" s="73"/>
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="66"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
@@ -2128,14 +2120,14 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="37">
+      <c r="E47" s="73"/>
+      <c r="F47" s="63">
         <f>SUM(C45:C47)</f>
         <v>1.1951388888888888</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="60"/>
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -2143,16 +2135,13 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="39">
-        <f>C48</f>
-        <v>0.79375000000000007</v>
-      </c>
+      <c r="E48" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="64"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="72" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -2162,13 +2151,11 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="D49" s="50"/>
-      <c r="E49" s="59" t="s">
-        <v>140</v>
-      </c>
+      <c r="E49" s="66"/>
       <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="13" t="s">
         <v>45</v>
       </c>
@@ -2176,11 +2163,11 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="59"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="14" t="s">
         <v>18</v>
       </c>
@@ -2188,10 +2175,10 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="59"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="37">
-        <f>SUM(C49:C51)</f>
-        <v>0.74027777777777781</v>
+        <f>SUM(C48:C51)</f>
+        <v>1.5340277777777778</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,23 +2187,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="A49:A51"/>
-    <mergeCell ref="E49:E51"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E43:E44"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A27:A48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2229,7 +2215,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E2" sqref="E2:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2258,7 +2244,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="74" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2268,13 +2254,11 @@
         <v>0.40486111111111112</v>
       </c>
       <c r="D2" s="50"/>
-      <c r="E2" s="52" t="s">
-        <v>102</v>
-      </c>
+      <c r="E2" s="52"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="45" t="s">
         <v>61</v>
       </c>
@@ -2286,7 +2270,7 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="45" t="s">
         <v>62</v>
       </c>
@@ -2298,7 +2282,7 @@
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="45" t="s">
         <v>59</v>
       </c>
@@ -2310,7 +2294,7 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="45" t="s">
         <v>63</v>
       </c>
@@ -2322,7 +2306,7 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="45" t="s">
         <v>64</v>
       </c>
@@ -2334,7 +2318,7 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="47" t="s">
         <v>65</v>
       </c>
@@ -2348,7 +2332,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="43" t="s">
         <v>66</v>
       </c>
@@ -2356,13 +2340,11 @@
         <v>0.12291666666666667</v>
       </c>
       <c r="D9" s="50"/>
-      <c r="E9" s="52" t="s">
-        <v>103</v>
-      </c>
+      <c r="E9" s="52"/>
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="45" t="s">
         <v>67</v>
       </c>
@@ -2374,7 +2356,7 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="45" t="s">
         <v>70</v>
       </c>
@@ -2386,7 +2368,7 @@
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="45" t="s">
         <v>71</v>
       </c>
@@ -2398,7 +2380,7 @@
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="47" t="s">
         <v>72</v>
       </c>
@@ -2412,7 +2394,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="43" t="s">
         <v>73</v>
       </c>
@@ -2420,13 +2402,11 @@
         <v>0.34513888888888888</v>
       </c>
       <c r="D14" s="50"/>
-      <c r="E14" s="52" t="s">
-        <v>104</v>
-      </c>
+      <c r="E14" s="52"/>
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="45" t="s">
         <v>74</v>
       </c>
@@ -2438,7 +2418,7 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="45" t="s">
         <v>75</v>
       </c>
@@ -2450,7 +2430,7 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="45" t="s">
         <v>76</v>
       </c>
@@ -2462,7 +2442,7 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="47" t="s">
         <v>77</v>
       </c>
@@ -2476,7 +2456,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="43" t="s">
         <v>78</v>
       </c>
@@ -2484,13 +2464,11 @@
         <v>0.3215277777777778</v>
       </c>
       <c r="D19" s="50"/>
-      <c r="E19" s="52" t="s">
-        <v>105</v>
-      </c>
+      <c r="E19" s="52"/>
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="45" t="s">
         <v>79</v>
       </c>
@@ -2502,7 +2480,7 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="45" t="s">
         <v>80</v>
       </c>
@@ -2514,7 +2492,7 @@
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="47" t="s">
         <v>81</v>
       </c>
@@ -2528,7 +2506,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="43" t="s">
         <v>82</v>
       </c>
@@ -2536,13 +2514,11 @@
         <v>0.24861111111111112</v>
       </c>
       <c r="D23" s="50"/>
-      <c r="E23" s="52" t="s">
-        <v>106</v>
-      </c>
+      <c r="E23" s="52"/>
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
+      <c r="A24" s="75"/>
       <c r="B24" s="45" t="s">
         <v>83</v>
       </c>
@@ -2554,7 +2530,7 @@
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="45" t="s">
         <v>84</v>
       </c>
@@ -2566,7 +2542,7 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="45" t="s">
         <v>85</v>
       </c>
@@ -2578,7 +2554,7 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="47" t="s">
         <v>86</v>
       </c>
@@ -2592,7 +2568,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="43" t="s">
         <v>87</v>
       </c>
@@ -2600,13 +2576,11 @@
         <v>0.3833333333333333</v>
       </c>
       <c r="D28" s="50"/>
-      <c r="E28" s="52" t="s">
-        <v>107</v>
-      </c>
+      <c r="E28" s="52"/>
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="45" t="s">
         <v>88</v>
       </c>
@@ -2618,7 +2592,7 @@
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="45" t="s">
         <v>90</v>
       </c>
@@ -2630,7 +2604,7 @@
       <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="47" t="s">
         <v>89</v>
       </c>
@@ -2644,7 +2618,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
+      <c r="A32" s="75"/>
       <c r="B32" s="43" t="s">
         <v>91</v>
       </c>
@@ -2652,13 +2626,11 @@
         <v>0.21458333333333335</v>
       </c>
       <c r="D32" s="50"/>
-      <c r="E32" s="52" t="s">
-        <v>108</v>
-      </c>
+      <c r="E32" s="52"/>
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="45" t="s">
         <v>92</v>
       </c>
@@ -2670,7 +2642,7 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="45" t="s">
         <v>93</v>
       </c>
@@ -2682,7 +2654,7 @@
       <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="47" t="s">
         <v>94</v>
       </c>
@@ -2696,7 +2668,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="68"/>
+      <c r="A36" s="75"/>
       <c r="B36" s="43" t="s">
         <v>95</v>
       </c>
@@ -2704,13 +2676,11 @@
         <v>0.375</v>
       </c>
       <c r="D36" s="50"/>
-      <c r="E36" s="52" t="s">
-        <v>109</v>
-      </c>
+      <c r="E36" s="52"/>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="45" t="s">
         <v>96</v>
       </c>
@@ -2722,7 +2692,7 @@
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
+      <c r="A38" s="75"/>
       <c r="B38" s="47" t="s">
         <v>97</v>
       </c>
@@ -2736,7 +2706,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
+      <c r="A39" s="75"/>
       <c r="B39" s="45" t="s">
         <v>98</v>
       </c>
@@ -2744,13 +2714,11 @@
         <v>0.4694444444444445</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="53" t="s">
-        <v>110</v>
-      </c>
+      <c r="E39" s="53"/>
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="45" t="s">
         <v>68</v>
       </c>
@@ -2762,7 +2730,7 @@
       <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="47" t="s">
         <v>69</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A63AFFB-69E2-45BF-8633-82E1EF082D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86585DB6-FDE0-4758-B4AC-50B57812738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -796,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,9 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -991,6 +988,15 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1344,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1379,7 +1385,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1391,13 +1397,13 @@
       <c r="D2" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="70" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1407,11 +1413,11 @@
       <c r="D3" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="66"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1421,14 +1427,14 @@
       <c r="D4" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="67"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1453,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
@@ -1466,7 +1472,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1476,13 +1482,13 @@
       <c r="D7" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="75" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1492,14 +1498,14 @@
       <c r="D8" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1518,7 +1524,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1528,13 +1534,13 @@
       <c r="D10" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="75" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1544,11 +1550,11 @@
       <c r="D11" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1558,14 +1564,14 @@
       <c r="D12" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1575,13 +1581,13 @@
       <c r="D13" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="75" t="s">
         <v>108</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1591,14 +1597,14 @@
       <c r="D14" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1608,13 +1614,13 @@
       <c r="D15" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="70" t="s">
         <v>109</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1624,11 +1630,11 @@
       <c r="D16" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1638,14 +1644,14 @@
       <c r="D17" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="67"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1655,13 +1661,13 @@
       <c r="D18" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="70" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1671,14 +1677,14 @@
       <c r="D19" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1688,13 +1694,13 @@
       <c r="D20" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="70" t="s">
         <v>111</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1704,11 +1710,11 @@
       <c r="D21" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="66"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1718,14 +1724,14 @@
       <c r="D22" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="37">
         <f>SUM(C20:C22)</f>
         <v>1.3708333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1735,13 +1741,13 @@
       <c r="D23" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="75" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1751,11 +1757,11 @@
       <c r="D24" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="73"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1765,7 +1771,7 @@
       <c r="D25" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="73"/>
+      <c r="E25" s="75"/>
       <c r="F25" s="37">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
@@ -1793,7 +1799,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1802,29 +1808,33 @@
       <c r="C27" s="23">
         <v>0.65347222222222223</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="68" t="s">
+      <c r="D27" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="70" t="s">
         <v>118</v>
       </c>
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="24">
         <v>0.73888888888888893</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="67"/>
+      <c r="D28" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="69"/>
       <c r="F28" s="37">
         <f>SUM(C27:C28)</f>
         <v>1.3923611111111112</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1841,7 +1851,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
@@ -1858,7 +1868,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
@@ -1875,7 +1885,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
@@ -1892,7 +1902,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +1919,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
@@ -1926,7 +1936,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
@@ -1943,7 +1953,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
@@ -1960,7 +1970,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
@@ -1977,7 +1987,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
@@ -1985,7 +1995,7 @@
         <v>1.1736111111111112</v>
       </c>
       <c r="D38" s="50"/>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="60" t="s">
         <v>117</v>
       </c>
       <c r="F38" s="38">
@@ -1994,7 +2004,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2002,13 +2012,13 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="68" t="s">
+      <c r="E39" s="70" t="s">
         <v>125</v>
       </c>
       <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
@@ -2016,14 +2026,14 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="67"/>
+      <c r="E40" s="69"/>
       <c r="F40" s="37">
         <f>SUM(C39:C40)</f>
         <v>1.4520833333333334</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="10" t="s">
         <v>41</v>
       </c>
@@ -2040,7 +2050,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="10" t="s">
         <v>42</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>0.9145833333333333</v>
       </c>
       <c r="D42" s="50"/>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="61" t="s">
         <v>127</v>
       </c>
       <c r="F42" s="41">
@@ -2057,7 +2067,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="60"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
@@ -2065,13 +2075,13 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="68" t="s">
+      <c r="E43" s="70" t="s">
         <v>128</v>
       </c>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="60"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
@@ -2079,14 +2089,14 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="67"/>
+      <c r="E44" s="69"/>
       <c r="F44" s="37">
         <f>SUM(C43:C44)</f>
         <v>0.96875</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="60"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="8" t="s">
         <v>1</v>
       </c>
@@ -2094,13 +2104,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="73" t="s">
+      <c r="E45" s="75" t="s">
         <v>129</v>
       </c>
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="60"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="11" t="s">
         <v>46</v>
       </c>
@@ -2108,11 +2118,11 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="73"/>
+      <c r="E46" s="75"/>
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="60"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
@@ -2120,14 +2130,14 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="63">
+      <c r="E47" s="75"/>
+      <c r="F47" s="62">
         <f>SUM(C45:C47)</f>
         <v>1.1951388888888888</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="60"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -2135,13 +2145,13 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="65" t="s">
+      <c r="E48" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="64"/>
+      <c r="F48" s="63"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="74" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -2151,11 +2161,11 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="D49" s="50"/>
-      <c r="E49" s="66"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="72"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="13" t="s">
         <v>45</v>
       </c>
@@ -2163,11 +2173,11 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="66"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="14" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2185,7 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="67"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="37">
         <f>SUM(C48:C51)</f>
         <v>1.5340277777777778</v>
@@ -2187,7 +2197,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A27:A48"/>
     <mergeCell ref="E48:E51"/>
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="E20:E22"/>
@@ -2244,7 +2255,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2258,7 +2269,7 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="45" t="s">
         <v>61</v>
       </c>
@@ -2270,7 +2281,7 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="45" t="s">
         <v>62</v>
       </c>
@@ -2282,7 +2293,7 @@
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="45" t="s">
         <v>59</v>
       </c>
@@ -2294,7 +2305,7 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="45" t="s">
         <v>63</v>
       </c>
@@ -2306,7 +2317,7 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="45" t="s">
         <v>64</v>
       </c>
@@ -2318,7 +2329,7 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="47" t="s">
         <v>65</v>
       </c>
@@ -2332,7 +2343,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="43" t="s">
         <v>66</v>
       </c>
@@ -2344,7 +2355,7 @@
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="45" t="s">
         <v>67</v>
       </c>
@@ -2356,7 +2367,7 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="45" t="s">
         <v>70</v>
       </c>
@@ -2368,7 +2379,7 @@
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="45" t="s">
         <v>71</v>
       </c>
@@ -2380,7 +2391,7 @@
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="47" t="s">
         <v>72</v>
       </c>
@@ -2394,7 +2405,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="43" t="s">
         <v>73</v>
       </c>
@@ -2406,7 +2417,7 @@
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="45" t="s">
         <v>74</v>
       </c>
@@ -2418,7 +2429,7 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="45" t="s">
         <v>75</v>
       </c>
@@ -2430,7 +2441,7 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="45" t="s">
         <v>76</v>
       </c>
@@ -2442,7 +2453,7 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="47" t="s">
         <v>77</v>
       </c>
@@ -2456,7 +2467,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="43" t="s">
         <v>78</v>
       </c>
@@ -2468,7 +2479,7 @@
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="45" t="s">
         <v>79</v>
       </c>
@@ -2480,7 +2491,7 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="75"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="45" t="s">
         <v>80</v>
       </c>
@@ -2492,7 +2503,7 @@
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="47" t="s">
         <v>81</v>
       </c>
@@ -2506,7 +2517,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="43" t="s">
         <v>82</v>
       </c>
@@ -2518,7 +2529,7 @@
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="45" t="s">
         <v>83</v>
       </c>
@@ -2530,7 +2541,7 @@
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="45" t="s">
         <v>84</v>
       </c>
@@ -2542,7 +2553,7 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="45" t="s">
         <v>85</v>
       </c>
@@ -2554,7 +2565,7 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="47" t="s">
         <v>86</v>
       </c>
@@ -2568,7 +2579,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="43" t="s">
         <v>87</v>
       </c>
@@ -2580,7 +2591,7 @@
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="45" t="s">
         <v>88</v>
       </c>
@@ -2592,7 +2603,7 @@
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="75"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="45" t="s">
         <v>90</v>
       </c>
@@ -2604,7 +2615,7 @@
       <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="47" t="s">
         <v>89</v>
       </c>
@@ -2618,7 +2629,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="43" t="s">
         <v>91</v>
       </c>
@@ -2630,7 +2641,7 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="45" t="s">
         <v>92</v>
       </c>
@@ -2642,7 +2653,7 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="75"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="45" t="s">
         <v>93</v>
       </c>
@@ -2654,7 +2665,7 @@
       <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="75"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="47" t="s">
         <v>94</v>
       </c>
@@ -2668,7 +2679,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="43" t="s">
         <v>95</v>
       </c>
@@ -2680,7 +2691,7 @@
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="75"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="45" t="s">
         <v>96</v>
       </c>
@@ -2692,7 +2703,7 @@
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="75"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="47" t="s">
         <v>97</v>
       </c>
@@ -2706,7 +2717,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="75"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="45" t="s">
         <v>98</v>
       </c>
@@ -2718,7 +2729,7 @@
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="75"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="45" t="s">
         <v>68</v>
       </c>
@@ -2730,7 +2741,7 @@
       <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="76"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="47" t="s">
         <v>69</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86585DB6-FDE0-4758-B4AC-50B57812738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3191072F-FEE3-49A7-8A46-AAA8ED5BC39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
+    <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1841,7 +1841,9 @@
       <c r="C29" s="25">
         <v>1.1659722222222222</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="50" t="s">
+        <v>101</v>
+      </c>
       <c r="E29" s="58" t="s">
         <v>119</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3191072F-FEE3-49A7-8A46-AAA8ED5BC39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53FDC75-4A1E-454B-A9EE-B45EDDC0BEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1860,7 +1860,9 @@
       <c r="C30" s="26">
         <v>0.84375</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="50" t="s">
+        <v>101</v>
+      </c>
       <c r="E30" s="58" t="s">
         <v>120</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53FDC75-4A1E-454B-A9EE-B45EDDC0BEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175F8059-8726-47FE-8062-6F1055E60042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1879,7 +1879,9 @@
       <c r="C31" s="25">
         <v>1.0430555555555556</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="50" t="s">
+        <v>101</v>
+      </c>
       <c r="E31" s="58" t="s">
         <v>121</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175F8059-8726-47FE-8062-6F1055E60042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0F68F-0EBF-4B47-8F21-CA5F1BC316CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -520,12 +520,6 @@
     <t>5주차 화(12/7)</t>
   </si>
   <si>
-    <t>5주차 수(12/8)</t>
-  </si>
-  <si>
-    <t>5주차 목(12/9)</t>
-  </si>
-  <si>
     <t>6주차 수(12/15)</t>
   </si>
   <si>
@@ -549,6 +543,14 @@
   </si>
   <si>
     <t>7주차 금(12/24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차 토(12/11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차 일(12/12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1350,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1898,9 +1900,11 @@
       <c r="C32" s="25">
         <v>1.0673611111111112</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="50" t="s">
+        <v>101</v>
+      </c>
       <c r="E32" s="58" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F32" s="38">
         <f t="shared" si="0"/>
@@ -1917,7 +1921,7 @@
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="58" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F33" s="38">
         <f t="shared" si="0"/>
@@ -1933,8 +1937,8 @@
         <v>1.3388888888888888</v>
       </c>
       <c r="D34" s="50"/>
-      <c r="E34" s="58" t="s">
-        <v>114</v>
+      <c r="E34" s="57" t="s">
+        <v>130</v>
       </c>
       <c r="F34" s="38">
         <f t="shared" si="0"/>
@@ -1985,7 +1989,7 @@
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" s="38">
         <f t="shared" si="0"/>
@@ -2019,7 +2023,7 @@
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F39" s="35"/>
     </row>
@@ -2048,7 +2052,7 @@
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F41" s="39">
         <f>C41</f>
@@ -2065,7 +2069,7 @@
       </c>
       <c r="D42" s="50"/>
       <c r="E42" s="61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F42" s="41">
         <f>C42</f>
@@ -2082,7 +2086,7 @@
       </c>
       <c r="D43" s="50"/>
       <c r="E43" s="70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F43" s="35"/>
     </row>
@@ -2111,7 +2115,7 @@
       </c>
       <c r="D45" s="50"/>
       <c r="E45" s="75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F45" s="35"/>
     </row>
@@ -2152,7 +2156,7 @@
       </c>
       <c r="D48" s="50"/>
       <c r="E48" s="67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F48" s="63"/>
     </row>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0F68F-0EBF-4B47-8F21-CA5F1BC316CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0404ADDD-0EE5-49B2-A2AF-E3C3F770758F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -534,23 +534,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>7주차 목(12/23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 금(12/24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7주차 수(12/22)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7주차 목(12/23)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7주차 금(12/24)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주차 토(12/11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주차 일(12/12)</t>
+  </si>
+  <si>
+    <t>8주차 월  (12/27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 화  (12/28)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +788,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -979,30 +980,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1035,6 +1018,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1387,7 +1388,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="65" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1399,13 +1400,13 @@
       <c r="D2" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="64" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1415,11 +1416,11 @@
       <c r="D3" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="68"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1429,14 +1430,14 @@
       <c r="D4" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1456,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
@@ -1474,7 +1475,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1484,13 +1485,13 @@
       <c r="D7" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="69" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1500,14 +1501,14 @@
       <c r="D8" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1527,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1536,13 +1537,13 @@
       <c r="D10" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="69" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1552,11 +1553,11 @@
       <c r="D11" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="75"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1566,14 +1567,14 @@
       <c r="D12" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="75"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1583,13 +1584,13 @@
       <c r="D13" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="69" t="s">
         <v>108</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1599,14 +1600,14 @@
       <c r="D14" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="75"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1616,13 +1617,13 @@
       <c r="D15" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="64" t="s">
         <v>109</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1632,11 +1633,11 @@
       <c r="D16" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="68"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1646,14 +1647,14 @@
       <c r="D17" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="69"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1663,13 +1664,13 @@
       <c r="D18" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="64" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1679,14 +1680,14 @@
       <c r="D19" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="69"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1696,13 +1697,13 @@
       <c r="D20" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="64" t="s">
         <v>111</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1712,11 +1713,11 @@
       <c r="D21" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="68"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1726,14 +1727,14 @@
       <c r="D22" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="69"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="37">
         <f>SUM(C20:C22)</f>
         <v>1.3708333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1743,13 +1744,13 @@
       <c r="D23" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="69" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="72"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1759,11 +1760,11 @@
       <c r="D24" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="75"/>
+      <c r="E24" s="69"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1773,7 +1774,7 @@
       <c r="D25" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="75"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="37">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
@@ -1801,7 +1802,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="74" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1813,13 +1814,13 @@
       <c r="D27" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="64" t="s">
         <v>118</v>
       </c>
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
@@ -1829,14 +1830,14 @@
       <c r="D28" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="69"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="37">
         <f>SUM(C27:C28)</f>
         <v>1.3923611111111112</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1855,7 +1856,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
@@ -1874,7 +1875,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
@@ -1893,7 +1894,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
+      <c r="A32" s="75"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
@@ -1912,7 +1913,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
@@ -1920,8 +1921,8 @@
         <v>0.96111111111111114</v>
       </c>
       <c r="D33" s="50"/>
-      <c r="E33" s="58" t="s">
-        <v>129</v>
+      <c r="E33" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="F33" s="38">
         <f t="shared" si="0"/>
@@ -1929,7 +1930,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
@@ -1937,8 +1938,8 @@
         <v>1.3388888888888888</v>
       </c>
       <c r="D34" s="50"/>
-      <c r="E34" s="57" t="s">
-        <v>130</v>
+      <c r="E34" s="59" t="s">
+        <v>116</v>
       </c>
       <c r="F34" s="38">
         <f t="shared" si="0"/>
@@ -1946,7 +1947,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
@@ -1954,8 +1955,8 @@
         <v>1.5513888888888889</v>
       </c>
       <c r="D35" s="50"/>
-      <c r="E35" s="56" t="s">
-        <v>115</v>
+      <c r="E35" s="58" t="s">
+        <v>122</v>
       </c>
       <c r="F35" s="38">
         <f t="shared" si="0"/>
@@ -1963,7 +1964,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
+      <c r="A36" s="75"/>
       <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
@@ -1971,16 +1972,16 @@
         <v>0.94236111111111109</v>
       </c>
       <c r="D36" s="50"/>
-      <c r="E36" s="59" t="s">
-        <v>116</v>
+      <c r="E36" s="73" t="s">
+        <v>117</v>
       </c>
       <c r="F36" s="38">
         <f t="shared" si="0"/>
         <v>0.94236111111111109</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="75"/>
       <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
@@ -1988,16 +1989,16 @@
         <v>0.88611111111111107</v>
       </c>
       <c r="D37" s="50"/>
-      <c r="E37" s="58" t="s">
-        <v>122</v>
+      <c r="E37" s="64" t="s">
+        <v>123</v>
       </c>
       <c r="F37" s="38">
         <f t="shared" si="0"/>
         <v>0.88611111111111107</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="75"/>
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
@@ -2005,16 +2006,14 @@
         <v>1.1736111111111112</v>
       </c>
       <c r="D38" s="50"/>
-      <c r="E38" s="60" t="s">
-        <v>117</v>
-      </c>
+      <c r="E38" s="63"/>
       <c r="F38" s="38">
         <f t="shared" si="0"/>
         <v>1.1736111111111112</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
+      <c r="A39" s="75"/>
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2022,13 +2021,13 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="70" t="s">
-        <v>123</v>
+      <c r="E39" s="64" t="s">
+        <v>124</v>
       </c>
       <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
@@ -2036,14 +2035,14 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="69"/>
+      <c r="E40" s="63"/>
       <c r="F40" s="37">
         <f>SUM(C39:C40)</f>
         <v>1.4520833333333334</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="10" t="s">
         <v>41</v>
       </c>
@@ -2051,8 +2050,8 @@
         <v>0.78611111111111109</v>
       </c>
       <c r="D41" s="50"/>
-      <c r="E41" s="56" t="s">
-        <v>124</v>
+      <c r="E41" s="60" t="s">
+        <v>125</v>
       </c>
       <c r="F41" s="39">
         <f>C41</f>
@@ -2060,7 +2059,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="10" t="s">
         <v>42</v>
       </c>
@@ -2068,8 +2067,8 @@
         <v>0.9145833333333333</v>
       </c>
       <c r="D42" s="50"/>
-      <c r="E42" s="61" t="s">
-        <v>125</v>
+      <c r="E42" s="57" t="s">
+        <v>128</v>
       </c>
       <c r="F42" s="41">
         <f>C42</f>
@@ -2077,7 +2076,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
@@ -2085,13 +2084,13 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="64" t="s">
         <v>126</v>
       </c>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
+      <c r="A44" s="75"/>
       <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
@@ -2099,14 +2098,14 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="69"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="37">
         <f>SUM(C43:C44)</f>
         <v>0.96875</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="8" t="s">
         <v>1</v>
       </c>
@@ -2114,13 +2113,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="69" t="s">
         <v>127</v>
       </c>
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="11" t="s">
         <v>46</v>
       </c>
@@ -2128,11 +2127,11 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="75"/>
+      <c r="E46" s="69"/>
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="65"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
@@ -2140,14 +2139,14 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="62">
+      <c r="E47" s="69"/>
+      <c r="F47" s="61">
         <f>SUM(C45:C47)</f>
         <v>1.1951388888888888</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
+    <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="76"/>
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -2155,13 +2154,16 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="63"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="74" t="s">
+      <c r="E48" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="37">
+        <f>SUM(C48)</f>
+        <v>0.79375000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="68" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -2170,12 +2172,14 @@
       <c r="C49" s="28">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="68"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="64" t="s">
+        <v>130</v>
+      </c>
       <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="74"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="13" t="s">
         <v>45</v>
       </c>
@@ -2183,11 +2187,11 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="68"/>
+      <c r="E50" s="62"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="74"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="14" t="s">
         <v>18</v>
       </c>
@@ -2195,10 +2199,10 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="69"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="37">
-        <f>SUM(C48:C51)</f>
-        <v>1.5340277777777778</v>
+        <f>SUM(C49:C51)</f>
+        <v>0.74027777777777781</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2208,8 +2212,8 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A27:A48"/>
-    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E49:E51"/>
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="A2:A25"/>
@@ -2219,7 +2223,7 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E37:E38"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E2:E4"/>
@@ -2265,7 +2269,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="70" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2279,7 +2283,7 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="45" t="s">
         <v>61</v>
       </c>
@@ -2291,7 +2295,7 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="45" t="s">
         <v>62</v>
       </c>
@@ -2303,7 +2307,7 @@
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="45" t="s">
         <v>59</v>
       </c>
@@ -2315,7 +2319,7 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="45" t="s">
         <v>63</v>
       </c>
@@ -2327,7 +2331,7 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="45" t="s">
         <v>64</v>
       </c>
@@ -2339,7 +2343,7 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="47" t="s">
         <v>65</v>
       </c>
@@ -2353,7 +2357,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="43" t="s">
         <v>66</v>
       </c>
@@ -2365,7 +2369,7 @@
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="45" t="s">
         <v>67</v>
       </c>
@@ -2377,7 +2381,7 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="45" t="s">
         <v>70</v>
       </c>
@@ -2389,7 +2393,7 @@
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="45" t="s">
         <v>71</v>
       </c>
@@ -2401,7 +2405,7 @@
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="47" t="s">
         <v>72</v>
       </c>
@@ -2415,7 +2419,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="43" t="s">
         <v>73</v>
       </c>
@@ -2427,7 +2431,7 @@
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="45" t="s">
         <v>74</v>
       </c>
@@ -2439,7 +2443,7 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="45" t="s">
         <v>75</v>
       </c>
@@ -2451,7 +2455,7 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="45" t="s">
         <v>76</v>
       </c>
@@ -2463,7 +2467,7 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="47" t="s">
         <v>77</v>
       </c>
@@ -2477,7 +2481,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="43" t="s">
         <v>78</v>
       </c>
@@ -2489,7 +2493,7 @@
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="45" t="s">
         <v>79</v>
       </c>
@@ -2501,7 +2505,7 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="45" t="s">
         <v>80</v>
       </c>
@@ -2513,7 +2517,7 @@
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="77"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="47" t="s">
         <v>81</v>
       </c>
@@ -2527,7 +2531,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="43" t="s">
         <v>82</v>
       </c>
@@ -2539,7 +2543,7 @@
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="77"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="45" t="s">
         <v>83</v>
       </c>
@@ -2551,7 +2555,7 @@
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="45" t="s">
         <v>84</v>
       </c>
@@ -2563,7 +2567,7 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="45" t="s">
         <v>85</v>
       </c>
@@ -2575,7 +2579,7 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="77"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="47" t="s">
         <v>86</v>
       </c>
@@ -2589,7 +2593,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="43" t="s">
         <v>87</v>
       </c>
@@ -2601,7 +2605,7 @@
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="45" t="s">
         <v>88</v>
       </c>
@@ -2613,7 +2617,7 @@
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="77"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="45" t="s">
         <v>90</v>
       </c>
@@ -2625,7 +2629,7 @@
       <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="47" t="s">
         <v>89</v>
       </c>
@@ -2639,7 +2643,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="77"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="43" t="s">
         <v>91</v>
       </c>
@@ -2651,7 +2655,7 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="77"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="45" t="s">
         <v>92</v>
       </c>
@@ -2663,7 +2667,7 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="77"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="45" t="s">
         <v>93</v>
       </c>
@@ -2675,7 +2679,7 @@
       <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="47" t="s">
         <v>94</v>
       </c>
@@ -2689,7 +2693,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="43" t="s">
         <v>95</v>
       </c>
@@ -2701,7 +2705,7 @@
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="77"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="45" t="s">
         <v>96</v>
       </c>
@@ -2713,7 +2717,7 @@
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="47" t="s">
         <v>97</v>
       </c>
@@ -2727,7 +2731,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="77"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="45" t="s">
         <v>98</v>
       </c>
@@ -2739,7 +2743,7 @@
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="77"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="45" t="s">
         <v>68</v>
       </c>
@@ -2751,7 +2755,7 @@
       <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="47" t="s">
         <v>69</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0404ADDD-0EE5-49B2-A2AF-E3C3F770758F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D875CD84-00CD-4FBA-ABCE-9295D127757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
+    <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -986,15 +986,33 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,24 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1388,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="71" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1400,13 +1400,13 @@
       <c r="D2" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="68" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1416,11 +1416,11 @@
       <c r="D3" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1430,14 +1430,14 @@
       <c r="D4" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1485,13 +1485,13 @@
       <c r="D7" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="75" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1501,14 +1501,14 @@
       <c r="D8" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="69"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1537,13 +1537,13 @@
       <c r="D10" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="75" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1553,11 +1553,11 @@
       <c r="D11" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="69"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1567,14 +1567,14 @@
       <c r="D12" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="69"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1584,13 +1584,13 @@
       <c r="D13" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="75" t="s">
         <v>108</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1600,14 +1600,14 @@
       <c r="D14" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="69"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1617,13 +1617,13 @@
       <c r="D15" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="68" t="s">
         <v>109</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1633,11 +1633,11 @@
       <c r="D16" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="62"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1647,14 +1647,14 @@
       <c r="D17" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="63"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1664,13 +1664,13 @@
       <c r="D18" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="68" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1680,14 +1680,14 @@
       <c r="D19" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="63"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1697,13 +1697,13 @@
       <c r="D20" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="68" t="s">
         <v>111</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1713,11 +1713,11 @@
       <c r="D21" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="62"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1727,14 +1727,14 @@
       <c r="D22" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="63"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="37">
         <f>SUM(C20:C22)</f>
         <v>1.3708333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1744,13 +1744,13 @@
       <c r="D23" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="75" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1760,11 +1760,11 @@
       <c r="D24" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="69"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="D25" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="69"/>
+      <c r="E25" s="75"/>
       <c r="F25" s="37">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
@@ -1802,7 +1802,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="63" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1814,13 +1814,13 @@
       <c r="D27" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="68" t="s">
         <v>118</v>
       </c>
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
@@ -1830,14 +1830,14 @@
       <c r="D28" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="63"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="37">
         <f>SUM(C27:C28)</f>
         <v>1.3923611111111112</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="75"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
@@ -1875,7 +1875,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
@@ -1913,14 +1913,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="26">
         <v>0.96111111111111114</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="50" t="s">
+        <v>101</v>
+      </c>
       <c r="E33" s="56" t="s">
         <v>115</v>
       </c>
@@ -1930,14 +1932,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="75"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="25">
         <v>1.3388888888888888</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="50" t="s">
+        <v>101</v>
+      </c>
       <c r="E34" s="59" t="s">
         <v>116</v>
       </c>
@@ -1947,7 +1951,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="75"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
@@ -1964,7 +1968,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
@@ -1972,7 +1976,7 @@
         <v>0.94236111111111109</v>
       </c>
       <c r="D36" s="50"/>
-      <c r="E36" s="73" t="s">
+      <c r="E36" s="62" t="s">
         <v>117</v>
       </c>
       <c r="F36" s="38">
@@ -1981,7 +1985,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="75"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>0.88611111111111107</v>
       </c>
       <c r="D37" s="50"/>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="68" t="s">
         <v>123</v>
       </c>
       <c r="F37" s="38">
@@ -1998,7 +2002,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="75"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
@@ -2006,14 +2010,14 @@
         <v>1.1736111111111112</v>
       </c>
       <c r="D38" s="50"/>
-      <c r="E38" s="63"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="38">
         <f t="shared" si="0"/>
         <v>1.1736111111111112</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="75"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2021,13 +2025,13 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="68" t="s">
         <v>124</v>
       </c>
       <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="75"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
@@ -2035,14 +2039,14 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="63"/>
+      <c r="E40" s="69"/>
       <c r="F40" s="37">
         <f>SUM(C39:C40)</f>
         <v>1.4520833333333334</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="75"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="10" t="s">
         <v>41</v>
       </c>
@@ -2059,7 +2063,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="75"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="10" t="s">
         <v>42</v>
       </c>
@@ -2076,7 +2080,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="75"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
@@ -2084,13 +2088,13 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="68" t="s">
         <v>126</v>
       </c>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="75"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
@@ -2098,14 +2102,14 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="63"/>
+      <c r="E44" s="69"/>
       <c r="F44" s="37">
         <f>SUM(C43:C44)</f>
         <v>0.96875</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="75"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="8" t="s">
         <v>1</v>
       </c>
@@ -2113,13 +2117,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="69" t="s">
+      <c r="E45" s="75" t="s">
         <v>127</v>
       </c>
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="75"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="11" t="s">
         <v>46</v>
       </c>
@@ -2127,11 +2131,11 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="69"/>
+      <c r="E46" s="75"/>
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="75"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
@@ -2139,14 +2143,14 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="69"/>
+      <c r="E47" s="75"/>
       <c r="F47" s="61">
         <f>SUM(C45:C47)</f>
         <v>1.1951388888888888</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="76"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="67" t="s">
         <v>129</v>
       </c>
       <c r="F48" s="37">
@@ -2163,7 +2167,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="74" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -2172,14 +2176,14 @@
       <c r="C49" s="28">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="64" t="s">
+      <c r="D49" s="66"/>
+      <c r="E49" s="68" t="s">
         <v>130</v>
       </c>
       <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="68"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="13" t="s">
         <v>45</v>
       </c>
@@ -2187,11 +2191,11 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="62"/>
+      <c r="E50" s="70"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="68"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="14" t="s">
         <v>18</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="63"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="37">
         <f>SUM(C49:C51)</f>
         <v>0.74027777777777781</v>
@@ -2269,7 +2273,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="76" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2283,7 +2287,7 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="45" t="s">
         <v>61</v>
       </c>
@@ -2295,7 +2299,7 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="45" t="s">
         <v>62</v>
       </c>
@@ -2307,7 +2311,7 @@
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="45" t="s">
         <v>59</v>
       </c>
@@ -2319,7 +2323,7 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="45" t="s">
         <v>63</v>
       </c>
@@ -2331,7 +2335,7 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="45" t="s">
         <v>64</v>
       </c>
@@ -2343,7 +2347,7 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="47" t="s">
         <v>65</v>
       </c>
@@ -2357,7 +2361,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="43" t="s">
         <v>66</v>
       </c>
@@ -2369,7 +2373,7 @@
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="45" t="s">
         <v>67</v>
       </c>
@@ -2381,7 +2385,7 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="45" t="s">
         <v>70</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="45" t="s">
         <v>71</v>
       </c>
@@ -2405,7 +2409,7 @@
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="47" t="s">
         <v>72</v>
       </c>
@@ -2419,7 +2423,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="43" t="s">
         <v>73</v>
       </c>
@@ -2431,7 +2435,7 @@
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="45" t="s">
         <v>74</v>
       </c>
@@ -2443,7 +2447,7 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="45" t="s">
         <v>75</v>
       </c>
@@ -2455,7 +2459,7 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="45" t="s">
         <v>76</v>
       </c>
@@ -2467,7 +2471,7 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="47" t="s">
         <v>77</v>
       </c>
@@ -2481,7 +2485,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="43" t="s">
         <v>78</v>
       </c>
@@ -2493,7 +2497,7 @@
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="45" t="s">
         <v>79</v>
       </c>
@@ -2505,7 +2509,7 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="71"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="45" t="s">
         <v>80</v>
       </c>
@@ -2517,7 +2521,7 @@
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="71"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="47" t="s">
         <v>81</v>
       </c>
@@ -2531,7 +2535,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="43" t="s">
         <v>82</v>
       </c>
@@ -2543,7 +2547,7 @@
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="45" t="s">
         <v>83</v>
       </c>
@@ -2555,7 +2559,7 @@
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="45" t="s">
         <v>84</v>
       </c>
@@ -2567,7 +2571,7 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="45" t="s">
         <v>85</v>
       </c>
@@ -2579,7 +2583,7 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="71"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="47" t="s">
         <v>86</v>
       </c>
@@ -2593,7 +2597,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="71"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="43" t="s">
         <v>87</v>
       </c>
@@ -2605,7 +2609,7 @@
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="45" t="s">
         <v>88</v>
       </c>
@@ -2617,7 +2621,7 @@
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="45" t="s">
         <v>90</v>
       </c>
@@ -2629,7 +2633,7 @@
       <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="71"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="47" t="s">
         <v>89</v>
       </c>
@@ -2643,7 +2647,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="71"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="43" t="s">
         <v>91</v>
       </c>
@@ -2655,7 +2659,7 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="71"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="45" t="s">
         <v>92</v>
       </c>
@@ -2667,7 +2671,7 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="71"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="45" t="s">
         <v>93</v>
       </c>
@@ -2679,7 +2683,7 @@
       <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="47" t="s">
         <v>94</v>
       </c>
@@ -2693,7 +2697,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="43" t="s">
         <v>95</v>
       </c>
@@ -2705,7 +2709,7 @@
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="71"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="45" t="s">
         <v>96</v>
       </c>
@@ -2717,7 +2721,7 @@
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="71"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="47" t="s">
         <v>97</v>
       </c>
@@ -2731,7 +2735,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="71"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="45" t="s">
         <v>98</v>
       </c>
@@ -2743,7 +2747,7 @@
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="71"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="45" t="s">
         <v>68</v>
       </c>
@@ -2755,7 +2759,7 @@
       <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="47" t="s">
         <v>69</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D875CD84-00CD-4FBA-ABCE-9295D127757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BDE04B-887A-43D8-A7C0-CC7ABFA23E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -520,9 +520,6 @@
     <t>5주차 화(12/7)</t>
   </si>
   <si>
-    <t>6주차 수(12/15)</t>
-  </si>
-  <si>
     <t>6주차 금(12/17)</t>
   </si>
   <si>
@@ -550,6 +547,10 @@
   </si>
   <si>
     <t>8주차 화  (12/28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 토(12/18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,15 +990,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,6 +1027,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1353,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1389,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="68" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1400,13 +1401,13 @@
       <c r="D2" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="65" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1416,11 +1417,11 @@
       <c r="D3" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="70"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1430,14 +1431,14 @@
       <c r="D4" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +1457,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
@@ -1475,7 +1476,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1485,13 +1486,13 @@
       <c r="D7" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="72" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1501,14 +1502,14 @@
       <c r="D8" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1528,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1537,13 +1538,13 @@
       <c r="D10" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="72" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1553,11 +1554,11 @@
       <c r="D11" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="75"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1567,14 +1568,14 @@
       <c r="D12" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="75"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1584,13 +1585,13 @@
       <c r="D13" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="72" t="s">
         <v>108</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1600,14 +1601,14 @@
       <c r="D14" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="75"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1617,13 +1618,13 @@
       <c r="D15" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="65" t="s">
         <v>109</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1633,11 +1634,11 @@
       <c r="D16" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1647,14 +1648,14 @@
       <c r="D17" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="69"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1664,13 +1665,13 @@
       <c r="D18" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="65" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1680,14 +1681,14 @@
       <c r="D19" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="69"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1697,13 +1698,13 @@
       <c r="D20" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="65" t="s">
         <v>111</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1713,11 +1714,11 @@
       <c r="D21" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="70"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1727,14 +1728,14 @@
       <c r="D22" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="69"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="37">
         <f>SUM(C20:C22)</f>
         <v>1.3708333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1744,13 +1745,13 @@
       <c r="D23" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="72" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="72"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1760,11 +1761,11 @@
       <c r="D24" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="75"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1774,7 +1775,7 @@
       <c r="D25" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="75"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="37">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
@@ -1802,7 +1803,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="76" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1814,13 +1815,13 @@
       <c r="D27" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="65" t="s">
         <v>118</v>
       </c>
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
@@ -1830,14 +1831,14 @@
       <c r="D28" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="69"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="37">
         <f>SUM(C27:C28)</f>
         <v>1.3923611111111112</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1856,7 +1857,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
@@ -1875,7 +1876,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
@@ -1894,7 +1895,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
@@ -1913,7 +1914,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
@@ -1932,7 +1933,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
@@ -1951,7 +1952,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
@@ -1959,8 +1960,8 @@
         <v>1.5513888888888889</v>
       </c>
       <c r="D35" s="50"/>
-      <c r="E35" s="58" t="s">
-        <v>122</v>
+      <c r="E35" s="62" t="s">
+        <v>117</v>
       </c>
       <c r="F35" s="38">
         <f t="shared" si="0"/>
@@ -1968,7 +1969,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
@@ -1976,8 +1977,8 @@
         <v>0.94236111111111109</v>
       </c>
       <c r="D36" s="50"/>
-      <c r="E36" s="62" t="s">
-        <v>117</v>
+      <c r="E36" s="57" t="s">
+        <v>122</v>
       </c>
       <c r="F36" s="38">
         <f t="shared" si="0"/>
@@ -1985,7 +1986,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
@@ -1993,8 +1994,8 @@
         <v>0.88611111111111107</v>
       </c>
       <c r="D37" s="50"/>
-      <c r="E37" s="68" t="s">
-        <v>123</v>
+      <c r="E37" s="65" t="s">
+        <v>130</v>
       </c>
       <c r="F37" s="38">
         <f t="shared" si="0"/>
@@ -2002,7 +2003,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
@@ -2010,14 +2011,14 @@
         <v>1.1736111111111112</v>
       </c>
       <c r="D38" s="50"/>
-      <c r="E38" s="69"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="38">
         <f t="shared" si="0"/>
         <v>1.1736111111111112</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2025,13 +2026,13 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="68" t="s">
-        <v>124</v>
+      <c r="E39" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
@@ -2039,14 +2040,14 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="69"/>
+      <c r="E40" s="66"/>
       <c r="F40" s="37">
         <f>SUM(C39:C40)</f>
         <v>1.4520833333333334</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="10" t="s">
         <v>41</v>
       </c>
@@ -2055,7 +2056,7 @@
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F41" s="39">
         <f>C41</f>
@@ -2063,7 +2064,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="10" t="s">
         <v>42</v>
       </c>
@@ -2072,7 +2073,7 @@
       </c>
       <c r="D42" s="50"/>
       <c r="E42" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="41">
         <f>C42</f>
@@ -2080,7 +2081,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
@@ -2088,13 +2089,13 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="68" t="s">
-        <v>126</v>
+      <c r="E43" s="65" t="s">
+        <v>125</v>
       </c>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="64"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
@@ -2102,14 +2103,14 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="69"/>
+      <c r="E44" s="66"/>
       <c r="F44" s="37">
         <f>SUM(C43:C44)</f>
         <v>0.96875</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="8" t="s">
         <v>1</v>
       </c>
@@ -2117,13 +2118,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="75" t="s">
-        <v>127</v>
+      <c r="E45" s="72" t="s">
+        <v>126</v>
       </c>
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="11" t="s">
         <v>46</v>
       </c>
@@ -2131,11 +2132,11 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="75"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="64"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
@@ -2143,14 +2144,14 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="75"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="61">
         <f>SUM(C45:C47)</f>
         <v>1.1951388888888888</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="65"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -2158,8 +2159,8 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="67" t="s">
-        <v>129</v>
+      <c r="E48" s="64" t="s">
+        <v>128</v>
       </c>
       <c r="F48" s="37">
         <f>SUM(C48)</f>
@@ -2167,7 +2168,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="71" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -2176,14 +2177,14 @@
       <c r="C49" s="28">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="68" t="s">
-        <v>130</v>
+      <c r="D49" s="63"/>
+      <c r="E49" s="65" t="s">
+        <v>129</v>
       </c>
       <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="74"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="13" t="s">
         <v>45</v>
       </c>
@@ -2191,11 +2192,11 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="70"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="74"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="14" t="s">
         <v>18</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="69"/>
+      <c r="E51" s="66"/>
       <c r="F51" s="37">
         <f>SUM(C49:C51)</f>
         <v>0.74027777777777781</v>
@@ -2215,7 +2216,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A27:A48"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E49:E51"/>
     <mergeCell ref="E43:E44"/>
@@ -2273,7 +2275,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="73" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2287,7 +2289,7 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="45" t="s">
         <v>61</v>
       </c>
@@ -2299,7 +2301,7 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="45" t="s">
         <v>62</v>
       </c>
@@ -2311,7 +2313,7 @@
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="45" t="s">
         <v>59</v>
       </c>
@@ -2323,7 +2325,7 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="45" t="s">
         <v>63</v>
       </c>
@@ -2335,7 +2337,7 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="45" t="s">
         <v>64</v>
       </c>
@@ -2347,7 +2349,7 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="47" t="s">
         <v>65</v>
       </c>
@@ -2361,7 +2363,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="43" t="s">
         <v>66</v>
       </c>
@@ -2373,7 +2375,7 @@
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="45" t="s">
         <v>67</v>
       </c>
@@ -2385,7 +2387,7 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="45" t="s">
         <v>70</v>
       </c>
@@ -2397,7 +2399,7 @@
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="45" t="s">
         <v>71</v>
       </c>
@@ -2409,7 +2411,7 @@
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="47" t="s">
         <v>72</v>
       </c>
@@ -2423,7 +2425,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="43" t="s">
         <v>73</v>
       </c>
@@ -2435,7 +2437,7 @@
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="45" t="s">
         <v>74</v>
       </c>
@@ -2447,7 +2449,7 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="45" t="s">
         <v>75</v>
       </c>
@@ -2459,7 +2461,7 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="45" t="s">
         <v>76</v>
       </c>
@@ -2471,7 +2473,7 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="47" t="s">
         <v>77</v>
       </c>
@@ -2485,7 +2487,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="43" t="s">
         <v>78</v>
       </c>
@@ -2497,7 +2499,7 @@
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="45" t="s">
         <v>79</v>
       </c>
@@ -2509,7 +2511,7 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="45" t="s">
         <v>80</v>
       </c>
@@ -2521,7 +2523,7 @@
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="77"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="47" t="s">
         <v>81</v>
       </c>
@@ -2535,7 +2537,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="43" t="s">
         <v>82</v>
       </c>
@@ -2547,7 +2549,7 @@
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="77"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="45" t="s">
         <v>83</v>
       </c>
@@ -2559,7 +2561,7 @@
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="45" t="s">
         <v>84</v>
       </c>
@@ -2571,7 +2573,7 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="45" t="s">
         <v>85</v>
       </c>
@@ -2583,7 +2585,7 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="77"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="47" t="s">
         <v>86</v>
       </c>
@@ -2597,7 +2599,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="43" t="s">
         <v>87</v>
       </c>
@@ -2609,7 +2611,7 @@
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="45" t="s">
         <v>88</v>
       </c>
@@ -2621,7 +2623,7 @@
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="77"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="45" t="s">
         <v>90</v>
       </c>
@@ -2633,7 +2635,7 @@
       <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="47" t="s">
         <v>89</v>
       </c>
@@ -2647,7 +2649,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="77"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="43" t="s">
         <v>91</v>
       </c>
@@ -2659,7 +2661,7 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="77"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="45" t="s">
         <v>92</v>
       </c>
@@ -2671,7 +2673,7 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="77"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="45" t="s">
         <v>93</v>
       </c>
@@ -2683,7 +2685,7 @@
       <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="47" t="s">
         <v>94</v>
       </c>
@@ -2697,7 +2699,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="43" t="s">
         <v>95</v>
       </c>
@@ -2709,7 +2711,7 @@
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="77"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="45" t="s">
         <v>96</v>
       </c>
@@ -2721,7 +2723,7 @@
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="47" t="s">
         <v>97</v>
       </c>
@@ -2735,7 +2737,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="77"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="45" t="s">
         <v>98</v>
       </c>
@@ -2747,7 +2749,7 @@
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="77"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="45" t="s">
         <v>68</v>
       </c>
@@ -2759,7 +2761,7 @@
       <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="47" t="s">
         <v>69</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BDE04B-887A-43D8-A7C0-CC7ABFA23E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7892A7B-7905-4E59-A0C3-C30C05E86FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -199,9 +199,6 @@
     <t>자바스크립트 기초 1. 변수 | primitive 타입과 object의 차이점</t>
   </si>
   <si>
-    <t>자바스크립트 기초 2. 함수 | 함수 정의, 호출, 그리고 콜백함수</t>
-  </si>
-  <si>
     <t>자바스크립트 기초 3. 연산자 | boolean의 모든것 &amp;&amp; 연산자</t>
   </si>
   <si>
@@ -504,10 +501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6주차 목(12/16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4주차 목(12/2)</t>
   </si>
   <si>
@@ -520,37 +513,49 @@
     <t>5주차 화(12/7)</t>
   </si>
   <si>
+    <t>7주차 월 (12/20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 화(12/21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 금(12/24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 수(12/22)</t>
+  </si>
+  <si>
+    <t>8주차 화  (12/28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 토(12/18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6주차 금(12/17)</t>
-  </si>
-  <si>
-    <t>7주차 월 (12/20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7주차 화(12/21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 일(12/19)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7주차 목(12/23)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7주차 금(12/24)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7주차 수(12/22)</t>
-  </si>
-  <si>
-    <t>8주차 월  (12/27)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8주차 화  (12/28)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 토(12/18)</t>
+  </si>
+  <si>
+    <t>자바스크립트 기초 2. 함수 | 함수 정의, 호출, 그리고 콜백함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 월(12/27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 수(12/29)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,9 +986,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1029,14 +1031,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1370,27 +1375,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
-        <v>49</v>
+      <c r="A2" s="67" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1399,15 +1404,15 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D2" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="65" t="s">
-        <v>102</v>
-      </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1415,13 +1420,13 @@
         <v>0.19652777777777777</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="67"/>
+        <v>100</v>
+      </c>
+      <c r="E3" s="66"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1429,16 +1434,16 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="66"/>
+        <v>100</v>
+      </c>
+      <c r="E4" s="65"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1446,10 +1451,10 @@
         <v>1.0083333333333333</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="38">
         <f>C5</f>
@@ -1457,18 +1462,18 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="20">
         <v>0.98055555555555562</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="39">
         <f>C6</f>
@@ -1476,7 +1481,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1484,15 +1489,15 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>104</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1500,16 +1505,16 @@
         <v>0.52361111111111114</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="72"/>
+        <v>100</v>
+      </c>
+      <c r="E8" s="71"/>
       <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1517,10 +1522,10 @@
         <v>1.0145833333333334</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="38">
         <f>C9</f>
@@ -1528,7 +1533,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1536,15 +1541,15 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>106</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1552,13 +1557,13 @@
         <v>0.4770833333333333</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="72"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="71"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1566,16 +1571,16 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="72"/>
+        <v>100</v>
+      </c>
+      <c r="E12" s="71"/>
       <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1583,15 +1588,15 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>107</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1599,16 +1604,16 @@
         <v>1.1375</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="72"/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="71"/>
       <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1616,15 +1621,15 @@
         <v>0.3972222222222222</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>108</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1632,13 +1637,13 @@
         <v>0.4284722222222222</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="67"/>
+        <v>100</v>
+      </c>
+      <c r="E16" s="66"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1646,16 +1651,16 @@
         <v>0.48541666666666666</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="66"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="65"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1663,15 +1668,15 @@
         <v>0.59305555555555556</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="65" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>109</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1679,16 +1684,16 @@
         <v>0.6645833333333333</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="66"/>
+        <v>100</v>
+      </c>
+      <c r="E19" s="65"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1696,15 +1701,15 @@
         <v>0.32708333333333334</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="65" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>110</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1712,13 +1717,13 @@
         <v>0.33888888888888885</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="67"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="66"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1726,16 +1731,16 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="66"/>
+        <v>100</v>
+      </c>
+      <c r="E22" s="65"/>
       <c r="F22" s="37">
         <f>SUM(C20:C22)</f>
         <v>1.3708333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1743,15 +1748,15 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>111</v>
       </c>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1759,13 +1764,13 @@
         <v>0.57708333333333328</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="72"/>
+        <v>100</v>
+      </c>
+      <c r="E24" s="71"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1773,9 +1778,9 @@
         <v>0.47361111111111115</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="72"/>
+        <v>100</v>
+      </c>
+      <c r="E25" s="71"/>
       <c r="F25" s="37">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
@@ -1783,7 +1788,7 @@
     </row>
     <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>13</v>
@@ -1792,10 +1797,10 @@
         <v>2.1118055555555553</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="38">
         <f>C26</f>
@@ -1804,7 +1809,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>27</v>
@@ -1813,10 +1818,10 @@
         <v>0.65347222222222223</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>118</v>
+        <v>100</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>116</v>
       </c>
       <c r="F27" s="36"/>
     </row>
@@ -1829,9 +1834,9 @@
         <v>0.73888888888888893</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="66"/>
+        <v>100</v>
+      </c>
+      <c r="E28" s="65"/>
       <c r="F28" s="37">
         <f>SUM(C27:C28)</f>
         <v>1.3923611111111112</v>
@@ -1846,10 +1851,10 @@
         <v>1.1659722222222222</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F29" s="38">
         <f t="shared" ref="F29:F38" si="0">C29</f>
@@ -1865,10 +1870,10 @@
         <v>0.84375</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F30" s="39">
         <f t="shared" si="0"/>
@@ -1884,10 +1889,10 @@
         <v>1.0430555555555556</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F31" s="38">
         <f t="shared" si="0"/>
@@ -1903,10 +1908,10 @@
         <v>1.0673611111111112</v>
       </c>
       <c r="D32" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="38">
         <f t="shared" si="0"/>
@@ -1922,10 +1927,10 @@
         <v>0.96111111111111114</v>
       </c>
       <c r="D33" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="38">
         <f t="shared" si="0"/>
@@ -1941,10 +1946,10 @@
         <v>1.3388888888888888</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" s="38">
         <f t="shared" si="0"/>
@@ -1960,8 +1965,8 @@
         <v>1.5513888888888889</v>
       </c>
       <c r="D35" s="50"/>
-      <c r="E35" s="62" t="s">
-        <v>117</v>
+      <c r="E35" s="61" t="s">
+        <v>126</v>
       </c>
       <c r="F35" s="38">
         <f t="shared" si="0"/>
@@ -1978,14 +1983,14 @@
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="57" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F36" s="38">
         <f t="shared" si="0"/>
         <v>0.94236111111111109</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="77"/>
       <c r="B37" s="10" t="s">
         <v>37</v>
@@ -1994,15 +1999,15 @@
         <v>0.88611111111111107</v>
       </c>
       <c r="D37" s="50"/>
-      <c r="E37" s="65" t="s">
-        <v>130</v>
+      <c r="E37" s="61" t="s">
+        <v>127</v>
       </c>
       <c r="F37" s="38">
         <f t="shared" si="0"/>
         <v>0.88611111111111107</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="77"/>
       <c r="B38" s="10" t="s">
         <v>38</v>
@@ -2011,7 +2016,9 @@
         <v>1.1736111111111112</v>
       </c>
       <c r="D38" s="50"/>
-      <c r="E38" s="66"/>
+      <c r="E38" s="75" t="s">
+        <v>120</v>
+      </c>
       <c r="F38" s="38">
         <f t="shared" si="0"/>
         <v>1.1736111111111112</v>
@@ -2026,8 +2033,8 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="65" t="s">
-        <v>123</v>
+      <c r="E39" s="64" t="s">
+        <v>121</v>
       </c>
       <c r="F39" s="35"/>
     </row>
@@ -2040,7 +2047,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="66"/>
+      <c r="E40" s="65"/>
       <c r="F40" s="37">
         <f>SUM(C39:C40)</f>
         <v>1.4520833333333334</v>
@@ -2055,8 +2062,8 @@
         <v>0.78611111111111109</v>
       </c>
       <c r="D41" s="50"/>
-      <c r="E41" s="60" t="s">
-        <v>124</v>
+      <c r="E41" s="57" t="s">
+        <v>123</v>
       </c>
       <c r="F41" s="39">
         <f>C41</f>
@@ -2066,14 +2073,14 @@
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="77"/>
       <c r="B42" s="10" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C42" s="26">
         <v>0.9145833333333333</v>
       </c>
       <c r="D42" s="50"/>
       <c r="E42" s="57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F42" s="41">
         <f>C42</f>
@@ -2083,27 +2090,27 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="77"/>
       <c r="B43" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="23">
         <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="65" t="s">
-        <v>125</v>
+      <c r="E43" s="64" t="s">
+        <v>122</v>
       </c>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="77"/>
       <c r="B44" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="24">
         <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="66"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="37">
         <f>SUM(C43:C44)</f>
         <v>0.96875</v>
@@ -2118,34 +2125,34 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="72" t="s">
-        <v>126</v>
+      <c r="E45" s="71" t="s">
+        <v>130</v>
       </c>
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="77"/>
       <c r="B46" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="27">
         <v>0.63680555555555551</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="72"/>
+      <c r="E46" s="71"/>
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="77"/>
       <c r="B47" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="24">
         <v>0.46388888888888885</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="61">
+      <c r="E47" s="71"/>
+      <c r="F47" s="60">
         <f>SUM(C45:C47)</f>
         <v>1.1951388888888888</v>
       </c>
@@ -2159,8 +2166,8 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="64" t="s">
-        <v>128</v>
+      <c r="E48" s="63" t="s">
+        <v>124</v>
       </c>
       <c r="F48" s="37">
         <f>SUM(C48)</f>
@@ -2168,8 +2175,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="71" t="s">
-        <v>51</v>
+      <c r="A49" s="70" t="s">
+        <v>50</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>14</v>
@@ -2177,26 +2184,26 @@
       <c r="C49" s="28">
         <v>0.10277777777777779</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="65" t="s">
-        <v>129</v>
+      <c r="D49" s="62"/>
+      <c r="E49" s="64" t="s">
+        <v>131</v>
       </c>
       <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="29">
         <v>0.20486111111111113</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="67"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="71"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="14" t="s">
         <v>18</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="66"/>
+      <c r="E51" s="65"/>
       <c r="F51" s="37">
         <f>SUM(C49:C51)</f>
         <v>0.74027777777777781</v>
@@ -2212,12 +2219,12 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A27:A48"/>
+  <mergeCells count="15">
+    <mergeCell ref="E45:E47"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E49:E51"/>
     <mergeCell ref="E43:E44"/>
@@ -2229,11 +2236,9 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E37:E38"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E45:E47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2256,30 +2261,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
-        <v>99</v>
+      <c r="A2" s="72" t="s">
+        <v>98</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="44">
         <v>0.40486111111111112</v>
@@ -2289,9 +2294,9 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="46">
         <v>8.1250000000000003E-2</v>
@@ -2301,9 +2306,9 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="46">
         <v>0.19305555555555554</v>
@@ -2313,9 +2318,9 @@
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="46">
         <v>0.25277777777777777</v>
@@ -2325,9 +2330,9 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="46">
         <v>0.13402777777777777</v>
@@ -2337,9 +2342,9 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="46">
         <v>0.12291666666666667</v>
@@ -2349,9 +2354,9 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="48">
         <v>0.28888888888888892</v>
@@ -2363,9 +2368,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="44">
         <v>0.12291666666666667</v>
@@ -2375,9 +2380,9 @@
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="46">
         <v>0.26111111111111113</v>
@@ -2387,9 +2392,9 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="46">
         <v>0.23750000000000002</v>
@@ -2399,9 +2404,9 @@
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="46">
         <v>0.29583333333333334</v>
@@ -2411,9 +2416,9 @@
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="48">
         <v>0.18263888888888891</v>
@@ -2425,9 +2430,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="44">
         <v>0.34513888888888888</v>
@@ -2437,9 +2442,9 @@
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="46">
         <v>0.26944444444444443</v>
@@ -2449,9 +2454,9 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="46">
         <v>0.29652777777777778</v>
@@ -2461,9 +2466,9 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="46">
         <v>0.17291666666666669</v>
@@ -2473,9 +2478,9 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="48">
         <v>0.26666666666666666</v>
@@ -2487,9 +2492,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="44">
         <v>0.3215277777777778</v>
@@ -2499,9 +2504,9 @@
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="46">
         <v>0.41875000000000001</v>
@@ -2511,9 +2516,9 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="46">
         <v>0.30624999999999997</v>
@@ -2523,9 +2528,9 @@
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="48">
         <v>0.17361111111111113</v>
@@ -2537,9 +2542,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="44">
         <v>0.24861111111111112</v>
@@ -2549,9 +2554,9 @@
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="46">
         <v>0.14791666666666667</v>
@@ -2561,9 +2566,9 @@
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="46">
         <v>0.2951388888888889</v>
@@ -2573,9 +2578,9 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="46">
         <v>0.18888888888888888</v>
@@ -2585,9 +2590,9 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="48">
         <v>0.56180555555555556</v>
@@ -2599,9 +2604,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="44">
         <v>0.3833333333333333</v>
@@ -2611,9 +2616,9 @@
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="74"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="46">
         <v>0.29305555555555557</v>
@@ -2623,9 +2628,9 @@
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="46">
         <v>0.29722222222222222</v>
@@ -2635,9 +2640,9 @@
       <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="74"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="48">
         <v>0.27291666666666664</v>
@@ -2649,9 +2654,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="74"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="44">
         <v>0.21458333333333335</v>
@@ -2661,9 +2666,9 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="46">
         <v>0.2638888888888889</v>
@@ -2673,9 +2678,9 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="74"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="46">
         <v>0.37777777777777777</v>
@@ -2685,9 +2690,9 @@
       <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="48">
         <v>0.63611111111111118</v>
@@ -2699,9 +2704,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="44">
         <v>0.375</v>
@@ -2711,9 +2716,9 @@
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="46">
         <v>0.30624999999999997</v>
@@ -2723,9 +2728,9 @@
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="74"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="48">
         <v>0.4375</v>
@@ -2737,9 +2742,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="46">
         <v>0.4694444444444445</v>
@@ -2749,9 +2754,9 @@
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="46">
         <v>0.31666666666666665</v>
@@ -2761,9 +2766,9 @@
       <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="75"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="48">
         <v>0.30486111111111108</v>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7892A7B-7905-4E59-A0C3-C30C05E86FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EF3DE9-6469-47BE-8200-795CD08FE0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="132">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -998,6 +998,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,9 +1034,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1030,18 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1394,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="72" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1406,13 +1406,13 @@
       <c r="D2" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="69" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1422,11 +1422,11 @@
       <c r="D3" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="66"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1436,14 +1436,14 @@
       <c r="D4" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1491,13 +1491,13 @@
       <c r="D7" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="68" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1507,14 +1507,14 @@
       <c r="D8" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="71"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1543,13 +1543,13 @@
       <c r="D10" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="68" t="s">
         <v>106</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1559,11 +1559,11 @@
       <c r="D11" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="71"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1573,14 +1573,14 @@
       <c r="D12" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1590,13 +1590,13 @@
       <c r="D13" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="68" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1606,14 +1606,14 @@
       <c r="D14" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="71"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1623,13 +1623,13 @@
       <c r="D15" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="69" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1639,11 +1639,11 @@
       <c r="D16" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="D17" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="65"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1670,13 +1670,13 @@
       <c r="D18" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="69" t="s">
         <v>109</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1686,14 +1686,14 @@
       <c r="D19" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="65"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1703,13 +1703,13 @@
       <c r="D20" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="69" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1719,11 +1719,11 @@
       <c r="D21" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="66"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1733,14 +1733,14 @@
       <c r="D22" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="37">
         <f>SUM(C20:C22)</f>
         <v>1.3708333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1750,13 +1750,13 @@
       <c r="D23" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="68" t="s">
         <v>111</v>
       </c>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1766,11 +1766,11 @@
       <c r="D24" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="71"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="D25" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="37">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="65" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1820,13 +1820,13 @@
       <c r="D27" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="69" t="s">
         <v>116</v>
       </c>
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
@@ -1836,14 +1836,14 @@
       <c r="D28" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="65"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="37">
         <f>SUM(C27:C28)</f>
         <v>1.3923611111111112</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="77"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
@@ -1881,7 +1881,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
@@ -1900,7 +1900,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="77"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="77"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="77"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
@@ -1957,14 +1957,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="25">
         <v>1.5513888888888889</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="50" t="s">
+        <v>100</v>
+      </c>
       <c r="E35" s="61" t="s">
         <v>126</v>
       </c>
@@ -1974,7 +1976,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
@@ -1991,7 +1993,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="77"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
@@ -2008,7 +2010,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
@@ -2016,7 +2018,7 @@
         <v>1.1736111111111112</v>
       </c>
       <c r="D38" s="50"/>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="64" t="s">
         <v>120</v>
       </c>
       <c r="F38" s="38">
@@ -2025,7 +2027,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="77"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2033,13 +2035,13 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="69" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="77"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
@@ -2047,14 +2049,14 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="65"/>
+      <c r="E40" s="70"/>
       <c r="F40" s="37">
         <f>SUM(C39:C40)</f>
         <v>1.4520833333333334</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="77"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="10" t="s">
         <v>41</v>
       </c>
@@ -2071,7 +2073,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="77"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="10" t="s">
         <v>129</v>
       </c>
@@ -2088,7 +2090,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
@@ -2096,13 +2098,13 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="69" t="s">
         <v>122</v>
       </c>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="77"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="9" t="s">
         <v>43</v>
       </c>
@@ -2110,14 +2112,14 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="65"/>
+      <c r="E44" s="70"/>
       <c r="F44" s="37">
         <f>SUM(C43:C44)</f>
         <v>0.96875</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="77"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="8" t="s">
         <v>1</v>
       </c>
@@ -2125,13 +2127,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="68" t="s">
         <v>130</v>
       </c>
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="77"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="11" t="s">
         <v>45</v>
       </c>
@@ -2139,11 +2141,11 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="71"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="77"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
@@ -2151,14 +2153,14 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="71"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="60">
         <f>SUM(C45:C47)</f>
         <v>1.1951388888888888</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -2169,13 +2171,13 @@
       <c r="E48" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="38">
         <f>SUM(C48)</f>
         <v>0.79375000000000007</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="75" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -2185,13 +2187,13 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="D49" s="62"/>
-      <c r="E49" s="64" t="s">
+      <c r="E49" s="69" t="s">
         <v>131</v>
       </c>
       <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="70"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="13" t="s">
         <v>44</v>
       </c>
@@ -2199,11 +2201,11 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="66"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="70"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="14" t="s">
         <v>18</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="65"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="37">
         <f>SUM(C49:C51)</f>
         <v>0.74027777777777781</v>
@@ -2224,11 +2226,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E20:E22"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="E7:E8"/>
@@ -2239,6 +2236,11 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E20:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2280,7 +2282,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="76" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2294,7 +2296,7 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="45" t="s">
         <v>60</v>
       </c>
@@ -2306,7 +2308,7 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="45" t="s">
         <v>61</v>
       </c>
@@ -2318,7 +2320,7 @@
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="45" t="s">
         <v>58</v>
       </c>
@@ -2330,7 +2332,7 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="45" t="s">
         <v>62</v>
       </c>
@@ -2342,7 +2344,7 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="45" t="s">
         <v>63</v>
       </c>
@@ -2354,7 +2356,7 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="47" t="s">
         <v>64</v>
       </c>
@@ -2368,7 +2370,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="43" t="s">
         <v>65</v>
       </c>
@@ -2380,7 +2382,7 @@
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="45" t="s">
         <v>66</v>
       </c>
@@ -2392,7 +2394,7 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="45" t="s">
         <v>69</v>
       </c>
@@ -2404,7 +2406,7 @@
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="45" t="s">
         <v>70</v>
       </c>
@@ -2416,7 +2418,7 @@
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="47" t="s">
         <v>71</v>
       </c>
@@ -2430,7 +2432,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="43" t="s">
         <v>72</v>
       </c>
@@ -2442,7 +2444,7 @@
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="45" t="s">
         <v>73</v>
       </c>
@@ -2454,7 +2456,7 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="45" t="s">
         <v>74</v>
       </c>
@@ -2466,7 +2468,7 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="45" t="s">
         <v>75</v>
       </c>
@@ -2478,7 +2480,7 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="47" t="s">
         <v>76</v>
       </c>
@@ -2492,7 +2494,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="43" t="s">
         <v>77</v>
       </c>
@@ -2504,7 +2506,7 @@
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="45" t="s">
         <v>78</v>
       </c>
@@ -2516,7 +2518,7 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="73"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="45" t="s">
         <v>79</v>
       </c>
@@ -2528,7 +2530,7 @@
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="47" t="s">
         <v>80</v>
       </c>
@@ -2542,7 +2544,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="43" t="s">
         <v>81</v>
       </c>
@@ -2554,7 +2556,7 @@
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="45" t="s">
         <v>82</v>
       </c>
@@ -2566,7 +2568,7 @@
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="45" t="s">
         <v>83</v>
       </c>
@@ -2578,7 +2580,7 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="45" t="s">
         <v>84</v>
       </c>
@@ -2590,7 +2592,7 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="73"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="47" t="s">
         <v>85</v>
       </c>
@@ -2604,7 +2606,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="43" t="s">
         <v>86</v>
       </c>
@@ -2616,7 +2618,7 @@
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="45" t="s">
         <v>87</v>
       </c>
@@ -2628,7 +2630,7 @@
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="73"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="45" t="s">
         <v>89</v>
       </c>
@@ -2640,7 +2642,7 @@
       <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="73"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="47" t="s">
         <v>88</v>
       </c>
@@ -2654,7 +2656,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="43" t="s">
         <v>90</v>
       </c>
@@ -2666,7 +2668,7 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="73"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="45" t="s">
         <v>91</v>
       </c>
@@ -2678,7 +2680,7 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="73"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="45" t="s">
         <v>92</v>
       </c>
@@ -2690,7 +2692,7 @@
       <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="47" t="s">
         <v>93</v>
       </c>
@@ -2704,7 +2706,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="43" t="s">
         <v>94</v>
       </c>
@@ -2716,7 +2718,7 @@
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="45" t="s">
         <v>95</v>
       </c>
@@ -2728,7 +2730,7 @@
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="73"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="47" t="s">
         <v>96</v>
       </c>
@@ -2742,7 +2744,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="73"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="45" t="s">
         <v>97</v>
       </c>
@@ -2754,7 +2756,7 @@
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="73"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="45" t="s">
         <v>67</v>
       </c>
@@ -2766,7 +2768,7 @@
       <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="47" t="s">
         <v>68</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EF3DE9-6469-47BE-8200-795CD08FE0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C19228A-A34C-436D-A83F-F1E91D261E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1010,6 +1010,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1020,18 +1032,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1394,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="68" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1406,13 +1406,13 @@
       <c r="D2" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="73" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1422,11 +1422,11 @@
       <c r="D3" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="71"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1436,14 +1436,14 @@
       <c r="D4" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="70"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1491,13 +1491,13 @@
       <c r="D7" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="72" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1507,14 +1507,14 @@
       <c r="D8" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1543,13 +1543,13 @@
       <c r="D10" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="72" t="s">
         <v>106</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1559,11 +1559,11 @@
       <c r="D11" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="68"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1573,14 +1573,14 @@
       <c r="D12" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="68"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1590,13 +1590,13 @@
       <c r="D13" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="72" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1606,14 +1606,14 @@
       <c r="D14" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1623,13 +1623,13 @@
       <c r="D15" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="73" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1639,11 +1639,11 @@
       <c r="D16" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="D17" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="70"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1670,13 +1670,13 @@
       <c r="D18" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="73" t="s">
         <v>109</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1686,14 +1686,14 @@
       <c r="D19" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="70"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1703,13 +1703,13 @@
       <c r="D20" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="73" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="73"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1719,11 +1719,11 @@
       <c r="D21" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1733,14 +1733,14 @@
       <c r="D22" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="70"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="37">
         <f>SUM(C20:C22)</f>
         <v>1.3708333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1750,13 +1750,13 @@
       <c r="D23" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="72" t="s">
         <v>111</v>
       </c>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1766,11 +1766,11 @@
       <c r="D24" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="D25" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="37">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
@@ -1820,7 +1820,7 @@
       <c r="D27" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="73" t="s">
         <v>116</v>
       </c>
       <c r="F27" s="36"/>
@@ -1836,7 +1836,7 @@
       <c r="D28" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="70"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="37">
         <f>SUM(C27:C28)</f>
         <v>1.3923611111111112</v>
@@ -1983,7 +1983,9 @@
       <c r="C36" s="26">
         <v>0.94236111111111109</v>
       </c>
-      <c r="D36" s="50"/>
+      <c r="D36" s="50" t="s">
+        <v>100</v>
+      </c>
       <c r="E36" s="57" t="s">
         <v>125</v>
       </c>
@@ -2035,7 +2037,7 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="73" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="35"/>
@@ -2049,7 +2051,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="70"/>
+      <c r="E40" s="74"/>
       <c r="F40" s="37">
         <f>SUM(C39:C40)</f>
         <v>1.4520833333333334</v>
@@ -2098,7 +2100,7 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="73" t="s">
         <v>122</v>
       </c>
       <c r="F43" s="35"/>
@@ -2112,7 +2114,7 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="70"/>
+      <c r="E44" s="74"/>
       <c r="F44" s="37">
         <f>SUM(C43:C44)</f>
         <v>0.96875</v>
@@ -2127,7 +2129,7 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="68" t="s">
+      <c r="E45" s="72" t="s">
         <v>130</v>
       </c>
       <c r="F45" s="35"/>
@@ -2141,7 +2143,7 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="68"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2153,7 +2155,7 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="68"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="60">
         <f>SUM(C45:C47)</f>
         <v>1.1951388888888888</v>
@@ -2177,7 +2179,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="71" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -2187,13 +2189,13 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="D49" s="62"/>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="73" t="s">
         <v>131</v>
       </c>
       <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="75"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="13" t="s">
         <v>44</v>
       </c>
@@ -2201,11 +2203,11 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="71"/>
+      <c r="E50" s="75"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="75"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="14" t="s">
         <v>18</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="70"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="37">
         <f>SUM(C49:C51)</f>
         <v>0.74027777777777781</v>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C19228A-A34C-436D-A83F-F1E91D261E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770853E4-CFC2-4F53-A5BE-79DAE1F0B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2002,7 +2002,9 @@
       <c r="C37" s="26">
         <v>0.88611111111111107</v>
       </c>
-      <c r="D37" s="50"/>
+      <c r="D37" s="50" t="s">
+        <v>100</v>
+      </c>
       <c r="E37" s="61" t="s">
         <v>127</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770853E4-CFC2-4F53-A5BE-79DAE1F0B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C19228A-A34C-436D-A83F-F1E91D261E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2002,9 +2002,7 @@
       <c r="C37" s="26">
         <v>0.88611111111111107</v>
       </c>
-      <c r="D37" s="50" t="s">
-        <v>100</v>
-      </c>
+      <c r="D37" s="50"/>
       <c r="E37" s="61" t="s">
         <v>127</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C19228A-A34C-436D-A83F-F1E91D261E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B308D0AE-BEF6-46B0-A768-3BAC7AD8FB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -513,10 +513,6 @@
     <t>5주차 화(12/7)</t>
   </si>
   <si>
-    <t>7주차 월 (12/20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7주차 화(12/21)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,37 +521,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>8주차 화  (12/28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 토(12/18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 금(12/17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 일(12/19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바스크립트 기초 2. 함수 | 함수 정의, 호출, 그리고 콜백함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 월(12/27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 수(12/29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7주차 수(12/22)</t>
-  </si>
-  <si>
-    <t>8주차 화  (12/28)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 토(12/18)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 금(12/17)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 일(12/19)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7주차 목(12/23)</t>
-  </si>
-  <si>
-    <t>자바스크립트 기초 2. 함수 | 함수 정의, 호출, 그리고 콜백함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8주차 월(12/27)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8주차 수(12/29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 목(12/30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,9 +1000,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1041,6 +1040,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1365,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1399,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1406,13 +1411,13 @@
       <c r="D2" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="72" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1422,11 +1427,11 @@
       <c r="D3" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1436,14 +1441,14 @@
       <c r="D4" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="37">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1462,7 +1467,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -1481,7 +1486,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1491,13 +1496,13 @@
       <c r="D7" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="71" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1507,14 +1512,14 @@
       <c r="D8" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="37">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1538,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1543,13 +1548,13 @@
       <c r="D10" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="71" t="s">
         <v>106</v>
       </c>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1559,11 +1564,11 @@
       <c r="D11" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="72"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1573,14 +1578,14 @@
       <c r="D12" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="37">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1590,13 +1595,13 @@
       <c r="D13" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="71" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1606,14 +1611,14 @@
       <c r="D14" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="72"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="37">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1623,13 +1628,13 @@
       <c r="D15" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="72" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1639,11 +1644,11 @@
       <c r="D16" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1653,14 +1658,14 @@
       <c r="D17" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="74"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="37">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1670,13 +1675,13 @@
       <c r="D18" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="72" t="s">
         <v>109</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1686,14 +1691,14 @@
       <c r="D19" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="37">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1703,13 +1708,13 @@
       <c r="D20" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="72" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1719,11 +1724,11 @@
       <c r="D21" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="75"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1733,14 +1738,14 @@
       <c r="D22" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="74"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="37">
         <f>SUM(C20:C22)</f>
         <v>1.3708333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1750,13 +1755,13 @@
       <c r="D23" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="71" t="s">
         <v>111</v>
       </c>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1766,11 +1771,11 @@
       <c r="D24" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="72"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1785,7 @@
       <c r="D25" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="37">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
@@ -1808,7 +1813,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="64" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1820,13 +1825,13 @@
       <c r="D27" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="72" t="s">
         <v>116</v>
       </c>
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
@@ -1836,14 +1841,14 @@
       <c r="D28" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="74"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="37">
         <f>SUM(C27:C28)</f>
         <v>1.3923611111111112</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1862,7 +1867,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
@@ -1881,7 +1886,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
@@ -1900,7 +1905,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1924,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
@@ -1938,7 +1943,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
@@ -1957,7 +1962,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>100</v>
       </c>
       <c r="E35" s="61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F35" s="38">
         <f t="shared" si="0"/>
@@ -1976,7 +1981,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
@@ -1987,7 +1992,7 @@
         <v>100</v>
       </c>
       <c r="E36" s="57" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F36" s="38">
         <f t="shared" si="0"/>
@@ -1995,16 +2000,18 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="26">
         <v>0.88611111111111107</v>
       </c>
-      <c r="D37" s="50"/>
+      <c r="D37" s="50" t="s">
+        <v>100</v>
+      </c>
       <c r="E37" s="61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F37" s="38">
         <f t="shared" si="0"/>
@@ -2012,15 +2019,17 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="25">
         <v>1.1736111111111112</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="64" t="s">
+      <c r="D38" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="78" t="s">
         <v>120</v>
       </c>
       <c r="F38" s="38">
@@ -2029,7 +2038,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2037,13 +2046,13 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="73" t="s">
-        <v>121</v>
+      <c r="E39" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
@@ -2051,14 +2060,14 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="74"/>
+      <c r="E40" s="73"/>
       <c r="F40" s="37">
         <f>SUM(C39:C40)</f>
         <v>1.4520833333333334</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="10" t="s">
         <v>41</v>
       </c>
@@ -2066,8 +2075,8 @@
         <v>0.78611111111111109</v>
       </c>
       <c r="D41" s="50"/>
-      <c r="E41" s="57" t="s">
-        <v>123</v>
+      <c r="E41" s="79" t="s">
+        <v>130</v>
       </c>
       <c r="F41" s="39">
         <f>C41</f>
@@ -2075,16 +2084,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C42" s="26">
         <v>0.9145833333333333</v>
       </c>
       <c r="D42" s="50"/>
       <c r="E42" s="57" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F42" s="41">
         <f>C42</f>
@@ -2092,7 +2101,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
@@ -2100,13 +2109,13 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="73" t="s">
-        <v>122</v>
+      <c r="E43" s="72" t="s">
+        <v>127</v>
       </c>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="9" t="s">
         <v>43</v>
       </c>
@@ -2114,14 +2123,14 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="74"/>
+      <c r="E44" s="73"/>
       <c r="F44" s="37">
         <f>SUM(C43:C44)</f>
         <v>0.96875</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="8" t="s">
         <v>1</v>
       </c>
@@ -2129,13 +2138,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="72" t="s">
-        <v>130</v>
+      <c r="E45" s="71" t="s">
+        <v>122</v>
       </c>
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="11" t="s">
         <v>45</v>
       </c>
@@ -2143,11 +2152,11 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="72"/>
+      <c r="E46" s="71"/>
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="66"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
@@ -2155,14 +2164,14 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="72"/>
+      <c r="E47" s="71"/>
       <c r="F47" s="60">
         <f>SUM(C45:C47)</f>
         <v>1.1951388888888888</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="67"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -2171,7 +2180,7 @@
       </c>
       <c r="D48" s="50"/>
       <c r="E48" s="63" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F48" s="38">
         <f>SUM(C48)</f>
@@ -2179,7 +2188,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -2189,13 +2198,13 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="D49" s="62"/>
-      <c r="E49" s="73" t="s">
+      <c r="E49" s="72" t="s">
         <v>131</v>
       </c>
       <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="13" t="s">
         <v>44</v>
       </c>
@@ -2203,11 +2212,11 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="D50" s="50"/>
-      <c r="E50" s="75"/>
+      <c r="E50" s="74"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="71"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="14" t="s">
         <v>18</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="74"/>
+      <c r="E51" s="73"/>
       <c r="F51" s="37">
         <f>SUM(C49:C51)</f>
         <v>0.74027777777777781</v>
@@ -2284,7 +2293,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2298,7 +2307,7 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="45" t="s">
         <v>60</v>
       </c>
@@ -2310,7 +2319,7 @@
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="45" t="s">
         <v>61</v>
       </c>
@@ -2322,7 +2331,7 @@
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="45" t="s">
         <v>58</v>
       </c>
@@ -2334,7 +2343,7 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="45" t="s">
         <v>62</v>
       </c>
@@ -2346,7 +2355,7 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="45" t="s">
         <v>63</v>
       </c>
@@ -2358,7 +2367,7 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="47" t="s">
         <v>64</v>
       </c>
@@ -2372,7 +2381,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="43" t="s">
         <v>65</v>
       </c>
@@ -2384,7 +2393,7 @@
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="45" t="s">
         <v>66</v>
       </c>
@@ -2396,7 +2405,7 @@
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="45" t="s">
         <v>69</v>
       </c>
@@ -2408,7 +2417,7 @@
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="45" t="s">
         <v>70</v>
       </c>
@@ -2420,7 +2429,7 @@
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="47" t="s">
         <v>71</v>
       </c>
@@ -2434,7 +2443,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="43" t="s">
         <v>72</v>
       </c>
@@ -2446,7 +2455,7 @@
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="45" t="s">
         <v>73</v>
       </c>
@@ -2458,7 +2467,7 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="45" t="s">
         <v>74</v>
       </c>
@@ -2470,7 +2479,7 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="45" t="s">
         <v>75</v>
       </c>
@@ -2482,7 +2491,7 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="47" t="s">
         <v>76</v>
       </c>
@@ -2496,7 +2505,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="43" t="s">
         <v>77</v>
       </c>
@@ -2508,7 +2517,7 @@
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="45" t="s">
         <v>78</v>
       </c>
@@ -2520,7 +2529,7 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="45" t="s">
         <v>79</v>
       </c>
@@ -2532,7 +2541,7 @@
       <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="77"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="47" t="s">
         <v>80</v>
       </c>
@@ -2546,7 +2555,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="43" t="s">
         <v>81</v>
       </c>
@@ -2558,7 +2567,7 @@
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="77"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="45" t="s">
         <v>82</v>
       </c>
@@ -2570,7 +2579,7 @@
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="45" t="s">
         <v>83</v>
       </c>
@@ -2582,7 +2591,7 @@
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="45" t="s">
         <v>84</v>
       </c>
@@ -2594,7 +2603,7 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="77"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="47" t="s">
         <v>85</v>
       </c>
@@ -2608,7 +2617,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="43" t="s">
         <v>86</v>
       </c>
@@ -2620,7 +2629,7 @@
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="45" t="s">
         <v>87</v>
       </c>
@@ -2632,7 +2641,7 @@
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="77"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="45" t="s">
         <v>89</v>
       </c>
@@ -2644,7 +2653,7 @@
       <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="47" t="s">
         <v>88</v>
       </c>
@@ -2658,7 +2667,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="77"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="43" t="s">
         <v>90</v>
       </c>
@@ -2670,7 +2679,7 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="77"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="45" t="s">
         <v>91</v>
       </c>
@@ -2682,7 +2691,7 @@
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="77"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="45" t="s">
         <v>92</v>
       </c>
@@ -2694,7 +2703,7 @@
       <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="47" t="s">
         <v>93</v>
       </c>
@@ -2708,7 +2717,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="43" t="s">
         <v>94</v>
       </c>
@@ -2720,7 +2729,7 @@
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="77"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="45" t="s">
         <v>95</v>
       </c>
@@ -2732,7 +2741,7 @@
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="47" t="s">
         <v>96</v>
       </c>
@@ -2746,7 +2755,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="77"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="45" t="s">
         <v>97</v>
       </c>
@@ -2758,7 +2767,7 @@
       <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="77"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="45" t="s">
         <v>67</v>
       </c>
@@ -2770,7 +2779,7 @@
       <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="47" t="s">
         <v>68</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B308D0AE-BEF6-46B0-A768-3BAC7AD8FB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291D80B0-5AB6-40D6-8193-F1CC981BD046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -63,9 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클론코딩 포트폴리오 반응형 웹사이트 따라 만들기 | HTML, CSS, JavaScript 프론트엔드 강의(드림코딩 아카데미 오픈)</t>
-  </si>
-  <si>
     <t>프론트엔드 강의, 프론트엔드 개발자가 되고 싶다면? 웹개발 입문자편 강의를 시작합니다 ⭐️ (HTML, CSS, Javascript + 실전 프로젝트)</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>클론코딩 유튜브 사이트 따라 만들기(HTML+CSS 연습편, 웹 포트폴리오) | 프론트엔드 개발자 입문편: HTML, CSS, Javascript</t>
-  </si>
-  <si>
-    <t>프론트엔드 개발자라면 필수로 알아야 하는 브라우저 101 필수 개념과 게임 프로젝트 🕹</t>
   </si>
   <si>
     <t>개발자 취업을 위한 포트폴리오 만들기 | 취업에 성공하는 포트폴리오 관리법, 프론트엔드 공부 방법 ⭐️</t>
@@ -188,9 +182,6 @@
   </si>
   <si>
     <t>자바스크립트 12. 프로미스 개념부터 활용까지 JavaScript Promise | 프론트엔드 개발자 입문편 (JavaScript ES6)</t>
-  </si>
-  <si>
-    <t>자바스크립트 13. 비동기의 꽃 JavaScript async 와 await 그리고 유용한 Promise APIs | 프론트엔드 개발자 입문편 (JavaScript ES6)</t>
   </si>
   <si>
     <t>프로그래밍 포기 하지 마세요 (자바스크립트 함수 기본편)</t>
@@ -558,6 +549,14 @@
   </si>
   <si>
     <t>8주차 목(12/30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바스크립트 13. 비동기의 꽃 JavaScript async 와 await 그리고 유용한 Promise APIs | 프론트엔드 개발자 입문편 (JavaScript ES6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 금(12/31)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,9 +843,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -890,9 +886,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -994,9 +987,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1006,8 +996,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1018,9 +1011,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1042,11 +1032,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,883 +1358,867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="95.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="51" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="57" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="55" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="32" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
-        <v>48</v>
+      <c r="A2" s="65" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="35"/>
+      <c r="D2" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="71"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="66"/>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17">
-        <v>0.19652777777777777</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>0.26250000000000001</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="37">
+      <c r="D4" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="35">
         <f>SUM(C2:C4)</f>
         <v>0.84791666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18">
         <v>1.0083333333333333</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="38">
+      <c r="D5" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="36">
         <f>C5</f>
         <v>1.0083333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="20">
+        <v>48</v>
+      </c>
+      <c r="C6" s="19">
         <v>0.98055555555555562</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="39">
+      <c r="F6" s="37">
         <f>C6</f>
         <v>0.98055555555555562</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="66"/>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16">
-        <v>0.69861111111111107</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="37">
+      <c r="D8" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="35">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="19">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18">
         <v>1.0145833333333334</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="38">
+      <c r="D9" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="36">
         <f>C9</f>
         <v>1.0145833333333334</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="66"/>
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16">
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="16">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>0.32847222222222222</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="37">
+      <c r="D12" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="68"/>
+      <c r="F12" s="35">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="66"/>
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
-        <v>0.26805555555555555</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>1.1375</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="37">
+      <c r="D14" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="35">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="66"/>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="66"/>
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="17">
-        <v>0.3972222222222222</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0.4284722222222222</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>0.48541666666666666</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="37">
+      <c r="D17" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="70"/>
+      <c r="F17" s="35">
         <f>SUM(C15:C17)</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="17">
+        <v>17</v>
+      </c>
+      <c r="C18" s="16">
         <v>0.59305555555555556</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="36"/>
+      <c r="D18" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="18">
+        <v>18</v>
+      </c>
+      <c r="C19" s="17">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="37">
+      <c r="D19" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="70"/>
+      <c r="F19" s="35">
         <f>SUM(C18:C19)</f>
         <v>1.2576388888888888</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="66"/>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="66"/>
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="16">
-        <v>0.32708333333333334</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="17">
-        <v>0.33888888888888885</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="36"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="37">
+      <c r="D22" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="70"/>
+      <c r="F22" s="35">
         <f>SUM(C20:C22)</f>
         <v>1.3708333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="66"/>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="68"/>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="67"/>
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="16">
-        <v>0.79375000000000007</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="36"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0.57708333333333328</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="36"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>0.47361111111111115</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="37">
+      <c r="D25" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="68"/>
+      <c r="F25" s="35">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>49</v>
+      <c r="A26" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="22">
+        <v>12</v>
+      </c>
+      <c r="C26" s="21">
         <v>2.1118055555555553</v>
       </c>
-      <c r="D26" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="38">
+      <c r="D26" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="36">
         <f>C26</f>
         <v>2.1118055555555553</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
-        <v>47</v>
+      <c r="A27" s="61" t="s">
+        <v>44</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="23">
+        <v>25</v>
+      </c>
+      <c r="C27" s="22">
         <v>0.65347222222222223</v>
       </c>
-      <c r="D27" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="36"/>
+      <c r="D27" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="24">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
         <v>0.73888888888888893</v>
       </c>
-      <c r="D28" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="37">
+      <c r="D28" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="70"/>
+      <c r="F28" s="35">
         <f>SUM(C27:C28)</f>
         <v>1.3923611111111112</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="25">
+        <v>27</v>
+      </c>
+      <c r="C29" s="24">
         <v>1.1659722222222222</v>
       </c>
-      <c r="D29" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="38">
+      <c r="D29" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="36">
         <f t="shared" ref="F29:F38" si="0">C29</f>
         <v>1.1659722222222222</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="26">
+        <v>28</v>
+      </c>
+      <c r="C30" s="25">
         <v>0.84375</v>
       </c>
-      <c r="D30" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="39">
+      <c r="D30" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="37">
         <f t="shared" si="0"/>
         <v>0.84375</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="25">
+        <v>29</v>
+      </c>
+      <c r="C31" s="24">
         <v>1.0430555555555556</v>
       </c>
-      <c r="D31" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="38">
+      <c r="D31" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="36">
         <f t="shared" si="0"/>
         <v>1.0430555555555556</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="25">
+        <v>30</v>
+      </c>
+      <c r="C32" s="24">
         <v>1.0673611111111112</v>
       </c>
-      <c r="D32" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="38">
+      <c r="D32" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="36">
         <f t="shared" si="0"/>
         <v>1.0673611111111112</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="26">
+        <v>31</v>
+      </c>
+      <c r="C33" s="25">
         <v>0.96111111111111114</v>
       </c>
-      <c r="D33" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="38">
+      <c r="D33" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="36">
         <f t="shared" si="0"/>
         <v>0.96111111111111114</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="25">
+        <v>32</v>
+      </c>
+      <c r="C34" s="24">
         <v>1.3388888888888888</v>
       </c>
-      <c r="D34" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="38">
+      <c r="D34" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="36">
         <f t="shared" si="0"/>
         <v>1.3388888888888888</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="25">
+        <v>33</v>
+      </c>
+      <c r="C35" s="24">
         <v>1.5513888888888889</v>
       </c>
-      <c r="D35" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="38">
+      <c r="D35" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="36">
         <f t="shared" si="0"/>
         <v>1.5513888888888889</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="26">
+        <v>34</v>
+      </c>
+      <c r="C36" s="25">
         <v>0.94236111111111109</v>
       </c>
-      <c r="D36" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="38">
+      <c r="D36" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="36">
         <f t="shared" si="0"/>
         <v>0.94236111111111109</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="26">
+        <v>35</v>
+      </c>
+      <c r="C37" s="25">
         <v>0.88611111111111107</v>
       </c>
-      <c r="D37" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="38">
+      <c r="D37" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="36">
         <f t="shared" si="0"/>
         <v>0.88611111111111107</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="25">
+        <v>36</v>
+      </c>
+      <c r="C38" s="24">
         <v>1.1736111111111112</v>
       </c>
-      <c r="D38" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="38">
+      <c r="D38" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="36">
         <f t="shared" si="0"/>
         <v>1.1736111111111112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="23">
+    <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="62"/>
+      <c r="B39" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="25">
         <v>0.73125000000000007</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
+      <c r="D39" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="75">
+        <f>C39</f>
+        <v>0.73125000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="62"/>
       <c r="B40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="24">
+        <v>37</v>
+      </c>
+      <c r="C40" s="23">
         <v>0.72083333333333333</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="37">
-        <f>SUM(C39:C40)</f>
-        <v>1.4520833333333334</v>
+      <c r="D40" s="48"/>
+      <c r="E40" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="75">
+        <f>C40</f>
+        <v>0.72083333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="26">
+        <v>38</v>
+      </c>
+      <c r="C41" s="25">
         <v>0.78611111111111109</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="39">
+      <c r="D41" s="48"/>
+      <c r="E41" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="37">
         <f>C41</f>
         <v>0.78611111111111109</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="26">
+        <v>123</v>
+      </c>
+      <c r="C42" s="25">
         <v>0.9145833333333333</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="41">
+      <c r="D42" s="48"/>
+      <c r="E42" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="39">
         <f>C42</f>
         <v>0.9145833333333333</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="23">
+        <v>39</v>
+      </c>
+      <c r="C43" s="22">
         <v>0.29722222222222222</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="35"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="33"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="24">
+        <v>40</v>
+      </c>
+      <c r="C44" s="23">
         <v>0.67152777777777783</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="37">
+      <c r="D44" s="48"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="35">
         <f>SUM(C43:C44)</f>
         <v>0.96875</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
-      <c r="B45" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="23">
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="35"/>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="62"/>
+      <c r="B45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="26">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="27">
-        <v>0.63680555555555551</v>
-      </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="36"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="65"/>
-      <c r="B47" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="24">
+      <c r="A46" s="62"/>
+      <c r="B46" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="23">
         <v>0.46388888888888885</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="60">
-        <f>SUM(C45:C47)</f>
-        <v>1.1951388888888888</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
-      <c r="B48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="26">
+      <c r="D46" s="48"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="58">
+        <f>SUM(C45:C46)</f>
+        <v>1.1006944444444444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="62"/>
+      <c r="B47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="25">
         <v>0.79375000000000007</v>
       </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="63" t="s">
+      <c r="D47" s="48"/>
+      <c r="E47" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="38">
-        <f>SUM(C48)</f>
+      <c r="F47" s="36">
+        <f>SUM(C47)</f>
         <v>0.79375000000000007</v>
       </c>
     </row>
+    <row r="48" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="27">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="34"/>
+    </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>14</v>
+      <c r="A49" s="78"/>
+      <c r="B49" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C49" s="28">
-        <v>0.10277777777777779</v>
-      </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="36"/>
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="D49" s="48"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="35">
+        <f>SUM(C48:C49)</f>
+        <v>0.63749999999999996</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="70"/>
-      <c r="B50" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="29">
-        <v>0.20486111111111113</v>
-      </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="36"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="70"/>
-      <c r="B51" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="30">
-        <v>0.43263888888888885</v>
-      </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="37">
-        <f>SUM(C49:C51)</f>
-        <v>0.74027777777777781</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="42" t="s">
-        <v>57</v>
+      <c r="B50" s="40" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E48:E49"/>
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E14"/>
@@ -2247,9 +2227,6 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E49:E51"/>
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="E20:E22"/>
   </mergeCells>
@@ -2273,522 +2250,522 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="33" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="42">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="73"/>
+      <c r="B3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="44">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="73"/>
+      <c r="B4" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
+      <c r="B5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="C5" s="44">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="73"/>
+      <c r="B6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="44">
-        <v>0.40486111111111112</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="45" t="s">
+      <c r="C6" s="44">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="73"/>
+      <c r="B7" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="46">
-        <v>8.1250000000000003E-2</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="45" t="s">
+      <c r="C7" s="44">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="73"/>
+      <c r="B8" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="46">
-        <v>0.19305555555555554</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
-      <c r="B5" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="46">
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
-      <c r="B6" s="45" t="s">
+      <c r="C8" s="46">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="35">
+        <v>1.4777777777777781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="73"/>
+      <c r="B9" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="46">
-        <v>0.13402777777777777</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
-      <c r="B7" s="45" t="s">
+      <c r="C9" s="42">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="73"/>
+      <c r="B10" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="46">
-        <v>0.12291666666666667</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="76"/>
-      <c r="B8" s="47" t="s">
+      <c r="C10" s="44">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="73"/>
+      <c r="B11" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="44">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="73"/>
+      <c r="B12" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="44">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="73"/>
+      <c r="B13" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="73"/>
+      <c r="B14" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="42">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="73"/>
+      <c r="B15" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="44">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="73"/>
+      <c r="B16" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="73"/>
+      <c r="B17" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="44">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="73"/>
+      <c r="B18" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="46">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="35">
+        <v>1.3506944444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="73"/>
+      <c r="B19" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="42">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="73"/>
+      <c r="B20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="44">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="73"/>
+      <c r="B21" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="44">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="73"/>
+      <c r="B22" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="46">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="35">
+        <v>1.2201388888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="73"/>
+      <c r="B23" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="42">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="73"/>
+      <c r="B24" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="73"/>
+      <c r="B25" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="44">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="73"/>
+      <c r="B26" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="44">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="73"/>
+      <c r="B27" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="46">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="35">
+        <v>1.442361111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="73"/>
+      <c r="B28" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="42">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="73"/>
+      <c r="B29" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="44">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="73"/>
+      <c r="B30" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="44">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="73"/>
+      <c r="B31" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="46">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="35">
+        <v>1.2465277777777779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="73"/>
+      <c r="B32" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="42">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="73"/>
+      <c r="B33" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="44">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="73"/>
+      <c r="B34" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="44">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="73"/>
+      <c r="B35" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="46">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="D35" s="48"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="35">
+        <v>1.4923611111111112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="73"/>
+      <c r="B36" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="73"/>
+      <c r="B37" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="44">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="73"/>
+      <c r="B38" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="46">
+        <v>0.4375</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="35">
+        <v>1.1187499999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="73"/>
+      <c r="B39" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="44">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="34"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="73"/>
+      <c r="B40" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="48">
-        <v>0.28888888888888892</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="37">
-        <v>1.4777777777777781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="43" t="s">
+      <c r="C40" s="44">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="74"/>
+      <c r="B41" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="44">
-        <v>0.12291666666666667</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="35"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="76"/>
-      <c r="B10" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="46">
-        <v>0.26111111111111113</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="76"/>
-      <c r="B11" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="46">
-        <v>0.23750000000000002</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="46">
-        <v>0.29583333333333334</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
-      <c r="B13" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="48">
-        <v>0.18263888888888891</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="37">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="44">
-        <v>0.34513888888888888</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
-      <c r="B15" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="46">
-        <v>0.26944444444444443</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="76"/>
-      <c r="B16" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="46">
-        <v>0.29652777777777778</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="76"/>
-      <c r="B17" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="46">
-        <v>0.17291666666666669</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="36"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="76"/>
-      <c r="B18" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="48">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="37">
-        <v>1.3506944444444442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="76"/>
-      <c r="B19" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="44">
-        <v>0.3215277777777778</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="76"/>
-      <c r="B20" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="46">
-        <v>0.41875000000000001</v>
-      </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="76"/>
-      <c r="B21" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="46">
-        <v>0.30624999999999997</v>
-      </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="36"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="76"/>
-      <c r="B22" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="48">
-        <v>0.17361111111111113</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="37">
-        <v>1.2201388888888889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="44">
-        <v>0.24861111111111112</v>
-      </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="35"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
-      <c r="B24" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="46">
-        <v>0.14791666666666667</v>
-      </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="36"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="76"/>
-      <c r="B25" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="46">
-        <v>0.2951388888888889</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="76"/>
-      <c r="B26" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="46">
-        <v>0.18888888888888888</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="36"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="76"/>
-      <c r="B27" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="48">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="37">
-        <v>1.442361111111111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="76"/>
-      <c r="B28" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="44">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="76"/>
-      <c r="B29" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="46">
-        <v>0.29305555555555557</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="76"/>
-      <c r="B30" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="46">
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="36"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="76"/>
-      <c r="B31" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="48">
-        <v>0.27291666666666664</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="37">
-        <v>1.2465277777777779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="76"/>
-      <c r="B32" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="44">
-        <v>0.21458333333333335</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="35"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="76"/>
-      <c r="B33" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="46">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="76"/>
-      <c r="B34" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="46">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="36"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="76"/>
-      <c r="B35" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="48">
-        <v>0.63611111111111118</v>
-      </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="37">
-        <v>1.4923611111111112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="76"/>
-      <c r="B36" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="44">
-        <v>0.375</v>
-      </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="76"/>
-      <c r="B37" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="46">
-        <v>0.30624999999999997</v>
-      </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="36"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="76"/>
-      <c r="B38" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="48">
-        <v>0.4375</v>
-      </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="37">
-        <v>1.1187499999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="76"/>
-      <c r="B39" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="46">
-        <v>0.4694444444444445</v>
-      </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="36"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="76"/>
-      <c r="B40" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="46">
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="36"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="77"/>
-      <c r="B41" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="48">
+      <c r="C41" s="46">
         <v>0.30486111111111108</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="37">
+      <c r="D41" s="48"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="35">
         <v>1.0909722222222222</v>
       </c>
     </row>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291D80B0-5AB6-40D6-8193-F1CC981BD046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF714F-237F-4026-A802-83FC3BD22920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1002,6 +1002,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1014,12 +1032,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,18 +1043,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1395,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="71" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1413,7 +1413,7 @@
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1423,11 +1423,11 @@
       <c r="D3" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="71"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1444,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1492,13 +1492,13 @@
       <c r="D7" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="74" t="s">
         <v>101</v>
       </c>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1508,14 +1508,14 @@
       <c r="D8" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="35">
         <f>SUM(C7:C8)</f>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1544,13 +1544,13 @@
       <c r="D10" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="74" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1560,11 +1560,11 @@
       <c r="D11" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="68"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1574,14 +1574,14 @@
       <c r="D12" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="68"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="35">
         <f>SUM(C10:C12)</f>
         <v>1.3722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1591,13 +1591,13 @@
       <c r="D13" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="74" t="s">
         <v>104</v>
       </c>
       <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1607,14 +1607,14 @@
       <c r="D14" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="35">
         <f>SUM(C13:C14)</f>
         <v>1.4055555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1640,11 +1640,11 @@
       <c r="D16" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1720,11 +1720,11 @@
       <c r="D21" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1751,13 +1751,13 @@
       <c r="D23" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="74" t="s">
         <v>108</v>
       </c>
       <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1767,11 +1767,11 @@
       <c r="D24" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="D25" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="35">
         <f>SUM(C23:C25)</f>
         <v>1.8444444444444446</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="62"/>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="66" t="s">
         <v>129</v>
       </c>
       <c r="C39" s="25">
@@ -2047,7 +2047,7 @@
       <c r="E39" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="75">
+      <c r="F39" s="65">
         <f>C39</f>
         <v>0.73125000000000007</v>
       </c>
@@ -2060,11 +2060,13 @@
       <c r="C40" s="23">
         <v>0.72083333333333333</v>
       </c>
-      <c r="D40" s="48"/>
+      <c r="D40" s="48" t="s">
+        <v>97</v>
+      </c>
       <c r="E40" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="75">
+      <c r="F40" s="65">
         <f>C40</f>
         <v>0.72083333333333333</v>
       </c>
@@ -2179,7 +2181,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="67" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -2195,7 +2197,7 @@
       <c r="F48" s="34"/>
     </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="13" t="s">
         <v>16</v>
       </c>
@@ -2270,7 +2272,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="76" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -2284,7 +2286,7 @@
       <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="43" t="s">
         <v>57</v>
       </c>
@@ -2296,7 +2298,7 @@
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="43" t="s">
         <v>58</v>
       </c>
@@ -2308,7 +2310,7 @@
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="43" t="s">
         <v>55</v>
       </c>
@@ -2320,7 +2322,7 @@
       <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="43" t="s">
         <v>59</v>
       </c>
@@ -2332,7 +2334,7 @@
       <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="43" t="s">
         <v>60</v>
       </c>
@@ -2344,7 +2346,7 @@
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="45" t="s">
         <v>61</v>
       </c>
@@ -2358,7 +2360,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="41" t="s">
         <v>62</v>
       </c>
@@ -2370,7 +2372,7 @@
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="43" t="s">
         <v>63</v>
       </c>
@@ -2382,7 +2384,7 @@
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="43" t="s">
         <v>66</v>
       </c>
@@ -2394,7 +2396,7 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="43" t="s">
         <v>67</v>
       </c>
@@ -2406,7 +2408,7 @@
       <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="45" t="s">
         <v>68</v>
       </c>
@@ -2420,7 +2422,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="41" t="s">
         <v>69</v>
       </c>
@@ -2432,7 +2434,7 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="43" t="s">
         <v>70</v>
       </c>
@@ -2444,7 +2446,7 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="43" t="s">
         <v>71</v>
       </c>
@@ -2456,7 +2458,7 @@
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="43" t="s">
         <v>72</v>
       </c>
@@ -2468,7 +2470,7 @@
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="45" t="s">
         <v>73</v>
       </c>
@@ -2482,7 +2484,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="41" t="s">
         <v>74</v>
       </c>
@@ -2494,7 +2496,7 @@
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="43" t="s">
         <v>75</v>
       </c>
@@ -2506,7 +2508,7 @@
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="73"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="43" t="s">
         <v>76</v>
       </c>
@@ -2518,7 +2520,7 @@
       <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="45" t="s">
         <v>77</v>
       </c>
@@ -2532,7 +2534,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="41" t="s">
         <v>78</v>
       </c>
@@ -2544,7 +2546,7 @@
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="43" t="s">
         <v>79</v>
       </c>
@@ -2556,7 +2558,7 @@
       <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="43" t="s">
         <v>80</v>
       </c>
@@ -2568,7 +2570,7 @@
       <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="43" t="s">
         <v>81</v>
       </c>
@@ -2580,7 +2582,7 @@
       <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="73"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="45" t="s">
         <v>82</v>
       </c>
@@ -2594,7 +2596,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="41" t="s">
         <v>83</v>
       </c>
@@ -2606,7 +2608,7 @@
       <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="43" t="s">
         <v>84</v>
       </c>
@@ -2618,7 +2620,7 @@
       <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="73"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="43" t="s">
         <v>86</v>
       </c>
@@ -2630,7 +2632,7 @@
       <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="73"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="45" t="s">
         <v>85</v>
       </c>
@@ -2644,7 +2646,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="41" t="s">
         <v>87</v>
       </c>
@@ -2656,7 +2658,7 @@
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="73"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="43" t="s">
         <v>88</v>
       </c>
@@ -2668,7 +2670,7 @@
       <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="73"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="43" t="s">
         <v>89</v>
       </c>
@@ -2680,7 +2682,7 @@
       <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="45" t="s">
         <v>90</v>
       </c>
@@ -2694,7 +2696,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="41" t="s">
         <v>91</v>
       </c>
@@ -2706,7 +2708,7 @@
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="43" t="s">
         <v>92</v>
       </c>
@@ -2718,7 +2720,7 @@
       <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="73"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="45" t="s">
         <v>93</v>
       </c>
@@ -2732,7 +2734,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="73"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="43" t="s">
         <v>94</v>
       </c>
@@ -2744,7 +2746,7 @@
       <c r="F39" s="34"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="73"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="43" t="s">
         <v>64</v>
       </c>
@@ -2756,7 +2758,7 @@
       <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="45" t="s">
         <v>65</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF714F-237F-4026-A802-83FC3BD22920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68A5C1A-5257-49C5-B799-7314D164896A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2079,7 +2079,9 @@
       <c r="C41" s="25">
         <v>0.78611111111111109</v>
       </c>
-      <c r="D41" s="48"/>
+      <c r="D41" s="48" t="s">
+        <v>97</v>
+      </c>
       <c r="E41" s="64" t="s">
         <v>118</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68A5C1A-5257-49C5-B799-7314D164896A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC986A1-D421-4280-83C3-95F3D7F16336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1360,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2098,7 +2098,9 @@
       <c r="C42" s="25">
         <v>0.9145833333333333</v>
       </c>
-      <c r="D42" s="48"/>
+      <c r="D42" s="48" t="s">
+        <v>97</v>
+      </c>
       <c r="E42" s="55" t="s">
         <v>124</v>
       </c>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC986A1-D421-4280-83C3-95F3D7F16336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BA5FC2-56D3-49DB-9C3F-DEE671EA0276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2117,7 +2117,9 @@
       <c r="C43" s="22">
         <v>0.29722222222222222</v>
       </c>
-      <c r="D43" s="48"/>
+      <c r="D43" s="48" t="s">
+        <v>97</v>
+      </c>
       <c r="E43" s="69" t="s">
         <v>119</v>
       </c>
@@ -2131,7 +2133,9 @@
       <c r="C44" s="23">
         <v>0.67152777777777783</v>
       </c>
-      <c r="D44" s="48"/>
+      <c r="D44" s="48" t="s">
+        <v>97</v>
+      </c>
       <c r="E44" s="70"/>
       <c r="F44" s="35">
         <f>SUM(C43:C44)</f>

--- a/커리큘럼/식초님 로드맵 정리.xlsx
+++ b/커리큘럼/식초님 로드맵 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\frontEnd_notes\커리큘럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BA5FC2-56D3-49DB-9C3F-DEE671EA0276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1261D975-12A3-42A0-8CD1-4C4C28701E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2580" windowWidth="21600" windowHeight="11460" xr2:uid="{6A2E78A4-70C6-4F8F-8733-6D8FB6A7E8A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <r>
       <t xml:space="preserve">프론트엔드 공부 순서, 높은 연봉 받는 프론트엔드 개발자 되기 | 해외 개발자 선배가 알려드려요 </t>
@@ -202,32 +202,6 @@
     <t>자바스크립트 최신 문법 (ES6, ES11) | 모르면 후회 하는 최신 문법과 사용법 정리 🐶</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">노드로 배우는 백엔드 개발 입문 강의 | Rest APIs, 데이터베이스 외 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🚀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 풀스택 가좌아</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드림엘리 자바스크립트 기초강의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,7 +538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,14 +567,6 @@
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -894,15 +860,15 @@
     <xf numFmtId="21" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -948,7 +914,7 @@
     <xf numFmtId="21" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -966,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D3A1F8-0818-4133-A35C-33D74C6F4A48}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1376,27 +1342,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="53" t="s">
+      <c r="F1" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1405,10 +1371,10 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D2" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="69" t="s">
         <v>97</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>98</v>
       </c>
       <c r="F2" s="33"/>
     </row>
@@ -1421,7 +1387,7 @@
         <v>0.19652777777777777</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="75"/>
       <c r="F3" s="34"/>
@@ -1435,7 +1401,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="70"/>
       <c r="F4" s="35">
@@ -1452,10 +1418,10 @@
         <v>1.0083333333333333</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="36">
         <f>C5</f>
@@ -1465,16 +1431,16 @@
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="72"/>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="19">
         <v>0.98055555555555562</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="37">
         <f>C6</f>
@@ -1490,10 +1456,10 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="33"/>
     </row>
@@ -1506,7 +1472,7 @@
         <v>0.52361111111111114</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="35">
@@ -1523,10 +1489,10 @@
         <v>1.0145833333333334</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="36">
         <f>C9</f>
@@ -1542,10 +1508,10 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="34"/>
     </row>
@@ -1558,7 +1524,7 @@
         <v>0.4770833333333333</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="34"/>
@@ -1572,7 +1538,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="74"/>
       <c r="F12" s="35">
@@ -1589,10 +1555,10 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="34"/>
     </row>
@@ -1605,7 +1571,7 @@
         <v>1.1375</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="74"/>
       <c r="F14" s="35">
@@ -1622,10 +1588,10 @@
         <v>0.3972222222222222</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="34"/>
     </row>
@@ -1638,7 +1604,7 @@
         <v>0.4284722222222222</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="75"/>
       <c r="F16" s="34"/>
@@ -1652,7 +1618,7 @@
         <v>0.48541666666666666</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="70"/>
       <c r="F17" s="35">
@@ -1669,10 +1635,10 @@
         <v>0.59305555555555556</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="34"/>
     </row>
@@ -1685,7 +1651,7 @@
         <v>0.6645833333333333</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="70"/>
       <c r="F19" s="35">
@@ -1702,10 +1668,10 @@
         <v>0.32708333333333334</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="34"/>
     </row>
@@ -1718,7 +1684,7 @@
         <v>0.33888888888888885</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="75"/>
       <c r="F21" s="34"/>
@@ -1732,7 +1698,7 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="35">
@@ -1749,10 +1715,10 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="34"/>
     </row>
@@ -1765,7 +1731,7 @@
         <v>0.57708333333333328</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="74"/>
       <c r="F24" s="34"/>
@@ -1779,7 +1745,7 @@
         <v>0.47361111111111115</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="74"/>
       <c r="F25" s="35">
@@ -1789,7 +1755,7 @@
     </row>
     <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>12</v>
@@ -1798,10 +1764,10 @@
         <v>2.1118055555555553</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="36">
         <f>C26</f>
@@ -1810,7 +1776,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>25</v>
@@ -1819,10 +1785,10 @@
         <v>0.65347222222222223</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="34"/>
     </row>
@@ -1835,7 +1801,7 @@
         <v>0.73888888888888893</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="70"/>
       <c r="F28" s="35">
@@ -1852,10 +1818,10 @@
         <v>1.1659722222222222</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" ref="F29:F38" si="0">C29</f>
@@ -1871,10 +1837,10 @@
         <v>0.84375</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="0"/>
@@ -1890,10 +1856,10 @@
         <v>1.0430555555555556</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F31" s="36">
         <f t="shared" si="0"/>
@@ -1909,10 +1875,10 @@
         <v>1.0673611111111112</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="0"/>
@@ -1928,10 +1894,10 @@
         <v>0.96111111111111114</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="0"/>
@@ -1947,10 +1913,10 @@
         <v>1.3388888888888888</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="0"/>
@@ -1966,10 +1932,10 @@
         <v>1.5513888888888889</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="0"/>
@@ -1985,10 +1951,10 @@
         <v>0.94236111111111109</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="0"/>
@@ -2004,10 +1970,10 @@
         <v>0.88611111111111107</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" s="36">
         <f t="shared" si="0"/>
@@ -2023,10 +1989,10 @@
         <v>1.1736111111111112</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="0"/>
@@ -2036,16 +2002,16 @@
     <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="62"/>
       <c r="B39" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="25">
         <v>0.73125000000000007</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="65">
         <f>C39</f>
@@ -2061,10 +2027,10 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="65">
         <f>C40</f>
@@ -2080,10 +2046,10 @@
         <v>0.78611111111111109</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41" s="37">
         <f>C41</f>
@@ -2093,16 +2059,16 @@
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="62"/>
       <c r="B42" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="25">
         <v>0.9145833333333333</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42" s="39">
         <f>C42</f>
@@ -2118,10 +2084,10 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" s="69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43" s="33"/>
     </row>
@@ -2134,7 +2100,7 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" s="70"/>
       <c r="F44" s="35">
@@ -2150,84 +2116,73 @@
       <c r="C45" s="26">
         <v>0.63680555555555551</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="34"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="58">
+        <f>SUM(C45:C45)</f>
+        <v>0.63680555555555551</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="62"/>
-      <c r="B46" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="23">
-        <v>0.46388888888888885</v>
+      <c r="B46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="25">
+        <v>0.79375000000000007</v>
       </c>
       <c r="D46" s="48"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="58">
-        <f>SUM(C45:C46)</f>
-        <v>1.1006944444444444</v>
+      <c r="E46" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="36">
+        <f>SUM(C46)</f>
+        <v>0.79375000000000007</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="25">
-        <v>0.79375000000000007</v>
+      <c r="A47" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="27">
+        <v>0.20486111111111113</v>
       </c>
       <c r="D47" s="48"/>
-      <c r="E47" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="36">
-        <f>SUM(C47)</f>
-        <v>0.79375000000000007</v>
-      </c>
+      <c r="E47" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="27">
-        <v>0.20486111111111113</v>
+      <c r="A48" s="68"/>
+      <c r="B48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="28">
+        <v>0.43263888888888885</v>
       </c>
       <c r="D48" s="48"/>
-      <c r="E48" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="34"/>
-    </row>
-    <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="68"/>
-      <c r="B49" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="28">
-        <v>0.43263888888888885</v>
-      </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="35">
-        <f>SUM(C48:C49)</f>
+      <c r="E48" s="70"/>
+      <c r="F48" s="35">
+        <f>SUM(C47:C48)</f>
         <v>0.63749999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="40" t="s">
-        <v>54</v>
+    <row r="49" spans="2:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="40" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E48:E49"/>
+  <mergeCells count="12">
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E10:E12"/>
@@ -2261,30 +2216,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="42">
         <v>0.40486111111111112</v>
@@ -2296,7 +2251,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="77"/>
       <c r="B3" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="44">
         <v>8.1250000000000003E-2</v>
@@ -2308,7 +2263,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="77"/>
       <c r="B4" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="44">
         <v>0.19305555555555554</v>
@@ -2320,7 +2275,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="77"/>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="44">
         <v>0.25277777777777777</v>
@@ -2332,7 +2287,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="77"/>
       <c r="B6" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="44">
         <v>0.13402777777777777</v>
@@ -2344,7 +2299,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="77"/>
       <c r="B7" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="44">
         <v>0.12291666666666667</v>
@@ -2356,7 +2311,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="77"/>
       <c r="B8" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="46">
         <v>0.28888888888888892</v>
@@ -2370,7 +2325,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="77"/>
       <c r="B9" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="42">
         <v>0.12291666666666667</v>
@@ -2382,7 +2337,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="77"/>
       <c r="B10" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="44">
         <v>0.26111111111111113</v>
@@ -2394,7 +2349,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="77"/>
       <c r="B11" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="44">
         <v>0.23750000000000002</v>
@@ -2406,7 +2361,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="77"/>
       <c r="B12" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="44">
         <v>0.29583333333333334</v>
@@ -2418,7 +2373,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="77"/>
       <c r="B13" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="46">
         <v>0.18263888888888891</v>
@@ -2432,7 +2387,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="77"/>
       <c r="B14" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="42">
         <v>0.34513888888888888</v>
@@ -2444,7 +2399,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="77"/>
       <c r="B15" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="44">
         <v>0.26944444444444443</v>
@@ -2456,7 +2411,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="77"/>
       <c r="B16" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="44">
         <v>0.29652777777777778</v>
@@ -2468,7 +2423,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="77"/>
       <c r="B17" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="44">
         <v>0.17291666666666669</v>
@@ -2480,7 +2435,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="77"/>
       <c r="B18" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="46">
         <v>0.26666666666666666</v>
@@ -2494,7 +2449,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="77"/>
       <c r="B19" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="42">
         <v>0.3215277777777778</v>
@@ -2506,7 +2461,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="77"/>
       <c r="B20" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="44">
         <v>0.41875000000000001</v>
@@ -2518,7 +2473,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="77"/>
       <c r="B21" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="44">
         <v>0.30624999999999997</v>
@@ -2530,7 +2485,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="77"/>
       <c r="B22" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="46">
         <v>0.17361111111111113</v>
@@ -2544,7 +2499,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="77"/>
       <c r="B23" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="42">
         <v>0.24861111111111112</v>
@@ -2556,7 +2511,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="77"/>
       <c r="B24" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="44">
         <v>0.14791666666666667</v>
@@ -2568,7 +2523,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="77"/>
       <c r="B25" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="44">
         <v>0.2951388888888889</v>
@@ -2580,7 +2535,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="77"/>
       <c r="B26" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="44">
         <v>0.18888888888888888</v>
@@ -2592,7 +2547,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="77"/>
       <c r="B27" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="46">
         <v>0.56180555555555556</v>
@@ -2606,7 +2561,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="77"/>
       <c r="B28" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="42">
         <v>0.3833333333333333</v>
@@ -2618,7 +2573,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="77"/>
       <c r="B29" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="44">
         <v>0.29305555555555557</v>
@@ -2630,7 +2585,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="77"/>
       <c r="B30" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="44">
         <v>0.29722222222222222</v>
@@ -2642,7 +2597,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="77"/>
       <c r="B31" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="46">
         <v>0.27291666666666664</v>
@@ -2656,7 +2611,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="77"/>
       <c r="B32" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="42">
         <v>0.21458333333333335</v>
@@ -2668,7 +2623,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="77"/>
       <c r="B33" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="44">
         <v>0.2638888888888889</v>
@@ -2680,7 +2635,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="77"/>
       <c r="B34" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="44">
         <v>0.37777777777777777</v>
@@ -2692,7 +2647,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="77"/>
       <c r="B35" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="46">
         <v>0.63611111111111118</v>
@@ -2706,7 +2661,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="77"/>
       <c r="B36" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="42">
         <v>0.375</v>
@@ -2718,7 +2673,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="77"/>
       <c r="B37" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="44">
         <v>0.30624999999999997</v>
@@ -2730,7 +2685,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="77"/>
       <c r="B38" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="46">
         <v>0.4375</v>
@@ -2744,7 +2699,7 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="77"/>
       <c r="B39" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="44">
         <v>0.4694444444444445</v>
@@ -2756,7 +2711,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="77"/>
       <c r="B40" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="44">
         <v>0.31666666666666665</v>
@@ -2768,7 +2723,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="78"/>
       <c r="B41" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="46">
         <v>0.30486111111111108</v>
